--- a/excel/03_saving_real_nominal.xlsx
+++ b/excel/03_saving_real_nominal.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\busi448\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A883AC38-03F3-4EBE-BC61-77D46514FCC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9F46933-F0E3-4480-B251-DEFE49821DF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17355" yWindow="0" windowWidth="34245" windowHeight="21000" xr2:uid="{369D1883-B5B4-44BF-9F92-3555163AADC1}"/>
+    <workbookView xWindow="25800" yWindow="0" windowWidth="25800" windowHeight="21000" xr2:uid="{369D1883-B5B4-44BF-9F92-3555163AADC1}"/>
   </bookViews>
   <sheets>
     <sheet name="Real Saving" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,6 @@
   </sheets>
   <definedNames>
     <definedName name="_xlchart.v1.0" hidden="1">Simulation!$C$2:$C$101</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Simulation!$C$2:$C$101</definedName>
     <definedName name="annual_deposit">Random!$B$5</definedName>
     <definedName name="beg_bal" localSheetId="1">'Nominal Saving'!$C$7</definedName>
     <definedName name="beg_bal">'Real Saving'!$C$7</definedName>
@@ -67,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="27">
   <si>
     <t>Inputs</t>
   </si>
@@ -146,6 +145,9 @@
   </si>
   <si>
     <t>Simulation</t>
+  </si>
+  <si>
+    <t>Real</t>
   </si>
 </sst>
 </file>
@@ -262,7 +264,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.1</cx:f>
+        <cx:f>_xlchart.v1.0</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -1364,7 +1366,7 @@
       <c r="G14" s="6"/>
       <c r="H14" s="6"/>
       <c r="I14" s="10" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="J14" s="10"/>
       <c r="K14" s="10"/>
@@ -1419,11 +1421,11 @@
         <v>0</v>
       </c>
       <c r="F16" s="9">
-        <f>K16*(1+inflation)^$C16</f>
+        <f t="shared" ref="F16:F47" si="1">K16*(1+inflation)^$C16</f>
         <v>32377.726058117365</v>
       </c>
       <c r="G16" s="9">
-        <f>L16*(1+inflation)^$C16</f>
+        <f t="shared" ref="G16:G47" si="2">L16*(1+inflation)^$C16</f>
         <v>0</v>
       </c>
       <c r="H16" s="9">
@@ -1435,15 +1437,15 @@
         <v>0</v>
       </c>
       <c r="J16" s="13">
-        <f>I16*real</f>
+        <f t="shared" ref="J16:J47" si="3">I16*real</f>
         <v>0</v>
       </c>
       <c r="K16" s="13">
-        <f>IF(C16&lt;=n_saving,deposit,0)</f>
+        <f t="shared" ref="K16:K47" si="4">IF(C16&lt;=n_saving,deposit,0)</f>
         <v>31742.868684428788</v>
       </c>
       <c r="L16" s="13">
-        <f>IF(C16&gt;n_saving,-withdrawal,0)</f>
+        <f t="shared" ref="L16:L47" si="5">IF(C16&gt;n_saving,-withdrawal,0)</f>
         <v>0</v>
       </c>
       <c r="M16" s="13">
@@ -1465,11 +1467,11 @@
         <v>1618.8863029058684</v>
       </c>
       <c r="F17" s="9">
-        <f>K17*(1+inflation)^$C17</f>
+        <f t="shared" si="1"/>
         <v>33025.280579279708</v>
       </c>
       <c r="G17" s="9">
-        <f>L17*(1+inflation)^$C17</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H17" s="9">
@@ -1481,15 +1483,15 @@
         <v>31742.868684428788</v>
       </c>
       <c r="J17" s="13">
-        <f>I17*real</f>
+        <f t="shared" si="3"/>
         <v>933.61378483614453</v>
       </c>
       <c r="K17" s="13">
-        <f>IF(C17&lt;=n_saving,deposit,0)</f>
+        <f t="shared" si="4"/>
         <v>31742.868684428788</v>
       </c>
       <c r="L17" s="13">
-        <f>IF(C17&gt;n_saving,-withdrawal,0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="M17" s="13">
@@ -1499,11 +1501,11 @@
     </row>
     <row r="18" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C18">
-        <f t="shared" ref="C18:C65" si="1">C17+1</f>
+        <f t="shared" ref="C18:C65" si="6">C17+1</f>
         <v>3</v>
       </c>
       <c r="D18" s="9">
-        <f t="shared" ref="D18:D65" si="2">H17</f>
+        <f t="shared" ref="D18:D65" si="7">H17</f>
         <v>67021.892940302932</v>
       </c>
       <c r="E18" s="9">
@@ -1511,45 +1513,45 @@
         <v>3351.0946470151466</v>
       </c>
       <c r="F18" s="9">
-        <f>K18*(1+inflation)^$C18</f>
+        <f t="shared" si="1"/>
         <v>33685.786190865299</v>
       </c>
       <c r="G18" s="9">
-        <f>L18*(1+inflation)^$C18</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H18" s="9">
-        <f t="shared" ref="H18:H65" si="3">D18+E18+F18+G18</f>
+        <f t="shared" ref="H18:H65" si="8">D18+E18+F18+G18</f>
         <v>104058.77377818339</v>
       </c>
       <c r="I18" s="13">
-        <f t="shared" ref="I18:I65" si="4">M17</f>
+        <f t="shared" ref="I18:I65" si="9">M17</f>
         <v>64419.351153693715</v>
       </c>
       <c r="J18" s="13">
-        <f>I18*real</f>
+        <f t="shared" si="3"/>
         <v>1894.686798638058</v>
       </c>
       <c r="K18" s="13">
-        <f>IF(C18&lt;=n_saving,deposit,0)</f>
+        <f t="shared" si="4"/>
         <v>31742.868684428788</v>
       </c>
       <c r="L18" s="13">
-        <f>IF(C18&gt;n_saving,-withdrawal,0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="M18" s="13">
-        <f t="shared" ref="M18:M65" si="5">I18+J18+K18+L18</f>
+        <f t="shared" ref="M18:M65" si="10">I18+J18+K18+L18</f>
         <v>98056.906636760556</v>
       </c>
     </row>
     <row r="19" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
       <c r="D19" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>104058.77377818339</v>
       </c>
       <c r="E19" s="9">
@@ -1557,45 +1559,45 @@
         <v>5202.9386889091693</v>
       </c>
       <c r="F19" s="9">
-        <f>K19*(1+inflation)^$C19</f>
+        <f t="shared" si="1"/>
         <v>34359.501914682609</v>
       </c>
       <c r="G19" s="9">
-        <f>L19*(1+inflation)^$C19</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H19" s="9">
+        <f t="shared" si="8"/>
+        <v>143621.21438177518</v>
+      </c>
+      <c r="I19" s="13">
+        <f t="shared" si="9"/>
+        <v>98056.906636760556</v>
+      </c>
+      <c r="J19" s="13">
         <f t="shared" si="3"/>
-        <v>143621.21438177518</v>
-      </c>
-      <c r="I19" s="13">
+        <v>2884.0266657870866</v>
+      </c>
+      <c r="K19" s="13">
         <f t="shared" si="4"/>
-        <v>98056.906636760556</v>
-      </c>
-      <c r="J19" s="13">
-        <f>I19*real</f>
-        <v>2884.0266657870866</v>
-      </c>
-      <c r="K19" s="13">
-        <f>IF(C19&lt;=n_saving,deposit,0)</f>
         <v>31742.868684428788</v>
       </c>
       <c r="L19" s="13">
-        <f>IF(C19&gt;n_saving,-withdrawal,0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="M19" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>132683.80198697641</v>
       </c>
     </row>
     <row r="20" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
       <c r="D20" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>143621.21438177518</v>
       </c>
       <c r="E20" s="9">
@@ -1603,45 +1605,45 @@
         <v>7181.0607190887595</v>
       </c>
       <c r="F20" s="9">
-        <f>K20*(1+inflation)^$C20</f>
+        <f t="shared" si="1"/>
         <v>35046.691952976267</v>
       </c>
       <c r="G20" s="9">
-        <f>L20*(1+inflation)^$C20</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H20" s="9">
+        <f t="shared" si="8"/>
+        <v>185848.96705384023</v>
+      </c>
+      <c r="I20" s="13">
+        <f t="shared" si="9"/>
+        <v>132683.80198697641</v>
+      </c>
+      <c r="J20" s="13">
         <f t="shared" si="3"/>
-        <v>185848.96705384023</v>
-      </c>
-      <c r="I20" s="13">
+        <v>3902.4647643228514</v>
+      </c>
+      <c r="K20" s="13">
         <f t="shared" si="4"/>
-        <v>132683.80198697641</v>
-      </c>
-      <c r="J20" s="13">
-        <f>I20*real</f>
-        <v>3902.4647643228514</v>
-      </c>
-      <c r="K20" s="13">
-        <f>IF(C20&lt;=n_saving,deposit,0)</f>
         <v>31742.868684428788</v>
       </c>
       <c r="L20" s="13">
-        <f>IF(C20&gt;n_saving,-withdrawal,0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="M20" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>168329.13543572807</v>
       </c>
     </row>
     <row r="21" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
       <c r="D21" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>185848.96705384023</v>
       </c>
       <c r="E21" s="9">
@@ -1649,45 +1651,45 @@
         <v>9292.4483526920121</v>
       </c>
       <c r="F21" s="9">
-        <f>K21*(1+inflation)^$C21</f>
+        <f t="shared" si="1"/>
         <v>35747.625792035789</v>
       </c>
       <c r="G21" s="9">
-        <f>L21*(1+inflation)^$C21</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H21" s="9">
+        <f t="shared" si="8"/>
+        <v>230889.04119856801</v>
+      </c>
+      <c r="I21" s="13">
+        <f t="shared" si="9"/>
+        <v>168329.13543572807</v>
+      </c>
+      <c r="J21" s="13">
         <f t="shared" si="3"/>
-        <v>230889.04119856801</v>
-      </c>
-      <c r="I21" s="13">
+        <v>4950.8569245802573</v>
+      </c>
+      <c r="K21" s="13">
         <f t="shared" si="4"/>
-        <v>168329.13543572807</v>
-      </c>
-      <c r="J21" s="13">
-        <f>I21*real</f>
-        <v>4950.8569245802573</v>
-      </c>
-      <c r="K21" s="13">
-        <f>IF(C21&lt;=n_saving,deposit,0)</f>
         <v>31742.868684428788</v>
       </c>
       <c r="L21" s="13">
-        <f>IF(C21&gt;n_saving,-withdrawal,0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="M21" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>205022.8610447371</v>
       </c>
     </row>
     <row r="22" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>7</v>
       </c>
       <c r="D22" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>230889.04119856801</v>
       </c>
       <c r="E22" s="9">
@@ -1695,45 +1697,45 @@
         <v>11544.452059928401</v>
       </c>
       <c r="F22" s="9">
-        <f>K22*(1+inflation)^$C22</f>
+        <f t="shared" si="1"/>
         <v>36462.578307876502</v>
       </c>
       <c r="G22" s="9">
-        <f>L22*(1+inflation)^$C22</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H22" s="9">
+        <f t="shared" si="8"/>
+        <v>278896.07156637288</v>
+      </c>
+      <c r="I22" s="13">
+        <f t="shared" si="9"/>
+        <v>205022.8610447371</v>
+      </c>
+      <c r="J22" s="13">
         <f t="shared" si="3"/>
-        <v>278896.07156637288</v>
-      </c>
-      <c r="I22" s="13">
+        <v>6030.0841483746444</v>
+      </c>
+      <c r="K22" s="13">
         <f t="shared" si="4"/>
-        <v>205022.8610447371</v>
-      </c>
-      <c r="J22" s="13">
-        <f>I22*real</f>
-        <v>6030.0841483746444</v>
-      </c>
-      <c r="K22" s="13">
-        <f>IF(C22&lt;=n_saving,deposit,0)</f>
         <v>31742.868684428788</v>
       </c>
       <c r="L22" s="13">
-        <f>IF(C22&gt;n_saving,-withdrawal,0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="M22" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>242795.81387754052</v>
       </c>
     </row>
     <row r="23" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>8</v>
       </c>
       <c r="D23" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>278896.07156637288</v>
       </c>
       <c r="E23" s="9">
@@ -1741,45 +1743,45 @@
         <v>13944.803578318644</v>
       </c>
       <c r="F23" s="9">
-        <f>K23*(1+inflation)^$C23</f>
+        <f t="shared" si="1"/>
         <v>37191.829874034032</v>
       </c>
       <c r="G23" s="9">
-        <f>L23*(1+inflation)^$C23</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H23" s="9">
+        <f t="shared" si="8"/>
+        <v>330032.70501872554</v>
+      </c>
+      <c r="I23" s="13">
+        <f t="shared" si="9"/>
+        <v>242795.81387754052</v>
+      </c>
+      <c r="J23" s="13">
         <f t="shared" si="3"/>
-        <v>330032.70501872554</v>
-      </c>
-      <c r="I23" s="13">
+        <v>7141.053349339456</v>
+      </c>
+      <c r="K23" s="13">
         <f t="shared" si="4"/>
-        <v>242795.81387754052</v>
-      </c>
-      <c r="J23" s="13">
-        <f>I23*real</f>
-        <v>7141.053349339456</v>
-      </c>
-      <c r="K23" s="13">
-        <f>IF(C23&lt;=n_saving,deposit,0)</f>
         <v>31742.868684428788</v>
       </c>
       <c r="L23" s="13">
-        <f>IF(C23&gt;n_saving,-withdrawal,0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="M23" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>281679.73591130879</v>
       </c>
     </row>
     <row r="24" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>9</v>
       </c>
       <c r="D24" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>330032.70501872554</v>
       </c>
       <c r="E24" s="9">
@@ -1787,45 +1789,45 @@
         <v>16501.635250936277</v>
       </c>
       <c r="F24" s="9">
-        <f>K24*(1+inflation)^$C24</f>
+        <f t="shared" si="1"/>
         <v>37935.666471514713</v>
       </c>
       <c r="G24" s="9">
-        <f>L24*(1+inflation)^$C24</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H24" s="9">
+        <f t="shared" si="8"/>
+        <v>384470.00674117653</v>
+      </c>
+      <c r="I24" s="13">
+        <f t="shared" si="9"/>
+        <v>281679.73591130879</v>
+      </c>
+      <c r="J24" s="13">
         <f t="shared" si="3"/>
-        <v>384470.00674117653</v>
-      </c>
-      <c r="I24" s="13">
+        <v>8284.6981150385272</v>
+      </c>
+      <c r="K24" s="13">
         <f t="shared" si="4"/>
-        <v>281679.73591130879</v>
-      </c>
-      <c r="J24" s="13">
-        <f>I24*real</f>
-        <v>8284.6981150385272</v>
-      </c>
-      <c r="K24" s="13">
-        <f>IF(C24&lt;=n_saving,deposit,0)</f>
         <v>31742.868684428788</v>
       </c>
       <c r="L24" s="13">
-        <f>IF(C24&gt;n_saving,-withdrawal,0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="M24" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>321707.3027107761</v>
       </c>
     </row>
     <row r="25" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>10</v>
       </c>
       <c r="D25" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>384470.00674117653</v>
       </c>
       <c r="E25" s="9">
@@ -1833,45 +1835,45 @@
         <v>19223.500337058827</v>
       </c>
       <c r="F25" s="9">
-        <f>K25*(1+inflation)^$C25</f>
+        <f t="shared" si="1"/>
         <v>38694.379800945011</v>
       </c>
       <c r="G25" s="9">
-        <f>L25*(1+inflation)^$C25</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H25" s="9">
+        <f t="shared" si="8"/>
+        <v>442387.88687918038</v>
+      </c>
+      <c r="I25" s="13">
+        <f t="shared" si="9"/>
+        <v>321707.3027107761</v>
+      </c>
+      <c r="J25" s="13">
         <f t="shared" si="3"/>
-        <v>442387.88687918038</v>
-      </c>
-      <c r="I25" s="13">
+        <v>9461.9794914934519</v>
+      </c>
+      <c r="K25" s="13">
         <f t="shared" si="4"/>
-        <v>321707.3027107761</v>
-      </c>
-      <c r="J25" s="13">
-        <f>I25*real</f>
-        <v>9461.9794914934519</v>
-      </c>
-      <c r="K25" s="13">
-        <f>IF(C25&lt;=n_saving,deposit,0)</f>
         <v>31742.868684428788</v>
       </c>
       <c r="L25" s="13">
-        <f>IF(C25&gt;n_saving,-withdrawal,0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="M25" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>362912.15088669833</v>
       </c>
     </row>
     <row r="26" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C26">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>11</v>
       </c>
       <c r="D26" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>442387.88687918038</v>
       </c>
       <c r="E26" s="9">
@@ -1879,45 +1881,45 @@
         <v>22119.394343959022</v>
       </c>
       <c r="F26" s="9">
-        <f>K26*(1+inflation)^$C26</f>
+        <f t="shared" si="1"/>
         <v>39468.2673969639</v>
       </c>
       <c r="G26" s="9">
-        <f>L26*(1+inflation)^$C26</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H26" s="9">
+        <f t="shared" si="8"/>
+        <v>503975.54862010328</v>
+      </c>
+      <c r="I26" s="13">
+        <f t="shared" si="9"/>
+        <v>362912.15088669833</v>
+      </c>
+      <c r="J26" s="13">
         <f t="shared" si="3"/>
-        <v>503975.54862010328</v>
-      </c>
-      <c r="I26" s="13">
+        <v>10673.886790785287</v>
+      </c>
+      <c r="K26" s="13">
         <f t="shared" si="4"/>
-        <v>362912.15088669833</v>
-      </c>
-      <c r="J26" s="13">
-        <f>I26*real</f>
-        <v>10673.886790785287</v>
-      </c>
-      <c r="K26" s="13">
-        <f>IF(C26&lt;=n_saving,deposit,0)</f>
         <v>31742.868684428788</v>
       </c>
       <c r="L26" s="13">
-        <f>IF(C26&gt;n_saving,-withdrawal,0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="M26" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>405328.90636191244</v>
       </c>
     </row>
     <row r="27" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>12</v>
       </c>
       <c r="D27" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>503975.54862010328</v>
       </c>
       <c r="E27" s="9">
@@ -1925,45 +1927,45 @@
         <v>25198.777431005165</v>
       </c>
       <c r="F27" s="9">
-        <f>K27*(1+inflation)^$C27</f>
+        <f t="shared" si="1"/>
         <v>40257.632744903189</v>
       </c>
       <c r="G27" s="9">
-        <f>L27*(1+inflation)^$C27</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H27" s="9">
+        <f t="shared" si="8"/>
+        <v>569431.95879601163</v>
+      </c>
+      <c r="I27" s="13">
+        <f t="shared" si="9"/>
+        <v>405328.90636191244</v>
+      </c>
+      <c r="J27" s="13">
         <f t="shared" si="3"/>
-        <v>569431.95879601163</v>
-      </c>
-      <c r="I27" s="13">
+        <v>11921.438422409237</v>
+      </c>
+      <c r="K27" s="13">
         <f t="shared" si="4"/>
-        <v>405328.90636191244</v>
-      </c>
-      <c r="J27" s="13">
-        <f>I27*real</f>
-        <v>11921.438422409237</v>
-      </c>
-      <c r="K27" s="13">
-        <f>IF(C27&lt;=n_saving,deposit,0)</f>
         <v>31742.868684428788</v>
       </c>
       <c r="L27" s="13">
-        <f>IF(C27&gt;n_saving,-withdrawal,0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="M27" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>448993.21346875047</v>
       </c>
     </row>
     <row r="28" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C28">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>13</v>
       </c>
       <c r="D28" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>569431.95879601163</v>
       </c>
       <c r="E28" s="9">
@@ -1971,45 +1973,45 @@
         <v>28471.597939800584</v>
       </c>
       <c r="F28" s="9">
-        <f>K28*(1+inflation)^$C28</f>
+        <f t="shared" si="1"/>
         <v>41062.785399801251</v>
       </c>
       <c r="G28" s="9">
-        <f>L28*(1+inflation)^$C28</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H28" s="9">
+        <f t="shared" si="8"/>
+        <v>638966.34213561343</v>
+      </c>
+      <c r="I28" s="13">
+        <f t="shared" si="9"/>
+        <v>448993.21346875047</v>
+      </c>
+      <c r="J28" s="13">
         <f t="shared" si="3"/>
-        <v>638966.34213561343</v>
-      </c>
-      <c r="I28" s="13">
+        <v>13205.682749080948</v>
+      </c>
+      <c r="K28" s="13">
         <f t="shared" si="4"/>
-        <v>448993.21346875047</v>
-      </c>
-      <c r="J28" s="13">
-        <f>I28*real</f>
-        <v>13205.682749080948</v>
-      </c>
-      <c r="K28" s="13">
-        <f>IF(C28&lt;=n_saving,deposit,0)</f>
         <v>31742.868684428788</v>
       </c>
       <c r="L28" s="13">
-        <f>IF(C28&gt;n_saving,-withdrawal,0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="M28" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>493941.76490226021</v>
       </c>
     </row>
     <row r="29" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C29">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>14</v>
       </c>
       <c r="D29" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>638966.34213561343</v>
       </c>
       <c r="E29" s="9">
@@ -2017,45 +2019,45 @@
         <v>31948.317106780672</v>
       </c>
       <c r="F29" s="9">
-        <f>K29*(1+inflation)^$C29</f>
+        <f t="shared" si="1"/>
         <v>41884.041107797275</v>
       </c>
       <c r="G29" s="9">
-        <f>L29*(1+inflation)^$C29</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H29" s="9">
+        <f t="shared" si="8"/>
+        <v>712798.70035019144</v>
+      </c>
+      <c r="I29" s="13">
+        <f t="shared" si="9"/>
+        <v>493941.76490226021</v>
+      </c>
+      <c r="J29" s="13">
         <f t="shared" si="3"/>
-        <v>712798.70035019144</v>
-      </c>
-      <c r="I29" s="13">
+        <v>14527.698967713593</v>
+      </c>
+      <c r="K29" s="13">
         <f t="shared" si="4"/>
-        <v>493941.76490226021</v>
-      </c>
-      <c r="J29" s="13">
-        <f>I29*real</f>
-        <v>14527.698967713593</v>
-      </c>
-      <c r="K29" s="13">
-        <f>IF(C29&lt;=n_saving,deposit,0)</f>
         <v>31742.868684428788</v>
       </c>
       <c r="L29" s="13">
-        <f>IF(C29&gt;n_saving,-withdrawal,0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="M29" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>540212.33255440253</v>
       </c>
     </row>
     <row r="30" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C30">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>15</v>
       </c>
       <c r="D30" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>712798.70035019144</v>
       </c>
       <c r="E30" s="9">
@@ -2063,45 +2065,45 @@
         <v>35639.935017509575</v>
       </c>
       <c r="F30" s="9">
-        <f>K30*(1+inflation)^$C30</f>
+        <f t="shared" si="1"/>
         <v>42721.721929953208</v>
       </c>
       <c r="G30" s="9">
-        <f>L30*(1+inflation)^$C30</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H30" s="9">
+        <f t="shared" si="8"/>
+        <v>791160.35729765426</v>
+      </c>
+      <c r="I30" s="13">
+        <f t="shared" si="9"/>
+        <v>540212.33255440253</v>
+      </c>
+      <c r="J30" s="13">
         <f t="shared" si="3"/>
-        <v>791160.35729765426</v>
-      </c>
-      <c r="I30" s="13">
+        <v>15888.598016306019</v>
+      </c>
+      <c r="K30" s="13">
         <f t="shared" si="4"/>
-        <v>540212.33255440253</v>
-      </c>
-      <c r="J30" s="13">
-        <f>I30*real</f>
-        <v>15888.598016306019</v>
-      </c>
-      <c r="K30" s="13">
-        <f>IF(C30&lt;=n_saving,deposit,0)</f>
         <v>31742.868684428788</v>
       </c>
       <c r="L30" s="13">
-        <f>IF(C30&gt;n_saving,-withdrawal,0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="M30" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>587843.79925513733</v>
       </c>
     </row>
     <row r="31" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>16</v>
       </c>
       <c r="D31" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>791160.35729765426</v>
       </c>
       <c r="E31" s="9">
@@ -2109,45 +2111,45 @@
         <v>39558.017864882713</v>
       </c>
       <c r="F31" s="9">
-        <f>K31*(1+inflation)^$C31</f>
+        <f t="shared" si="1"/>
         <v>43576.156368552285</v>
       </c>
       <c r="G31" s="9">
-        <f>L31*(1+inflation)^$C31</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H31" s="9">
+        <f t="shared" si="8"/>
+        <v>874294.53153108922</v>
+      </c>
+      <c r="I31" s="13">
+        <f t="shared" si="9"/>
+        <v>587843.79925513733</v>
+      </c>
+      <c r="J31" s="13">
         <f t="shared" si="3"/>
-        <v>874294.53153108922</v>
-      </c>
-      <c r="I31" s="13">
+        <v>17289.523507504109</v>
+      </c>
+      <c r="K31" s="13">
         <f t="shared" si="4"/>
-        <v>587843.79925513733</v>
-      </c>
-      <c r="J31" s="13">
-        <f>I31*real</f>
-        <v>17289.523507504109</v>
-      </c>
-      <c r="K31" s="13">
-        <f>IF(C31&lt;=n_saving,deposit,0)</f>
         <v>31742.868684428788</v>
       </c>
       <c r="L31" s="13">
-        <f>IF(C31&gt;n_saving,-withdrawal,0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="M31" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>636876.19144707022</v>
       </c>
     </row>
     <row r="32" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C32">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>17</v>
       </c>
       <c r="D32" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>874294.53153108922</v>
       </c>
       <c r="E32" s="9">
@@ -2155,45 +2157,45 @@
         <v>43714.726576554465</v>
       </c>
       <c r="F32" s="9">
-        <f>K32*(1+inflation)^$C32</f>
+        <f t="shared" si="1"/>
         <v>44447.67949592333</v>
       </c>
       <c r="G32" s="9">
-        <f>L32*(1+inflation)^$C32</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H32" s="9">
+        <f t="shared" si="8"/>
+        <v>962456.93760356703</v>
+      </c>
+      <c r="I32" s="13">
+        <f t="shared" si="9"/>
+        <v>636876.19144707022</v>
+      </c>
+      <c r="J32" s="13">
         <f t="shared" si="3"/>
-        <v>962456.93760356703</v>
-      </c>
-      <c r="I32" s="13">
+        <v>18731.652689619787</v>
+      </c>
+      <c r="K32" s="13">
         <f t="shared" si="4"/>
-        <v>636876.19144707022</v>
-      </c>
-      <c r="J32" s="13">
-        <f>I32*real</f>
-        <v>18731.652689619787</v>
-      </c>
-      <c r="K32" s="13">
-        <f>IF(C32&lt;=n_saving,deposit,0)</f>
         <v>31742.868684428788</v>
       </c>
       <c r="L32" s="13">
-        <f>IF(C32&gt;n_saving,-withdrawal,0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="M32" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>687350.71282111877</v>
       </c>
     </row>
     <row r="33" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C33">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>18</v>
       </c>
       <c r="D33" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>962456.93760356703</v>
       </c>
       <c r="E33" s="9">
@@ -2201,45 +2203,45 @@
         <v>48122.846880178353</v>
       </c>
       <c r="F33" s="9">
-        <f>K33*(1+inflation)^$C33</f>
+        <f t="shared" si="1"/>
         <v>45336.633085841793</v>
       </c>
       <c r="G33" s="9">
-        <f>L33*(1+inflation)^$C33</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H33" s="9">
+        <f t="shared" si="8"/>
+        <v>1055916.4175695872</v>
+      </c>
+      <c r="I33" s="13">
+        <f t="shared" si="9"/>
+        <v>687350.71282111877</v>
+      </c>
+      <c r="J33" s="13">
         <f t="shared" si="3"/>
-        <v>1055916.4175695872</v>
-      </c>
-      <c r="I33" s="13">
+        <v>20216.197435915339</v>
+      </c>
+      <c r="K33" s="13">
         <f t="shared" si="4"/>
-        <v>687350.71282111877</v>
-      </c>
-      <c r="J33" s="13">
-        <f>I33*real</f>
-        <v>20216.197435915339</v>
-      </c>
-      <c r="K33" s="13">
-        <f>IF(C33&lt;=n_saving,deposit,0)</f>
         <v>31742.868684428788</v>
       </c>
       <c r="L33" s="13">
-        <f>IF(C33&gt;n_saving,-withdrawal,0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="M33" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>739309.77894146286</v>
       </c>
     </row>
     <row r="34" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C34">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>19</v>
       </c>
       <c r="D34" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>1055916.4175695872</v>
       </c>
       <c r="E34" s="9">
@@ -2247,45 +2249,45 @@
         <v>52795.820878479368</v>
       </c>
       <c r="F34" s="9">
-        <f>K34*(1+inflation)^$C34</f>
+        <f t="shared" si="1"/>
         <v>46243.36574755863</v>
       </c>
       <c r="G34" s="9">
-        <f>L34*(1+inflation)^$C34</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H34" s="9">
+        <f t="shared" si="8"/>
+        <v>1154955.6041956253</v>
+      </c>
+      <c r="I34" s="13">
+        <f t="shared" si="9"/>
+        <v>739309.77894146286</v>
+      </c>
+      <c r="J34" s="13">
         <f t="shared" si="3"/>
-        <v>1154955.6041956253</v>
-      </c>
-      <c r="I34" s="13">
+        <v>21744.405262984288</v>
+      </c>
+      <c r="K34" s="13">
         <f t="shared" si="4"/>
-        <v>739309.77894146286</v>
-      </c>
-      <c r="J34" s="13">
-        <f>I34*real</f>
-        <v>21744.405262984288</v>
-      </c>
-      <c r="K34" s="13">
-        <f>IF(C34&lt;=n_saving,deposit,0)</f>
         <v>31742.868684428788</v>
       </c>
       <c r="L34" s="13">
-        <f>IF(C34&gt;n_saving,-withdrawal,0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="M34" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>792797.05288887594</v>
       </c>
     </row>
     <row r="35" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C35">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>20</v>
       </c>
       <c r="D35" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>1154955.6041956253</v>
       </c>
       <c r="E35" s="9">
@@ -2293,45 +2295,45 @@
         <v>57747.780209781267</v>
       </c>
       <c r="F35" s="9">
-        <f>K35*(1+inflation)^$C35</f>
+        <f t="shared" si="1"/>
         <v>47168.233062509804</v>
       </c>
       <c r="G35" s="9">
-        <f>L35*(1+inflation)^$C35</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H35" s="9">
+        <f t="shared" si="8"/>
+        <v>1259871.6174679166</v>
+      </c>
+      <c r="I35" s="13">
+        <f t="shared" si="9"/>
+        <v>792797.05288887594</v>
+      </c>
+      <c r="J35" s="13">
         <f t="shared" si="3"/>
-        <v>1259871.6174679166</v>
-      </c>
-      <c r="I35" s="13">
+        <v>23317.56037908468</v>
+      </c>
+      <c r="K35" s="13">
         <f t="shared" si="4"/>
-        <v>792797.05288887594</v>
-      </c>
-      <c r="J35" s="13">
-        <f>I35*real</f>
-        <v>23317.56037908468</v>
-      </c>
-      <c r="K35" s="13">
-        <f>IF(C35&lt;=n_saving,deposit,0)</f>
         <v>31742.868684428788</v>
       </c>
       <c r="L35" s="13">
-        <f>IF(C35&gt;n_saving,-withdrawal,0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="M35" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>847857.48195238935</v>
       </c>
     </row>
     <row r="36" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C36">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>21</v>
       </c>
       <c r="D36" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>1259871.6174679166</v>
       </c>
       <c r="E36" s="9">
@@ -2339,45 +2341,45 @@
         <v>62993.580873395833</v>
       </c>
       <c r="F36" s="9">
-        <f>K36*(1+inflation)^$C36</f>
+        <f t="shared" si="1"/>
         <v>48111.597723759995</v>
       </c>
       <c r="G36" s="9">
-        <f>L36*(1+inflation)^$C36</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H36" s="9">
+        <f t="shared" si="8"/>
+        <v>1370976.7960650723</v>
+      </c>
+      <c r="I36" s="13">
+        <f t="shared" si="9"/>
+        <v>847857.48195238935</v>
+      </c>
+      <c r="J36" s="13">
         <f t="shared" si="3"/>
-        <v>1370976.7960650723</v>
-      </c>
-      <c r="I36" s="13">
+        <v>24936.984763305671</v>
+      </c>
+      <c r="K36" s="13">
         <f t="shared" si="4"/>
-        <v>847857.48195238935</v>
-      </c>
-      <c r="J36" s="13">
-        <f>I36*real</f>
-        <v>24936.984763305671</v>
-      </c>
-      <c r="K36" s="13">
-        <f>IF(C36&lt;=n_saving,deposit,0)</f>
         <v>31742.868684428788</v>
       </c>
       <c r="L36" s="13">
-        <f>IF(C36&gt;n_saving,-withdrawal,0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="M36" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>904537.33540012373</v>
       </c>
     </row>
     <row r="37" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C37">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>22</v>
       </c>
       <c r="D37" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>1370976.7960650723</v>
       </c>
       <c r="E37" s="9">
@@ -2385,45 +2387,45 @@
         <v>68548.839803253621</v>
       </c>
       <c r="F37" s="9">
-        <f>K37*(1+inflation)^$C37</f>
+        <f t="shared" si="1"/>
         <v>49073.829678235197</v>
       </c>
       <c r="G37" s="9">
-        <f>L37*(1+inflation)^$C37</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H37" s="9">
+        <f t="shared" si="8"/>
+        <v>1488599.4655465609</v>
+      </c>
+      <c r="I37" s="13">
+        <f t="shared" si="9"/>
+        <v>904537.33540012373</v>
+      </c>
+      <c r="J37" s="13">
         <f t="shared" si="3"/>
-        <v>1488599.4655465609</v>
-      </c>
-      <c r="I37" s="13">
+        <v>26604.039276474334</v>
+      </c>
+      <c r="K37" s="13">
         <f t="shared" si="4"/>
-        <v>904537.33540012373</v>
-      </c>
-      <c r="J37" s="13">
-        <f>I37*real</f>
-        <v>26604.039276474334</v>
-      </c>
-      <c r="K37" s="13">
-        <f>IF(C37&lt;=n_saving,deposit,0)</f>
         <v>31742.868684428788</v>
       </c>
       <c r="L37" s="13">
-        <f>IF(C37&gt;n_saving,-withdrawal,0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="M37" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>962884.24336102686</v>
       </c>
     </row>
     <row r="38" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C38">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>23</v>
       </c>
       <c r="D38" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>1488599.4655465609</v>
       </c>
       <c r="E38" s="9">
@@ -2431,45 +2433,45 @@
         <v>74429.973277328056</v>
       </c>
       <c r="F38" s="9">
-        <f>K38*(1+inflation)^$C38</f>
+        <f t="shared" si="1"/>
         <v>50055.306271799891</v>
       </c>
       <c r="G38" s="9">
-        <f>L38*(1+inflation)^$C38</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H38" s="9">
+        <f t="shared" si="8"/>
+        <v>1613084.7450956888</v>
+      </c>
+      <c r="I38" s="13">
+        <f t="shared" si="9"/>
+        <v>962884.24336102686</v>
+      </c>
+      <c r="J38" s="13">
         <f t="shared" si="3"/>
-        <v>1613084.7450956888</v>
-      </c>
-      <c r="I38" s="13">
+        <v>28320.124804736199</v>
+      </c>
+      <c r="K38" s="13">
         <f t="shared" si="4"/>
-        <v>962884.24336102686</v>
-      </c>
-      <c r="J38" s="13">
-        <f>I38*real</f>
-        <v>28320.124804736199</v>
-      </c>
-      <c r="K38" s="13">
-        <f>IF(C38&lt;=n_saving,deposit,0)</f>
         <v>31742.868684428788</v>
       </c>
       <c r="L38" s="13">
-        <f>IF(C38&gt;n_saving,-withdrawal,0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="M38" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>1022947.2368501918</v>
       </c>
     </row>
     <row r="39" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C39">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>24</v>
       </c>
       <c r="D39" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>1613084.7450956888</v>
       </c>
       <c r="E39" s="9">
@@ -2477,45 +2479,45 @@
         <v>80654.237254784442</v>
       </c>
       <c r="F39" s="9">
-        <f>K39*(1+inflation)^$C39</f>
+        <f t="shared" si="1"/>
         <v>51056.412397235894</v>
       </c>
       <c r="G39" s="9">
-        <f>L39*(1+inflation)^$C39</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H39" s="9">
+        <f t="shared" si="8"/>
+        <v>1744795.3947477092</v>
+      </c>
+      <c r="I39" s="13">
+        <f t="shared" si="9"/>
+        <v>1022947.2368501918</v>
+      </c>
+      <c r="J39" s="13">
         <f t="shared" si="3"/>
-        <v>1744795.3947477092</v>
-      </c>
-      <c r="I39" s="13">
+        <v>30086.683436770469</v>
+      </c>
+      <c r="K39" s="13">
         <f t="shared" si="4"/>
-        <v>1022947.2368501918</v>
-      </c>
-      <c r="J39" s="13">
-        <f>I39*real</f>
-        <v>30086.683436770469</v>
-      </c>
-      <c r="K39" s="13">
-        <f>IF(C39&lt;=n_saving,deposit,0)</f>
         <v>31742.868684428788</v>
       </c>
       <c r="L39" s="13">
-        <f>IF(C39&gt;n_saving,-withdrawal,0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="M39" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>1084776.788971391</v>
       </c>
     </row>
     <row r="40" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C40">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>25</v>
       </c>
       <c r="D40" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>1744795.3947477092</v>
       </c>
       <c r="E40" s="9">
@@ -2523,45 +2525,45 @@
         <v>87239.769737385461</v>
       </c>
       <c r="F40" s="9">
-        <f>K40*(1+inflation)^$C40</f>
+        <f t="shared" si="1"/>
         <v>52077.540645180612</v>
       </c>
       <c r="G40" s="9">
-        <f>L40*(1+inflation)^$C40</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H40" s="9">
+        <f t="shared" si="8"/>
+        <v>1884112.7051302751</v>
+      </c>
+      <c r="I40" s="13">
+        <f t="shared" si="9"/>
+        <v>1084776.788971391</v>
+      </c>
+      <c r="J40" s="13">
         <f t="shared" si="3"/>
-        <v>1884112.7051302751</v>
-      </c>
-      <c r="I40" s="13">
+        <v>31905.199675629276</v>
+      </c>
+      <c r="K40" s="13">
         <f t="shared" si="4"/>
-        <v>1084776.788971391</v>
-      </c>
-      <c r="J40" s="13">
-        <f>I40*real</f>
-        <v>31905.199675629276</v>
-      </c>
-      <c r="K40" s="13">
-        <f>IF(C40&lt;=n_saving,deposit,0)</f>
         <v>31742.868684428788</v>
       </c>
       <c r="L40" s="13">
-        <f>IF(C40&gt;n_saving,-withdrawal,0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="M40" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>1148424.8573314492</v>
       </c>
     </row>
     <row r="41" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C41">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>26</v>
       </c>
       <c r="D41" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>1884112.7051302751</v>
       </c>
       <c r="E41" s="9">
@@ -2569,45 +2571,45 @@
         <v>94205.635256513764</v>
       </c>
       <c r="F41" s="9">
-        <f>K41*(1+inflation)^$C41</f>
+        <f t="shared" si="1"/>
         <v>53119.091458084229</v>
       </c>
       <c r="G41" s="9">
-        <f>L41*(1+inflation)^$C41</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H41" s="9">
+        <f t="shared" si="8"/>
+        <v>2031437.4318448731</v>
+      </c>
+      <c r="I41" s="13">
+        <f t="shared" si="9"/>
+        <v>1148424.8573314492</v>
+      </c>
+      <c r="J41" s="13">
         <f t="shared" si="3"/>
-        <v>2031437.4318448731</v>
-      </c>
-      <c r="I41" s="13">
+        <v>33777.201686219225</v>
+      </c>
+      <c r="K41" s="13">
         <f t="shared" si="4"/>
-        <v>1148424.8573314492</v>
-      </c>
-      <c r="J41" s="13">
-        <f>I41*real</f>
-        <v>33777.201686219225</v>
-      </c>
-      <c r="K41" s="13">
-        <f>IF(C41&lt;=n_saving,deposit,0)</f>
         <v>31742.868684428788</v>
       </c>
       <c r="L41" s="13">
-        <f>IF(C41&gt;n_saving,-withdrawal,0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="M41" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>1213944.9277020972</v>
       </c>
     </row>
     <row r="42" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C42">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>27</v>
       </c>
       <c r="D42" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>2031437.4318448731</v>
       </c>
       <c r="E42" s="9">
@@ -2615,45 +2617,45 @@
         <v>101571.87159224367</v>
       </c>
       <c r="F42" s="9">
-        <f>K42*(1+inflation)^$C42</f>
+        <f t="shared" si="1"/>
         <v>54181.473287245906</v>
       </c>
       <c r="G42" s="9">
-        <f>L42*(1+inflation)^$C42</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H42" s="9">
+        <f t="shared" si="8"/>
+        <v>2187190.7767243623</v>
+      </c>
+      <c r="I42" s="13">
+        <f t="shared" si="9"/>
+        <v>1213944.9277020972</v>
+      </c>
+      <c r="J42" s="13">
         <f t="shared" si="3"/>
-        <v>2187190.7767243623</v>
-      </c>
-      <c r="I42" s="13">
+        <v>35704.262579473587</v>
+      </c>
+      <c r="K42" s="13">
         <f t="shared" si="4"/>
-        <v>1213944.9277020972</v>
-      </c>
-      <c r="J42" s="13">
-        <f>I42*real</f>
-        <v>35704.262579473587</v>
-      </c>
-      <c r="K42" s="13">
-        <f>IF(C42&lt;=n_saving,deposit,0)</f>
         <v>31742.868684428788</v>
       </c>
       <c r="L42" s="13">
-        <f>IF(C42&gt;n_saving,-withdrawal,0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="M42" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>1281392.0589659996</v>
       </c>
     </row>
     <row r="43" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C43">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>28</v>
       </c>
       <c r="D43" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>2187190.7767243623</v>
       </c>
       <c r="E43" s="9">
@@ -2661,45 +2663,45 @@
         <v>109359.53883621813</v>
       </c>
       <c r="F43" s="9">
-        <f>K43*(1+inflation)^$C43</f>
+        <f t="shared" si="1"/>
         <v>55265.102752990832</v>
       </c>
       <c r="G43" s="9">
-        <f>L43*(1+inflation)^$C43</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H43" s="9">
+        <f t="shared" si="8"/>
+        <v>2351815.4183135713</v>
+      </c>
+      <c r="I43" s="13">
+        <f t="shared" si="9"/>
+        <v>1281392.0589659996</v>
+      </c>
+      <c r="J43" s="13">
         <f t="shared" si="3"/>
-        <v>2351815.4183135713</v>
-      </c>
-      <c r="I43" s="13">
+        <v>37688.001734294259</v>
+      </c>
+      <c r="K43" s="13">
         <f t="shared" si="4"/>
-        <v>1281392.0589659996</v>
-      </c>
-      <c r="J43" s="13">
-        <f>I43*real</f>
-        <v>37688.001734294259</v>
-      </c>
-      <c r="K43" s="13">
-        <f>IF(C43&lt;=n_saving,deposit,0)</f>
         <v>31742.868684428788</v>
       </c>
       <c r="L43" s="13">
-        <f>IF(C43&gt;n_saving,-withdrawal,0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="M43" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>1350822.9293847226</v>
       </c>
     </row>
     <row r="44" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C44">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>29</v>
       </c>
       <c r="D44" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>2351815.4183135713</v>
       </c>
       <c r="E44" s="9">
@@ -2707,45 +2709,45 @@
         <v>117590.77091567857</v>
       </c>
       <c r="F44" s="9">
-        <f>K44*(1+inflation)^$C44</f>
+        <f t="shared" si="1"/>
         <v>56370.40480805064</v>
       </c>
       <c r="G44" s="9">
-        <f>L44*(1+inflation)^$C44</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H44" s="9">
+        <f t="shared" si="8"/>
+        <v>2525776.5940373004</v>
+      </c>
+      <c r="I44" s="13">
+        <f t="shared" si="9"/>
+        <v>1350822.9293847226</v>
+      </c>
+      <c r="J44" s="13">
         <f t="shared" si="3"/>
-        <v>2525776.5940373004</v>
-      </c>
-      <c r="I44" s="13">
+        <v>39730.086158374354</v>
+      </c>
+      <c r="K44" s="13">
         <f t="shared" si="4"/>
-        <v>1350822.9293847226</v>
-      </c>
-      <c r="J44" s="13">
-        <f>I44*real</f>
-        <v>39730.086158374354</v>
-      </c>
-      <c r="K44" s="13">
-        <f>IF(C44&lt;=n_saving,deposit,0)</f>
         <v>31742.868684428788</v>
       </c>
       <c r="L44" s="13">
-        <f>IF(C44&gt;n_saving,-withdrawal,0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="M44" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>1422295.8842275257</v>
       </c>
     </row>
     <row r="45" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C45">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>30</v>
       </c>
       <c r="D45" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>2525776.5940373004</v>
       </c>
       <c r="E45" s="9">
@@ -2753,45 +2755,45 @@
         <v>126288.82970186503</v>
       </c>
       <c r="F45" s="9">
-        <f>K45*(1+inflation)^$C45</f>
+        <f t="shared" si="1"/>
         <v>57497.812904211663</v>
       </c>
       <c r="G45" s="9">
-        <f>L45*(1+inflation)^$C45</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H45" s="9">
+        <f t="shared" si="8"/>
+        <v>2709563.2366433772</v>
+      </c>
+      <c r="I45" s="13">
+        <f t="shared" si="9"/>
+        <v>1422295.8842275257</v>
+      </c>
+      <c r="J45" s="13">
         <f t="shared" si="3"/>
-        <v>2709563.2366433772</v>
-      </c>
-      <c r="I45" s="13">
+        <v>41832.231889045041</v>
+      </c>
+      <c r="K45" s="13">
         <f t="shared" si="4"/>
-        <v>1422295.8842275257</v>
-      </c>
-      <c r="J45" s="13">
-        <f>I45*real</f>
-        <v>41832.231889045041</v>
-      </c>
-      <c r="K45" s="13">
-        <f>IF(C45&lt;=n_saving,deposit,0)</f>
         <v>31742.868684428788</v>
       </c>
       <c r="L45" s="13">
-        <f>IF(C45&gt;n_saving,-withdrawal,0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="M45" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>1495870.9848009995</v>
       </c>
     </row>
     <row r="46" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C46">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>31</v>
       </c>
       <c r="D46" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>2709563.2366433772</v>
       </c>
       <c r="E46" s="9">
@@ -2799,45 +2801,45 @@
         <v>135478.16183216887</v>
       </c>
       <c r="F46" s="9">
-        <f>K46*(1+inflation)^$C46</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G46" s="9">
-        <f>L46*(1+inflation)^$C46</f>
+        <f t="shared" si="2"/>
         <v>-184758.881578542</v>
       </c>
       <c r="H46" s="9">
+        <f t="shared" si="8"/>
+        <v>2660282.5168970041</v>
+      </c>
+      <c r="I46" s="13">
+        <f t="shared" si="9"/>
+        <v>1495870.9848009995</v>
+      </c>
+      <c r="J46" s="13">
         <f t="shared" si="3"/>
-        <v>2660282.5168970041</v>
-      </c>
-      <c r="I46" s="13">
+        <v>43996.205435323689</v>
+      </c>
+      <c r="K46" s="13">
         <f t="shared" si="4"/>
-        <v>1495870.9848009995</v>
-      </c>
-      <c r="J46" s="13">
-        <f>I46*real</f>
-        <v>43996.205435323689</v>
-      </c>
-      <c r="K46" s="13">
-        <f>IF(C46&lt;=n_saving,deposit,0)</f>
         <v>0</v>
       </c>
       <c r="L46" s="13">
-        <f>IF(C46&gt;n_saving,-withdrawal,0)</f>
+        <f t="shared" si="5"/>
         <v>-100000</v>
       </c>
       <c r="M46" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>1439867.1902363233</v>
       </c>
     </row>
     <row r="47" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C47">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>32</v>
       </c>
       <c r="D47" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>2660282.5168970041</v>
       </c>
       <c r="E47" s="9">
@@ -2845,863 +2847,863 @@
         <v>133014.1258448502</v>
       </c>
       <c r="F47" s="9">
-        <f>K47*(1+inflation)^$C47</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G47" s="9">
-        <f>L47*(1+inflation)^$C47</f>
+        <f t="shared" si="2"/>
         <v>-188454.0592101129</v>
       </c>
       <c r="H47" s="9">
+        <f t="shared" si="8"/>
+        <v>2604842.5835317415</v>
+      </c>
+      <c r="I47" s="13">
+        <f t="shared" si="9"/>
+        <v>1439867.1902363233</v>
+      </c>
+      <c r="J47" s="13">
         <f t="shared" si="3"/>
-        <v>2604842.5835317415</v>
-      </c>
-      <c r="I47" s="13">
+        <v>42349.035006950857</v>
+      </c>
+      <c r="K47" s="13">
         <f t="shared" si="4"/>
-        <v>1439867.1902363233</v>
-      </c>
-      <c r="J47" s="13">
-        <f>I47*real</f>
-        <v>42349.035006950857</v>
-      </c>
-      <c r="K47" s="13">
-        <f>IF(C47&lt;=n_saving,deposit,0)</f>
         <v>0</v>
       </c>
       <c r="L47" s="13">
-        <f>IF(C47&gt;n_saving,-withdrawal,0)</f>
+        <f t="shared" si="5"/>
         <v>-100000</v>
       </c>
       <c r="M47" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>1382216.2252432741</v>
       </c>
     </row>
     <row r="48" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C48">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>33</v>
       </c>
       <c r="D48" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>2604842.5835317415</v>
       </c>
       <c r="E48" s="9">
-        <f t="shared" ref="E48:E79" si="6">D48*nominal</f>
+        <f t="shared" ref="E48:E65" si="11">D48*nominal</f>
         <v>130242.12917658708</v>
       </c>
       <c r="F48" s="9">
-        <f>K48*(1+inflation)^$C48</f>
+        <f t="shared" ref="F48:F65" si="12">K48*(1+inflation)^$C48</f>
         <v>0</v>
       </c>
       <c r="G48" s="9">
-        <f>L48*(1+inflation)^$C48</f>
+        <f t="shared" ref="G48:G65" si="13">L48*(1+inflation)^$C48</f>
         <v>-192223.14039431515</v>
       </c>
       <c r="H48" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>2542861.5723140133</v>
       </c>
       <c r="I48" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>1382216.2252432741</v>
       </c>
       <c r="J48" s="13">
-        <f>I48*real</f>
+        <f t="shared" ref="J48:J79" si="14">I48*real</f>
         <v>40653.418389508224</v>
       </c>
       <c r="K48" s="13">
-        <f>IF(C48&lt;=n_saving,deposit,0)</f>
+        <f t="shared" ref="K48:K65" si="15">IF(C48&lt;=n_saving,deposit,0)</f>
         <v>0</v>
       </c>
       <c r="L48" s="13">
-        <f>IF(C48&gt;n_saving,-withdrawal,0)</f>
+        <f t="shared" ref="L48:L65" si="16">IF(C48&gt;n_saving,-withdrawal,0)</f>
         <v>-100000</v>
       </c>
       <c r="M48" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>1322869.6436327824</v>
       </c>
     </row>
     <row r="49" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C49">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>34</v>
       </c>
       <c r="D49" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>2542861.5723140133</v>
       </c>
       <c r="E49" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>127143.07861570067</v>
       </c>
       <c r="F49" s="9">
-        <f>K49*(1+inflation)^$C49</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="G49" s="9">
-        <f>L49*(1+inflation)^$C49</f>
+        <f t="shared" si="13"/>
         <v>-196067.60320220146</v>
       </c>
       <c r="H49" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>2473937.0477275127</v>
       </c>
       <c r="I49" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>1322869.6436327824</v>
       </c>
       <c r="J49" s="13">
-        <f>I49*real</f>
+        <f t="shared" si="14"/>
         <v>38907.930695081988</v>
       </c>
       <c r="K49" s="13">
-        <f>IF(C49&lt;=n_saving,deposit,0)</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="L49" s="13">
-        <f>IF(C49&gt;n_saving,-withdrawal,0)</f>
+        <f t="shared" si="16"/>
         <v>-100000</v>
       </c>
       <c r="M49" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>1261777.5743278645</v>
       </c>
     </row>
     <row r="50" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C50">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>35</v>
       </c>
       <c r="D50" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>2473937.0477275127</v>
       </c>
       <c r="E50" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>123696.85238637564</v>
       </c>
       <c r="F50" s="9">
-        <f>K50*(1+inflation)^$C50</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="G50" s="9">
-        <f>L50*(1+inflation)^$C50</f>
+        <f t="shared" si="13"/>
         <v>-199988.95526624547</v>
       </c>
       <c r="H50" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>2397644.9448476424</v>
       </c>
       <c r="I50" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>1261777.5743278645</v>
       </c>
       <c r="J50" s="13">
-        <f>I50*real</f>
+        <f t="shared" si="14"/>
         <v>37111.105127290277</v>
       </c>
       <c r="K50" s="13">
-        <f>IF(C50&lt;=n_saving,deposit,0)</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="L50" s="13">
-        <f>IF(C50&gt;n_saving,-withdrawal,0)</f>
+        <f t="shared" si="16"/>
         <v>-100000</v>
       </c>
       <c r="M50" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>1198888.6794551548</v>
       </c>
     </row>
     <row r="51" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C51">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>36</v>
       </c>
       <c r="D51" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>2397644.9448476424</v>
       </c>
       <c r="E51" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>119882.24724238213</v>
       </c>
       <c r="F51" s="9">
-        <f>K51*(1+inflation)^$C51</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="G51" s="9">
-        <f>L51*(1+inflation)^$C51</f>
+        <f t="shared" si="13"/>
         <v>-203988.73437157038</v>
       </c>
       <c r="H51" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>2313538.4577184543</v>
       </c>
       <c r="I51" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>1198888.6794551548</v>
       </c>
       <c r="J51" s="13">
-        <f>I51*real</f>
+        <f t="shared" si="14"/>
         <v>35261.431748681163</v>
       </c>
       <c r="K51" s="13">
-        <f>IF(C51&lt;=n_saving,deposit,0)</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="L51" s="13">
-        <f>IF(C51&gt;n_saving,-withdrawal,0)</f>
+        <f t="shared" si="16"/>
         <v>-100000</v>
       </c>
       <c r="M51" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>1134150.111203836</v>
       </c>
     </row>
     <row r="52" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C52">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>37</v>
       </c>
       <c r="D52" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>2313538.4577184543</v>
       </c>
       <c r="E52" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>115676.92288592272</v>
       </c>
       <c r="F52" s="9">
-        <f>K52*(1+inflation)^$C52</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="G52" s="9">
-        <f>L52*(1+inflation)^$C52</f>
+        <f t="shared" si="13"/>
         <v>-208068.50905900181</v>
       </c>
       <c r="H52" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>2221146.8715453753</v>
       </c>
       <c r="I52" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>1134150.111203836</v>
       </c>
       <c r="J52" s="13">
-        <f>I52*real</f>
+        <f t="shared" si="14"/>
         <v>33357.356211877661</v>
       </c>
       <c r="K52" s="13">
-        <f>IF(C52&lt;=n_saving,deposit,0)</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="L52" s="13">
-        <f>IF(C52&gt;n_saving,-withdrawal,0)</f>
+        <f t="shared" si="16"/>
         <v>-100000</v>
       </c>
       <c r="M52" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>1067507.4674157137</v>
       </c>
     </row>
     <row r="53" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C53">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>38</v>
       </c>
       <c r="D53" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>2221146.8715453753</v>
       </c>
       <c r="E53" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>111057.34357726877</v>
       </c>
       <c r="F53" s="9">
-        <f>K53*(1+inflation)^$C53</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="G53" s="9">
-        <f>L53*(1+inflation)^$C53</f>
+        <f t="shared" si="13"/>
         <v>-212229.87924018185</v>
       </c>
       <c r="H53" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>2119974.3358824621</v>
       </c>
       <c r="I53" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>1067507.4674157137</v>
       </c>
       <c r="J53" s="13">
-        <f>I53*real</f>
+        <f t="shared" si="14"/>
         <v>31397.278453403469</v>
       </c>
       <c r="K53" s="13">
-        <f>IF(C53&lt;=n_saving,deposit,0)</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="L53" s="13">
-        <f>IF(C53&gt;n_saving,-withdrawal,0)</f>
+        <f t="shared" si="16"/>
         <v>-100000</v>
       </c>
       <c r="M53" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>998904.74586911709</v>
       </c>
     </row>
     <row r="54" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C54">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>39</v>
       </c>
       <c r="D54" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>2119974.3358824621</v>
       </c>
       <c r="E54" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>105998.71679412312</v>
       </c>
       <c r="F54" s="9">
-        <f>K54*(1+inflation)^$C54</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="G54" s="9">
-        <f>L54*(1+inflation)^$C54</f>
+        <f t="shared" si="13"/>
         <v>-216474.47682498541</v>
       </c>
       <c r="H54" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>2009498.5758515997</v>
       </c>
       <c r="I54" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>998904.74586911709</v>
       </c>
       <c r="J54" s="13">
-        <f>I54*real</f>
+        <f t="shared" si="14"/>
         <v>29379.551349091798</v>
       </c>
       <c r="K54" s="13">
-        <f>IF(C54&lt;=n_saving,deposit,0)</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="L54" s="13">
-        <f>IF(C54&gt;n_saving,-withdrawal,0)</f>
+        <f t="shared" si="16"/>
         <v>-100000</v>
       </c>
       <c r="M54" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>928284.2972182089</v>
       </c>
     </row>
     <row r="55" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C55">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>40</v>
       </c>
       <c r="D55" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>2009498.5758515997</v>
       </c>
       <c r="E55" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>100474.92879257999</v>
       </c>
       <c r="F55" s="9">
-        <f>K55*(1+inflation)^$C55</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="G55" s="9">
-        <f>L55*(1+inflation)^$C55</f>
+        <f t="shared" si="13"/>
         <v>-220803.96636148519</v>
       </c>
       <c r="H55" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>1889169.5382826945</v>
       </c>
       <c r="I55" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>928284.2972182089</v>
       </c>
       <c r="J55" s="13">
-        <f>I55*real</f>
+        <f t="shared" si="14"/>
         <v>27302.47932994743</v>
       </c>
       <c r="K55" s="13">
-        <f>IF(C55&lt;=n_saving,deposit,0)</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="L55" s="13">
-        <f>IF(C55&gt;n_saving,-withdrawal,0)</f>
+        <f t="shared" si="16"/>
         <v>-100000</v>
       </c>
       <c r="M55" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>855586.77654815628</v>
       </c>
     </row>
     <row r="56" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C56">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>41</v>
       </c>
       <c r="D56" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>1889169.5382826945</v>
       </c>
       <c r="E56" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>94458.476914134735</v>
       </c>
       <c r="F56" s="9">
-        <f>K56*(1+inflation)^$C56</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="G56" s="9">
-        <f>L56*(1+inflation)^$C56</f>
+        <f t="shared" si="13"/>
         <v>-225220.04568871489</v>
       </c>
       <c r="H56" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>1758407.9695081145</v>
       </c>
       <c r="I56" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>855586.77654815628</v>
       </c>
       <c r="J56" s="13">
-        <f>I56*real</f>
+        <f t="shared" si="14"/>
         <v>25164.316957298815</v>
       </c>
       <c r="K56" s="13">
-        <f>IF(C56&lt;=n_saving,deposit,0)</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="L56" s="13">
-        <f>IF(C56&gt;n_saving,-withdrawal,0)</f>
+        <f t="shared" si="16"/>
         <v>-100000</v>
       </c>
       <c r="M56" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>780751.09350545506</v>
       </c>
     </row>
     <row r="57" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C57">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>42</v>
       </c>
       <c r="D57" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>1758407.9695081145</v>
       </c>
       <c r="E57" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>87920.398475405731</v>
       </c>
       <c r="F57" s="9">
-        <f>K57*(1+inflation)^$C57</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="G57" s="9">
-        <f>L57*(1+inflation)^$C57</f>
+        <f t="shared" si="13"/>
         <v>-229724.44660248916</v>
       </c>
       <c r="H57" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>1616603.9213810312</v>
       </c>
       <c r="I57" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>780751.09350545506</v>
       </c>
       <c r="J57" s="13">
-        <f>I57*real</f>
+        <f t="shared" si="14"/>
         <v>22963.26745604289</v>
       </c>
       <c r="K57" s="13">
-        <f>IF(C57&lt;=n_saving,deposit,0)</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="L57" s="13">
-        <f>IF(C57&gt;n_saving,-withdrawal,0)</f>
+        <f t="shared" si="16"/>
         <v>-100000</v>
       </c>
       <c r="M57" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>703714.36096149799</v>
       </c>
     </row>
     <row r="58" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C58">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>43</v>
       </c>
       <c r="D58" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>1616603.9213810312</v>
       </c>
       <c r="E58" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>80830.19606905157</v>
       </c>
       <c r="F58" s="9">
-        <f>K58*(1+inflation)^$C58</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="G58" s="9">
-        <f>L58*(1+inflation)^$C58</f>
+        <f t="shared" si="13"/>
         <v>-234318.93553453893</v>
       </c>
       <c r="H58" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>1463115.1819155437</v>
       </c>
       <c r="I58" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>703714.36096149799</v>
       </c>
       <c r="J58" s="13">
-        <f>I58*real</f>
+        <f t="shared" si="14"/>
         <v>20697.481204750024</v>
       </c>
       <c r="K58" s="13">
-        <f>IF(C58&lt;=n_saving,deposit,0)</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="L58" s="13">
-        <f>IF(C58&gt;n_saving,-withdrawal,0)</f>
+        <f t="shared" si="16"/>
         <v>-100000</v>
       </c>
       <c r="M58" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>624411.84216624801</v>
       </c>
     </row>
     <row r="59" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C59">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>44</v>
       </c>
       <c r="D59" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>1463115.1819155437</v>
       </c>
       <c r="E59" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>73155.75909577719</v>
       </c>
       <c r="F59" s="9">
-        <f>K59*(1+inflation)^$C59</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="G59" s="9">
-        <f>L59*(1+inflation)^$C59</f>
+        <f t="shared" si="13"/>
         <v>-239005.31424522976</v>
       </c>
       <c r="H59" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>1297265.6267660912</v>
       </c>
       <c r="I59" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>624411.84216624801</v>
       </c>
       <c r="J59" s="13">
-        <f>I59*real</f>
+        <f t="shared" si="14"/>
         <v>18365.054181360309</v>
       </c>
       <c r="K59" s="13">
-        <f>IF(C59&lt;=n_saving,deposit,0)</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="L59" s="13">
-        <f>IF(C59&gt;n_saving,-withdrawal,0)</f>
+        <f t="shared" si="16"/>
         <v>-100000</v>
       </c>
       <c r="M59" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>542776.8963476083</v>
       </c>
     </row>
     <row r="60" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C60">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>45</v>
       </c>
       <c r="D60" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>1297265.6267660912</v>
       </c>
       <c r="E60" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>64863.281338304565</v>
       </c>
       <c r="F60" s="9">
-        <f>K60*(1+inflation)^$C60</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="G60" s="9">
-        <f>L60*(1+inflation)^$C60</f>
+        <f t="shared" si="13"/>
         <v>-243785.42053013432</v>
       </c>
       <c r="H60" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>1118343.4875742614</v>
       </c>
       <c r="I60" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>542776.8963476083</v>
       </c>
       <c r="J60" s="13">
-        <f>I60*real</f>
+        <f t="shared" si="14"/>
         <v>15964.026363165014</v>
       </c>
       <c r="K60" s="13">
-        <f>IF(C60&lt;=n_saving,deposit,0)</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="L60" s="13">
-        <f>IF(C60&gt;n_saving,-withdrawal,0)</f>
+        <f t="shared" si="16"/>
         <v>-100000</v>
       </c>
       <c r="M60" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>458740.9227107733</v>
       </c>
     </row>
     <row r="61" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C61">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>46</v>
       </c>
       <c r="D61" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>1118343.4875742614</v>
       </c>
       <c r="E61" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>55917.174378713069</v>
       </c>
       <c r="F61" s="9">
-        <f>K61*(1+inflation)^$C61</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="G61" s="9">
-        <f>L61*(1+inflation)^$C61</f>
+        <f t="shared" si="13"/>
         <v>-248661.12894073705</v>
       </c>
       <c r="H61" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>925599.5330122374</v>
       </c>
       <c r="I61" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>458740.9227107733</v>
       </c>
       <c r="J61" s="13">
-        <f>I61*real</f>
+        <f t="shared" si="14"/>
         <v>13492.38007972868</v>
       </c>
       <c r="K61" s="13">
-        <f>IF(C61&lt;=n_saving,deposit,0)</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="L61" s="13">
-        <f>IF(C61&gt;n_saving,-withdrawal,0)</f>
+        <f t="shared" si="16"/>
         <v>-100000</v>
       </c>
       <c r="M61" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>372233.30279050197</v>
       </c>
     </row>
     <row r="62" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C62">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>47</v>
       </c>
       <c r="D62" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>925599.5330122374</v>
       </c>
       <c r="E62" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>46279.976650611876</v>
       </c>
       <c r="F62" s="9">
-        <f>K62*(1+inflation)^$C62</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="G62" s="9">
-        <f>L62*(1+inflation)^$C62</f>
+        <f t="shared" si="13"/>
         <v>-253634.35151955168</v>
       </c>
       <c r="H62" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>718245.15814329754</v>
       </c>
       <c r="I62" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>372233.30279050197</v>
       </c>
       <c r="J62" s="13">
-        <f>I62*real</f>
+        <f t="shared" si="14"/>
         <v>10948.038317367749</v>
       </c>
       <c r="K62" s="13">
-        <f>IF(C62&lt;=n_saving,deposit,0)</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="L62" s="13">
-        <f>IF(C62&gt;n_saving,-withdrawal,0)</f>
+        <f t="shared" si="16"/>
         <v>-100000</v>
       </c>
       <c r="M62" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>283181.3411078697</v>
       </c>
     </row>
     <row r="63" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C63">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>48</v>
       </c>
       <c r="D63" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>718245.15814329754</v>
       </c>
       <c r="E63" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>35912.25790716488</v>
       </c>
       <c r="F63" s="9">
-        <f>K63*(1+inflation)^$C63</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="G63" s="9">
-        <f>L63*(1+inflation)^$C63</f>
+        <f t="shared" si="13"/>
         <v>-258707.03854994278</v>
       </c>
       <c r="H63" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>495450.37750051962</v>
       </c>
       <c r="I63" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>283181.3411078697</v>
       </c>
       <c r="J63" s="13">
-        <f>I63*real</f>
+        <f t="shared" si="14"/>
         <v>8328.8629737609062</v>
       </c>
       <c r="K63" s="13">
-        <f>IF(C63&lt;=n_saving,deposit,0)</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="L63" s="13">
-        <f>IF(C63&gt;n_saving,-withdrawal,0)</f>
+        <f t="shared" si="16"/>
         <v>-100000</v>
       </c>
       <c r="M63" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>191510.20408163063</v>
       </c>
     </row>
     <row r="64" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C64">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>49</v>
       </c>
       <c r="D64" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>495450.37750051962</v>
       </c>
       <c r="E64" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>24772.518875025984</v>
       </c>
       <c r="F64" s="9">
-        <f>K64*(1+inflation)^$C64</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="G64" s="9">
-        <f>L64*(1+inflation)^$C64</f>
+        <f t="shared" si="13"/>
         <v>-263881.17932094162</v>
       </c>
       <c r="H64" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>256341.71705460397</v>
       </c>
       <c r="I64" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>191510.20408163063</v>
       </c>
       <c r="J64" s="13">
-        <f>I64*real</f>
+        <f t="shared" si="14"/>
         <v>5632.6530612244524</v>
       </c>
       <c r="K64" s="13">
-        <f>IF(C64&lt;=n_saving,deposit,0)</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="L64" s="13">
-        <f>IF(C64&gt;n_saving,-withdrawal,0)</f>
+        <f t="shared" si="16"/>
         <v>-100000</v>
       </c>
       <c r="M64" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>97142.857142855064</v>
       </c>
     </row>
     <row r="65" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C65">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>50</v>
       </c>
       <c r="D65" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>256341.71705460397</v>
       </c>
       <c r="E65" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>12817.085852730199</v>
       </c>
       <c r="F65" s="9">
-        <f>K65*(1+inflation)^$C65</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="G65" s="9">
-        <f>L65*(1+inflation)^$C65</f>
+        <f t="shared" si="13"/>
         <v>-269158.80290736048</v>
       </c>
       <c r="H65" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>-2.6309862732887268E-8</v>
       </c>
       <c r="I65" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>97142.857142855064</v>
       </c>
       <c r="J65" s="13">
-        <f>I65*real</f>
+        <f t="shared" si="14"/>
         <v>2857.1428571428073</v>
       </c>
       <c r="K65" s="13">
-        <f>IF(C65&lt;=n_saving,deposit,0)</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="L65" s="13">
-        <f>IF(C65&gt;n_saving,-withdrawal,0)</f>
+        <f t="shared" si="16"/>
         <v>-100000</v>
       </c>
       <c r="M65" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>-2.1245796233415604E-9</v>
       </c>
     </row>
@@ -3850,7 +3852,7 @@
       <c r="G15" s="6"/>
       <c r="H15" s="6"/>
       <c r="I15" s="10" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="J15" s="10"/>
       <c r="K15" s="10"/>
@@ -3905,11 +3907,11 @@
         <v>0</v>
       </c>
       <c r="F17" s="9">
-        <f>IF($C17&lt;=n_saving,deposit,K17*(1+inflation)^$C17)</f>
+        <f t="shared" ref="F17:F48" si="1">IF($C17&lt;=n_saving,deposit,K17*(1+inflation)^$C17)</f>
         <v>40782.815152241965</v>
       </c>
       <c r="G17" s="9">
-        <f>L17*(1+inflation)^$C17</f>
+        <f t="shared" ref="G17:G48" si="2">L17*(1+inflation)^$C17</f>
         <v>0</v>
       </c>
       <c r="H17" s="9">
@@ -3921,15 +3923,15 @@
         <v>0</v>
       </c>
       <c r="J17" s="13">
-        <f>I17*real</f>
+        <f t="shared" ref="J17:J48" si="3">I17*real</f>
         <v>0</v>
       </c>
       <c r="K17" s="13">
-        <f>IF(C17&lt;=n_saving,F17/(1+inflation)^C17,0)</f>
+        <f t="shared" ref="K17:K48" si="4">IF(C17&lt;=n_saving,F17/(1+inflation)^C17,0)</f>
         <v>39983.152110041141</v>
       </c>
       <c r="L17" s="13">
-        <f>IF(C17&gt;n_saving,-withdrawal,0)</f>
+        <f t="shared" ref="L17:L48" si="5">IF(C17&gt;n_saving,-withdrawal,0)</f>
         <v>0</v>
       </c>
       <c r="M17" s="13">
@@ -3951,11 +3953,11 @@
         <v>2039.1407576120982</v>
       </c>
       <c r="F18" s="9">
-        <f>IF($C18&lt;=n_saving,deposit,K18*(1+inflation)^$C18)</f>
+        <f t="shared" si="1"/>
         <v>40782.815152241965</v>
       </c>
       <c r="G18" s="9">
-        <f>L18*(1+inflation)^$C18</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H18" s="9">
@@ -3967,15 +3969,15 @@
         <v>39983.152110041141</v>
       </c>
       <c r="J18" s="13">
-        <f>I18*real</f>
+        <f t="shared" si="3"/>
         <v>1175.9750620600382</v>
       </c>
       <c r="K18" s="13">
-        <f>IF(C18&lt;=n_saving,F18/(1+inflation)^C18,0)</f>
+        <f t="shared" si="4"/>
         <v>39199.168735334453</v>
       </c>
       <c r="L18" s="13">
-        <f>IF(C18&gt;n_saving,-withdrawal,0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="M18" s="13">
@@ -3985,11 +3987,11 @@
     </row>
     <row r="19" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C19">
-        <f t="shared" ref="C19:C66" si="1">C18+1</f>
+        <f t="shared" ref="C19:C66" si="6">C18+1</f>
         <v>3</v>
       </c>
       <c r="D19" s="9">
-        <f t="shared" ref="D19:D66" si="2">H18</f>
+        <f t="shared" ref="D19:D66" si="7">H18</f>
         <v>83604.771062096028</v>
       </c>
       <c r="E19" s="9">
@@ -3997,45 +3999,45 @@
         <v>4180.2385531048012</v>
       </c>
       <c r="F19" s="9">
-        <f>IF($C19&lt;=n_saving,deposit,K19*(1+inflation)^$C19)</f>
+        <f t="shared" si="1"/>
         <v>40782.815152241965</v>
       </c>
       <c r="G19" s="9">
-        <f>L19*(1+inflation)^$C19</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H19" s="9">
-        <f t="shared" ref="H19:H66" si="3">D19+E19+F19+G19</f>
+        <f t="shared" ref="H19:H66" si="8">D19+E19+F19+G19</f>
         <v>128567.8247674428</v>
       </c>
       <c r="I19" s="13">
-        <f t="shared" ref="I19:I66" si="4">M18</f>
+        <f t="shared" ref="I19:I66" si="9">M18</f>
         <v>80358.295907435633</v>
       </c>
       <c r="J19" s="13">
-        <f>I19*real</f>
+        <f t="shared" si="3"/>
         <v>2363.4792913951751</v>
       </c>
       <c r="K19" s="13">
-        <f>IF(C19&lt;=n_saving,F19/(1+inflation)^C19,0)</f>
+        <f t="shared" si="4"/>
         <v>38430.557583661233</v>
       </c>
       <c r="L19" s="13">
-        <f>IF(C19&gt;n_saving,-withdrawal,0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="M19" s="13">
-        <f t="shared" ref="M19:M66" si="5">I19+J19+K19+L19</f>
+        <f t="shared" ref="M19:M66" si="10">I19+J19+K19+L19</f>
         <v>121152.33278249204</v>
       </c>
     </row>
     <row r="20" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
       <c r="D20" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>128567.8247674428</v>
       </c>
       <c r="E20" s="9">
@@ -4043,45 +4045,45 @@
         <v>6428.3912383721399</v>
       </c>
       <c r="F20" s="9">
-        <f>IF($C20&lt;=n_saving,deposit,K20*(1+inflation)^$C20)</f>
+        <f t="shared" si="1"/>
         <v>40782.815152241965</v>
       </c>
       <c r="G20" s="9">
-        <f>L20*(1+inflation)^$C20</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H20" s="9">
+        <f t="shared" si="8"/>
+        <v>175779.0311580569</v>
+      </c>
+      <c r="I20" s="13">
+        <f t="shared" si="9"/>
+        <v>121152.33278249204</v>
+      </c>
+      <c r="J20" s="13">
         <f t="shared" si="3"/>
-        <v>175779.0311580569</v>
-      </c>
-      <c r="I20" s="13">
+        <v>3563.3039053674274</v>
+      </c>
+      <c r="K20" s="13">
         <f t="shared" si="4"/>
-        <v>121152.33278249204</v>
-      </c>
-      <c r="J20" s="13">
-        <f>I20*real</f>
-        <v>3563.3039053674274</v>
-      </c>
-      <c r="K20" s="13">
-        <f>IF(C20&lt;=n_saving,F20/(1+inflation)^C20,0)</f>
         <v>37677.017238883556</v>
       </c>
       <c r="L20" s="13">
-        <f>IF(C20&gt;n_saving,-withdrawal,0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="M20" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>162392.65392674302</v>
       </c>
     </row>
     <row r="21" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
       <c r="D21" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>175779.0311580569</v>
       </c>
       <c r="E21" s="9">
@@ -4089,45 +4091,45 @@
         <v>8788.9515579028448</v>
       </c>
       <c r="F21" s="9">
-        <f>IF($C21&lt;=n_saving,deposit,K21*(1+inflation)^$C21)</f>
+        <f t="shared" si="1"/>
         <v>40782.815152241965</v>
       </c>
       <c r="G21" s="9">
-        <f>L21*(1+inflation)^$C21</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H21" s="9">
+        <f t="shared" si="8"/>
+        <v>225350.79786820171</v>
+      </c>
+      <c r="I21" s="13">
+        <f t="shared" si="9"/>
+        <v>162392.65392674302</v>
+      </c>
+      <c r="J21" s="13">
         <f t="shared" si="3"/>
-        <v>225350.79786820171</v>
-      </c>
-      <c r="I21" s="13">
+        <v>4776.254527257167</v>
+      </c>
+      <c r="K21" s="13">
         <f t="shared" si="4"/>
-        <v>162392.65392674302</v>
-      </c>
-      <c r="J21" s="13">
-        <f>I21*real</f>
-        <v>4776.254527257167</v>
-      </c>
-      <c r="K21" s="13">
-        <f>IF(C21&lt;=n_saving,F21/(1+inflation)^C21,0)</f>
         <v>36938.252194983877</v>
       </c>
       <c r="L21" s="13">
-        <f>IF(C21&gt;n_saving,-withdrawal,0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="M21" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>204107.16064898408</v>
       </c>
     </row>
     <row r="22" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
       <c r="D22" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>225350.79786820171</v>
       </c>
       <c r="E22" s="9">
@@ -4135,45 +4137,45 @@
         <v>11267.539893410087</v>
       </c>
       <c r="F22" s="9">
-        <f>IF($C22&lt;=n_saving,deposit,K22*(1+inflation)^$C22)</f>
+        <f t="shared" si="1"/>
         <v>40782.815152241965</v>
       </c>
       <c r="G22" s="9">
-        <f>L22*(1+inflation)^$C22</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H22" s="9">
+        <f t="shared" si="8"/>
+        <v>277401.15291385376</v>
+      </c>
+      <c r="I22" s="13">
+        <f t="shared" si="9"/>
+        <v>204107.16064898408</v>
+      </c>
+      <c r="J22" s="13">
         <f t="shared" si="3"/>
-        <v>277401.15291385376</v>
-      </c>
-      <c r="I22" s="13">
+        <v>6003.1517837936735</v>
+      </c>
+      <c r="K22" s="13">
         <f t="shared" si="4"/>
-        <v>204107.16064898408</v>
-      </c>
-      <c r="J22" s="13">
-        <f>I22*real</f>
-        <v>6003.1517837936735</v>
-      </c>
-      <c r="K22" s="13">
-        <f>IF(C22&lt;=n_saving,F22/(1+inflation)^C22,0)</f>
         <v>36213.972740180274</v>
       </c>
       <c r="L22" s="13">
-        <f>IF(C22&gt;n_saving,-withdrawal,0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="M22" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>246324.28517295801</v>
       </c>
     </row>
     <row r="23" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>7</v>
       </c>
       <c r="D23" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>277401.15291385376</v>
       </c>
       <c r="E23" s="9">
@@ -4181,45 +4183,45 @@
         <v>13870.057645692688</v>
       </c>
       <c r="F23" s="9">
-        <f>IF($C23&lt;=n_saving,deposit,K23*(1+inflation)^$C23)</f>
+        <f t="shared" si="1"/>
         <v>40782.815152241965</v>
       </c>
       <c r="G23" s="9">
-        <f>L23*(1+inflation)^$C23</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H23" s="9">
+        <f t="shared" si="8"/>
+        <v>332054.02571178839</v>
+      </c>
+      <c r="I23" s="13">
+        <f t="shared" si="9"/>
+        <v>246324.28517295801</v>
+      </c>
+      <c r="J23" s="13">
         <f t="shared" si="3"/>
-        <v>332054.02571178839</v>
-      </c>
-      <c r="I23" s="13">
+        <v>7244.8319168517355</v>
+      </c>
+      <c r="K23" s="13">
         <f t="shared" si="4"/>
-        <v>246324.28517295801</v>
-      </c>
-      <c r="J23" s="13">
-        <f>I23*real</f>
-        <v>7244.8319168517355</v>
-      </c>
-      <c r="K23" s="13">
-        <f>IF(C23&lt;=n_saving,F23/(1+inflation)^C23,0)</f>
         <v>35503.894843314003</v>
       </c>
       <c r="L23" s="13">
-        <f>IF(C23&gt;n_saving,-withdrawal,0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="M23" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>289073.01193312375</v>
       </c>
     </row>
     <row r="24" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>8</v>
       </c>
       <c r="D24" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>332054.02571178839</v>
       </c>
       <c r="E24" s="9">
@@ -4227,45 +4229,45 @@
         <v>16602.701285589421</v>
       </c>
       <c r="F24" s="9">
-        <f>IF($C24&lt;=n_saving,deposit,K24*(1+inflation)^$C24)</f>
+        <f t="shared" si="1"/>
         <v>40782.815152241965</v>
       </c>
       <c r="G24" s="9">
-        <f>L24*(1+inflation)^$C24</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H24" s="9">
+        <f t="shared" si="8"/>
+        <v>389439.54214961978</v>
+      </c>
+      <c r="I24" s="13">
+        <f t="shared" si="9"/>
+        <v>289073.01193312375</v>
+      </c>
+      <c r="J24" s="13">
         <f t="shared" si="3"/>
-        <v>389439.54214961978</v>
-      </c>
-      <c r="I24" s="13">
+        <v>8502.1474097977916</v>
+      </c>
+      <c r="K24" s="13">
         <f t="shared" si="4"/>
-        <v>289073.01193312375</v>
-      </c>
-      <c r="J24" s="13">
-        <f>I24*real</f>
-        <v>8502.1474097977916</v>
-      </c>
-      <c r="K24" s="13">
-        <f>IF(C24&lt;=n_saving,F24/(1+inflation)^C24,0)</f>
         <v>34807.740042464706</v>
       </c>
       <c r="L24" s="13">
-        <f>IF(C24&gt;n_saving,-withdrawal,0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="M24" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>332382.89938538626</v>
       </c>
     </row>
     <row r="25" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>9</v>
       </c>
       <c r="D25" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>389439.54214961978</v>
       </c>
       <c r="E25" s="9">
@@ -4273,45 +4275,45 @@
         <v>19471.977107480991</v>
       </c>
       <c r="F25" s="9">
-        <f>IF($C25&lt;=n_saving,deposit,K25*(1+inflation)^$C25)</f>
+        <f t="shared" si="1"/>
         <v>40782.815152241965</v>
       </c>
       <c r="G25" s="9">
-        <f>L25*(1+inflation)^$C25</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H25" s="9">
+        <f t="shared" si="8"/>
+        <v>449694.33440934273</v>
+      </c>
+      <c r="I25" s="13">
+        <f t="shared" si="9"/>
+        <v>332382.89938538626</v>
+      </c>
+      <c r="J25" s="13">
         <f t="shared" si="3"/>
-        <v>449694.33440934273</v>
-      </c>
-      <c r="I25" s="13">
+        <v>9775.9676289819872</v>
+      </c>
+      <c r="K25" s="13">
         <f t="shared" si="4"/>
-        <v>332382.89938538626</v>
-      </c>
-      <c r="J25" s="13">
-        <f>I25*real</f>
-        <v>9775.9676289819872</v>
-      </c>
-      <c r="K25" s="13">
-        <f>IF(C25&lt;=n_saving,F25/(1+inflation)^C25,0)</f>
         <v>34125.235335749705</v>
       </c>
       <c r="L25" s="13">
-        <f>IF(C25&gt;n_saving,-withdrawal,0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="M25" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>376284.10235011793</v>
       </c>
     </row>
     <row r="26" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C26">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>10</v>
       </c>
       <c r="D26" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>449694.33440934273</v>
       </c>
       <c r="E26" s="9">
@@ -4319,45 +4321,45 @@
         <v>22484.716720467139</v>
       </c>
       <c r="F26" s="9">
-        <f>IF($C26&lt;=n_saving,deposit,K26*(1+inflation)^$C26)</f>
+        <f t="shared" si="1"/>
         <v>40782.815152241965</v>
       </c>
       <c r="G26" s="9">
-        <f>L26*(1+inflation)^$C26</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H26" s="9">
+        <f t="shared" si="8"/>
+        <v>512961.86628205184</v>
+      </c>
+      <c r="I26" s="13">
+        <f t="shared" si="9"/>
+        <v>376284.10235011793</v>
+      </c>
+      <c r="J26" s="13">
         <f t="shared" si="3"/>
-        <v>512961.86628205184</v>
-      </c>
-      <c r="I26" s="13">
+        <v>11067.179480885865</v>
+      </c>
+      <c r="K26" s="13">
         <f t="shared" si="4"/>
-        <v>376284.10235011793</v>
-      </c>
-      <c r="J26" s="13">
-        <f>I26*real</f>
-        <v>11067.179480885865</v>
-      </c>
-      <c r="K26" s="13">
-        <f>IF(C26&lt;=n_saving,F26/(1+inflation)^C26,0)</f>
         <v>33456.113074264416</v>
       </c>
       <c r="L26" s="13">
-        <f>IF(C26&gt;n_saving,-withdrawal,0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="M26" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>420807.39490526821</v>
       </c>
     </row>
     <row r="27" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>11</v>
       </c>
       <c r="D27" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>512961.86628205184</v>
       </c>
       <c r="E27" s="9">
@@ -4365,45 +4367,45 @@
         <v>25648.093314102593</v>
       </c>
       <c r="F27" s="9">
-        <f>IF($C27&lt;=n_saving,deposit,K27*(1+inflation)^$C27)</f>
+        <f t="shared" si="1"/>
         <v>40782.815152241965</v>
       </c>
       <c r="G27" s="9">
-        <f>L27*(1+inflation)^$C27</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H27" s="9">
+        <f t="shared" si="8"/>
+        <v>579392.77474839636</v>
+      </c>
+      <c r="I27" s="13">
+        <f t="shared" si="9"/>
+        <v>420807.39490526821</v>
+      </c>
+      <c r="J27" s="13">
         <f t="shared" si="3"/>
-        <v>579392.77474839636</v>
-      </c>
-      <c r="I27" s="13">
+        <v>12376.688085449114</v>
+      </c>
+      <c r="K27" s="13">
         <f t="shared" si="4"/>
-        <v>420807.39490526821</v>
-      </c>
-      <c r="J27" s="13">
-        <f>I27*real</f>
-        <v>12376.688085449114</v>
-      </c>
-      <c r="K27" s="13">
-        <f>IF(C27&lt;=n_saving,F27/(1+inflation)^C27,0)</f>
         <v>32800.110857121988</v>
       </c>
       <c r="L27" s="13">
-        <f>IF(C27&gt;n_saving,-withdrawal,0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="M27" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>465984.19384783931</v>
       </c>
     </row>
     <row r="28" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C28">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>12</v>
       </c>
       <c r="D28" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>579392.77474839636</v>
       </c>
       <c r="E28" s="9">
@@ -4411,45 +4413,45 @@
         <v>28969.63873741982</v>
       </c>
       <c r="F28" s="9">
-        <f>IF($C28&lt;=n_saving,deposit,K28*(1+inflation)^$C28)</f>
+        <f t="shared" si="1"/>
         <v>40782.815152241965</v>
       </c>
       <c r="G28" s="9">
-        <f>L28*(1+inflation)^$C28</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H28" s="9">
+        <f t="shared" si="8"/>
+        <v>649145.22863805818</v>
+      </c>
+      <c r="I28" s="13">
+        <f t="shared" si="9"/>
+        <v>465984.19384783931</v>
+      </c>
+      <c r="J28" s="13">
         <f t="shared" si="3"/>
-        <v>649145.22863805818</v>
-      </c>
-      <c r="I28" s="13">
+        <v>13705.417466112976</v>
+      </c>
+      <c r="K28" s="13">
         <f t="shared" si="4"/>
-        <v>465984.19384783931</v>
-      </c>
-      <c r="J28" s="13">
-        <f>I28*real</f>
-        <v>13705.417466112976</v>
-      </c>
-      <c r="K28" s="13">
-        <f>IF(C28&lt;=n_saving,F28/(1+inflation)^C28,0)</f>
         <v>32156.971428550962</v>
       </c>
       <c r="L28" s="13">
-        <f>IF(C28&gt;n_saving,-withdrawal,0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="M28" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>511846.58274250326</v>
       </c>
     </row>
     <row r="29" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C29">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>13</v>
       </c>
       <c r="D29" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>649145.22863805818</v>
       </c>
       <c r="E29" s="9">
@@ -4457,45 +4459,45 @@
         <v>32457.261431902909</v>
       </c>
       <c r="F29" s="9">
-        <f>IF($C29&lt;=n_saving,deposit,K29*(1+inflation)^$C29)</f>
+        <f t="shared" si="1"/>
         <v>40782.815152241965</v>
       </c>
       <c r="G29" s="9">
-        <f>L29*(1+inflation)^$C29</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H29" s="9">
+        <f t="shared" si="8"/>
+        <v>722385.30522220302</v>
+      </c>
+      <c r="I29" s="13">
+        <f t="shared" si="9"/>
+        <v>511846.58274250326</v>
+      </c>
+      <c r="J29" s="13">
         <f t="shared" si="3"/>
-        <v>722385.30522220302</v>
-      </c>
-      <c r="I29" s="13">
+        <v>15054.311257132509</v>
+      </c>
+      <c r="K29" s="13">
         <f t="shared" si="4"/>
-        <v>511846.58274250326</v>
-      </c>
-      <c r="J29" s="13">
-        <f>I29*real</f>
-        <v>15054.311257132509</v>
-      </c>
-      <c r="K29" s="13">
-        <f>IF(C29&lt;=n_saving,F29/(1+inflation)^C29,0)</f>
         <v>31526.442577010748</v>
       </c>
       <c r="L29" s="13">
-        <f>IF(C29&gt;n_saving,-withdrawal,0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="M29" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>558427.33657664654</v>
       </c>
     </row>
     <row r="30" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C30">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>14</v>
       </c>
       <c r="D30" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>722385.30522220302</v>
       </c>
       <c r="E30" s="9">
@@ -4503,45 +4505,45 @@
         <v>36119.265261110151</v>
       </c>
       <c r="F30" s="9">
-        <f>IF($C30&lt;=n_saving,deposit,K30*(1+inflation)^$C30)</f>
+        <f t="shared" si="1"/>
         <v>40782.815152241965</v>
       </c>
       <c r="G30" s="9">
-        <f>L30*(1+inflation)^$C30</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H30" s="9">
+        <f t="shared" si="8"/>
+        <v>799287.38563555514</v>
+      </c>
+      <c r="I30" s="13">
+        <f t="shared" si="9"/>
+        <v>558427.33657664654</v>
+      </c>
+      <c r="J30" s="13">
         <f t="shared" si="3"/>
-        <v>799287.38563555514</v>
-      </c>
-      <c r="I30" s="13">
+        <v>16424.333428724964</v>
+      </c>
+      <c r="K30" s="13">
         <f t="shared" si="4"/>
-        <v>558427.33657664654</v>
-      </c>
-      <c r="J30" s="13">
-        <f>I30*real</f>
-        <v>16424.333428724964</v>
-      </c>
-      <c r="K30" s="13">
-        <f>IF(C30&lt;=n_saving,F30/(1+inflation)^C30,0)</f>
         <v>30908.277036285042</v>
       </c>
       <c r="L30" s="13">
-        <f>IF(C30&gt;n_saving,-withdrawal,0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="M30" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>605759.94704165659</v>
       </c>
     </row>
     <row r="31" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>15</v>
       </c>
       <c r="D31" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>799287.38563555514</v>
       </c>
       <c r="E31" s="9">
@@ -4549,45 +4551,45 @@
         <v>39964.369281777763</v>
       </c>
       <c r="F31" s="9">
-        <f>IF($C31&lt;=n_saving,deposit,K31*(1+inflation)^$C31)</f>
+        <f t="shared" si="1"/>
         <v>40782.815152241965</v>
       </c>
       <c r="G31" s="9">
-        <f>L31*(1+inflation)^$C31</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H31" s="9">
+        <f t="shared" si="8"/>
+        <v>880034.57006957487</v>
+      </c>
+      <c r="I31" s="13">
+        <f t="shared" si="9"/>
+        <v>605759.94704165659</v>
+      </c>
+      <c r="J31" s="13">
         <f t="shared" si="3"/>
-        <v>880034.57006957487</v>
-      </c>
-      <c r="I31" s="13">
+        <v>17816.469030637028</v>
+      </c>
+      <c r="K31" s="13">
         <f t="shared" si="4"/>
-        <v>605759.94704165659</v>
-      </c>
-      <c r="J31" s="13">
-        <f>I31*real</f>
-        <v>17816.469030637028</v>
-      </c>
-      <c r="K31" s="13">
-        <f>IF(C31&lt;=n_saving,F31/(1+inflation)^C31,0)</f>
         <v>30302.232388514756</v>
       </c>
       <c r="L31" s="13">
-        <f>IF(C31&gt;n_saving,-withdrawal,0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="M31" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>653878.64846080844</v>
       </c>
     </row>
     <row r="32" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C32">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>16</v>
       </c>
       <c r="D32" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>880034.57006957487</v>
       </c>
       <c r="E32" s="9">
@@ -4595,45 +4597,45 @@
         <v>44001.728503478749</v>
       </c>
       <c r="F32" s="9">
-        <f>IF($C32&lt;=n_saving,deposit,K32*(1+inflation)^$C32)</f>
+        <f t="shared" si="1"/>
         <v>40782.815152241965</v>
       </c>
       <c r="G32" s="9">
-        <f>L32*(1+inflation)^$C32</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H32" s="9">
+        <f t="shared" si="8"/>
+        <v>964819.11372529564</v>
+      </c>
+      <c r="I32" s="13">
+        <f t="shared" si="9"/>
+        <v>653878.64846080844</v>
+      </c>
+      <c r="J32" s="13">
         <f t="shared" si="3"/>
-        <v>964819.11372529564</v>
-      </c>
-      <c r="I32" s="13">
+        <v>19231.724954729736</v>
+      </c>
+      <c r="K32" s="13">
         <f t="shared" si="4"/>
-        <v>653878.64846080844</v>
-      </c>
-      <c r="J32" s="13">
-        <f>I32*real</f>
-        <v>19231.724954729736</v>
-      </c>
-      <c r="K32" s="13">
-        <f>IF(C32&lt;=n_saving,F32/(1+inflation)^C32,0)</f>
         <v>29708.07096913211</v>
       </c>
       <c r="L32" s="13">
-        <f>IF(C32&gt;n_saving,-withdrawal,0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="M32" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>702818.44438467035</v>
       </c>
     </row>
     <row r="33" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C33">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>17</v>
       </c>
       <c r="D33" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>964819.11372529564</v>
       </c>
       <c r="E33" s="9">
@@ -4641,45 +4643,45 @@
         <v>48240.955686264788</v>
       </c>
       <c r="F33" s="9">
-        <f>IF($C33&lt;=n_saving,deposit,K33*(1+inflation)^$C33)</f>
+        <f t="shared" si="1"/>
         <v>40782.815152241965</v>
       </c>
       <c r="G33" s="9">
-        <f>L33*(1+inflation)^$C33</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H33" s="9">
+        <f t="shared" si="8"/>
+        <v>1053842.8845638023</v>
+      </c>
+      <c r="I33" s="13">
+        <f t="shared" si="9"/>
+        <v>702818.44438467035</v>
+      </c>
+      <c r="J33" s="13">
         <f t="shared" si="3"/>
-        <v>1053842.8845638023</v>
-      </c>
-      <c r="I33" s="13">
+        <v>20671.130717196269</v>
+      </c>
+      <c r="K33" s="13">
         <f t="shared" si="4"/>
-        <v>702818.44438467035</v>
-      </c>
-      <c r="J33" s="13">
-        <f>I33*real</f>
-        <v>20671.130717196269</v>
-      </c>
-      <c r="K33" s="13">
-        <f>IF(C33&lt;=n_saving,F33/(1+inflation)^C33,0)</f>
         <v>29125.55977365893</v>
       </c>
       <c r="L33" s="13">
-        <f>IF(C33&gt;n_saving,-withdrawal,0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="M33" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>752615.1348755256</v>
       </c>
     </row>
     <row r="34" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C34">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>18</v>
       </c>
       <c r="D34" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>1053842.8845638023</v>
       </c>
       <c r="E34" s="9">
@@ -4687,45 +4689,45 @@
         <v>52692.144228190118</v>
       </c>
       <c r="F34" s="9">
-        <f>IF($C34&lt;=n_saving,deposit,K34*(1+inflation)^$C34)</f>
+        <f t="shared" si="1"/>
         <v>40782.815152241965</v>
       </c>
       <c r="G34" s="9">
-        <f>L34*(1+inflation)^$C34</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H34" s="9">
+        <f t="shared" si="8"/>
+        <v>1147317.8439442343</v>
+      </c>
+      <c r="I34" s="13">
+        <f t="shared" si="9"/>
+        <v>752615.1348755256</v>
+      </c>
+      <c r="J34" s="13">
         <f t="shared" si="3"/>
-        <v>1147317.8439442343</v>
-      </c>
-      <c r="I34" s="13">
+        <v>22135.739261044961</v>
+      </c>
+      <c r="K34" s="13">
         <f t="shared" si="4"/>
-        <v>752615.1348755256</v>
-      </c>
-      <c r="J34" s="13">
-        <f>I34*real</f>
-        <v>22135.739261044961</v>
-      </c>
-      <c r="K34" s="13">
-        <f>IF(C34&lt;=n_saving,F34/(1+inflation)^C34,0)</f>
         <v>28554.470366332287</v>
       </c>
       <c r="L34" s="13">
-        <f>IF(C34&gt;n_saving,-withdrawal,0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="M34" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>803305.34450290294</v>
       </c>
     </row>
     <row r="35" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C35">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>19</v>
       </c>
       <c r="D35" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>1147317.8439442343</v>
       </c>
       <c r="E35" s="9">
@@ -4733,45 +4735,45 @@
         <v>57365.892197211717</v>
       </c>
       <c r="F35" s="9">
-        <f>IF($C35&lt;=n_saving,deposit,K35*(1+inflation)^$C35)</f>
+        <f t="shared" si="1"/>
         <v>40782.815152241965</v>
       </c>
       <c r="G35" s="9">
-        <f>L35*(1+inflation)^$C35</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H35" s="9">
+        <f t="shared" si="8"/>
+        <v>1245466.5512936879</v>
+      </c>
+      <c r="I35" s="13">
+        <f t="shared" si="9"/>
+        <v>803305.34450290294</v>
+      </c>
+      <c r="J35" s="13">
         <f t="shared" si="3"/>
-        <v>1245466.5512936879</v>
-      </c>
-      <c r="I35" s="13">
+        <v>23626.627779497241</v>
+      </c>
+      <c r="K35" s="13">
         <f t="shared" si="4"/>
-        <v>803305.34450290294</v>
-      </c>
-      <c r="J35" s="13">
-        <f>I35*real</f>
-        <v>23626.627779497241</v>
-      </c>
-      <c r="K35" s="13">
-        <f>IF(C35&lt;=n_saving,F35/(1+inflation)^C35,0)</f>
         <v>27994.578790521849</v>
       </c>
       <c r="L35" s="13">
-        <f>IF(C35&gt;n_saving,-withdrawal,0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="M35" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>854926.55107292195</v>
       </c>
     </row>
     <row r="36" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C36">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>20</v>
       </c>
       <c r="D36" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>1245466.5512936879</v>
       </c>
       <c r="E36" s="9">
@@ -4779,45 +4781,45 @@
         <v>62273.327564684398</v>
       </c>
       <c r="F36" s="9">
-        <f>IF($C36&lt;=n_saving,deposit,K36*(1+inflation)^$C36)</f>
+        <f t="shared" si="1"/>
         <v>40782.815152241965</v>
       </c>
       <c r="G36" s="9">
-        <f>L36*(1+inflation)^$C36</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H36" s="9">
+        <f t="shared" si="8"/>
+        <v>1348522.6940106144</v>
+      </c>
+      <c r="I36" s="13">
+        <f t="shared" si="9"/>
+        <v>854926.55107292195</v>
+      </c>
+      <c r="J36" s="13">
         <f t="shared" si="3"/>
-        <v>1348522.6940106144</v>
-      </c>
-      <c r="I36" s="13">
+        <v>25144.898560968395</v>
+      </c>
+      <c r="K36" s="13">
         <f t="shared" si="4"/>
-        <v>854926.55107292195</v>
-      </c>
-      <c r="J36" s="13">
-        <f>I36*real</f>
-        <v>25144.898560968395</v>
-      </c>
-      <c r="K36" s="13">
-        <f>IF(C36&lt;=n_saving,F36/(1+inflation)^C36,0)</f>
         <v>27445.665480903772</v>
       </c>
       <c r="L36" s="13">
-        <f>IF(C36&gt;n_saving,-withdrawal,0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="M36" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>907517.11511479411</v>
       </c>
     </row>
     <row r="37" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C37">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>21</v>
       </c>
       <c r="D37" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>1348522.6940106144</v>
       </c>
       <c r="E37" s="9">
@@ -4825,45 +4827,45 @@
         <v>67426.134700530718</v>
       </c>
       <c r="F37" s="9">
-        <f>IF($C37&lt;=n_saving,deposit,K37*(1+inflation)^$C37)</f>
+        <f t="shared" si="1"/>
         <v>40782.815152241965</v>
       </c>
       <c r="G37" s="9">
-        <f>L37*(1+inflation)^$C37</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H37" s="9">
+        <f t="shared" si="8"/>
+        <v>1456731.6438633869</v>
+      </c>
+      <c r="I37" s="13">
+        <f t="shared" si="9"/>
+        <v>907517.11511479411</v>
+      </c>
+      <c r="J37" s="13">
         <f t="shared" si="3"/>
-        <v>1456731.6438633869</v>
-      </c>
-      <c r="I37" s="13">
+        <v>26691.67985631758</v>
+      </c>
+      <c r="K37" s="13">
         <f t="shared" si="4"/>
-        <v>907517.11511479411</v>
-      </c>
-      <c r="J37" s="13">
-        <f>I37*real</f>
-        <v>26691.67985631758</v>
-      </c>
-      <c r="K37" s="13">
-        <f>IF(C37&lt;=n_saving,F37/(1+inflation)^C37,0)</f>
         <v>26907.515177356639</v>
       </c>
       <c r="L37" s="13">
-        <f>IF(C37&gt;n_saving,-withdrawal,0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="M37" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>961116.31014846836</v>
       </c>
     </row>
     <row r="38" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C38">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>22</v>
       </c>
       <c r="D38" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>1456731.6438633869</v>
       </c>
       <c r="E38" s="9">
@@ -4871,45 +4873,45 @@
         <v>72836.58219316935</v>
       </c>
       <c r="F38" s="9">
-        <f>IF($C38&lt;=n_saving,deposit,K38*(1+inflation)^$C38)</f>
+        <f t="shared" si="1"/>
         <v>40782.815152241965</v>
       </c>
       <c r="G38" s="9">
-        <f>L38*(1+inflation)^$C38</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H38" s="9">
+        <f t="shared" si="8"/>
+        <v>1570351.0412087981</v>
+      </c>
+      <c r="I38" s="13">
+        <f t="shared" si="9"/>
+        <v>961116.31014846836</v>
+      </c>
+      <c r="J38" s="13">
         <f t="shared" si="3"/>
-        <v>1570351.0412087981</v>
-      </c>
-      <c r="I38" s="13">
+        <v>28268.126769072711</v>
+      </c>
+      <c r="K38" s="13">
         <f t="shared" si="4"/>
-        <v>961116.31014846836</v>
-      </c>
-      <c r="J38" s="13">
-        <f>I38*real</f>
-        <v>28268.126769072711</v>
-      </c>
-      <c r="K38" s="13">
-        <f>IF(C38&lt;=n_saving,F38/(1+inflation)^C38,0)</f>
         <v>26379.916840545724</v>
       </c>
       <c r="L38" s="13">
-        <f>IF(C38&gt;n_saving,-withdrawal,0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="M38" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>1015764.3537580868</v>
       </c>
     </row>
     <row r="39" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C39">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>23</v>
       </c>
       <c r="D39" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>1570351.0412087981</v>
       </c>
       <c r="E39" s="9">
@@ -4917,45 +4919,45 @@
         <v>78517.552060439906</v>
       </c>
       <c r="F39" s="9">
-        <f>IF($C39&lt;=n_saving,deposit,K39*(1+inflation)^$C39)</f>
+        <f t="shared" si="1"/>
         <v>40782.815152241965</v>
       </c>
       <c r="G39" s="9">
-        <f>L39*(1+inflation)^$C39</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H39" s="9">
+        <f t="shared" si="8"/>
+        <v>1689651.4084214801</v>
+      </c>
+      <c r="I39" s="13">
+        <f t="shared" si="9"/>
+        <v>1015764.3537580868</v>
+      </c>
+      <c r="J39" s="13">
         <f t="shared" si="3"/>
-        <v>1689651.4084214801</v>
-      </c>
-      <c r="I39" s="13">
+        <v>29875.422169355614</v>
+      </c>
+      <c r="K39" s="13">
         <f t="shared" si="4"/>
-        <v>1015764.3537580868</v>
-      </c>
-      <c r="J39" s="13">
-        <f>I39*real</f>
-        <v>29875.422169355614</v>
-      </c>
-      <c r="K39" s="13">
-        <f>IF(C39&lt;=n_saving,F39/(1+inflation)^C39,0)</f>
         <v>25862.66356916248</v>
       </c>
       <c r="L39" s="13">
-        <f>IF(C39&gt;n_saving,-withdrawal,0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="M39" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>1071502.4394966047</v>
       </c>
     </row>
     <row r="40" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C40">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>24</v>
       </c>
       <c r="D40" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>1689651.4084214801</v>
       </c>
       <c r="E40" s="9">
@@ -4963,45 +4965,45 @@
         <v>84482.570421074008</v>
       </c>
       <c r="F40" s="9">
-        <f>IF($C40&lt;=n_saving,deposit,K40*(1+inflation)^$C40)</f>
+        <f t="shared" si="1"/>
         <v>40782.815152241965</v>
       </c>
       <c r="G40" s="9">
-        <f>L40*(1+inflation)^$C40</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H40" s="9">
+        <f t="shared" si="8"/>
+        <v>1814916.793994796</v>
+      </c>
+      <c r="I40" s="13">
+        <f t="shared" si="9"/>
+        <v>1071502.4394966047</v>
+      </c>
+      <c r="J40" s="13">
         <f t="shared" si="3"/>
-        <v>1814916.793994796</v>
-      </c>
-      <c r="I40" s="13">
+        <v>31514.777632253205</v>
+      </c>
+      <c r="K40" s="13">
         <f t="shared" si="4"/>
-        <v>1071502.4394966047</v>
-      </c>
-      <c r="J40" s="13">
-        <f>I40*real</f>
-        <v>31514.777632253205</v>
-      </c>
-      <c r="K40" s="13">
-        <f>IF(C40&lt;=n_saving,F40/(1+inflation)^C40,0)</f>
         <v>25355.552518786742</v>
       </c>
       <c r="L40" s="13">
-        <f>IF(C40&gt;n_saving,-withdrawal,0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="M40" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>1128372.7696476446</v>
       </c>
     </row>
     <row r="41" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C41">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>25</v>
       </c>
       <c r="D41" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>1814916.793994796</v>
       </c>
       <c r="E41" s="9">
@@ -5009,45 +5011,45 @@
         <v>90745.839699739809</v>
       </c>
       <c r="F41" s="9">
-        <f>IF($C41&lt;=n_saving,deposit,K41*(1+inflation)^$C41)</f>
+        <f t="shared" si="1"/>
         <v>40782.815152241965</v>
       </c>
       <c r="G41" s="9">
-        <f>L41*(1+inflation)^$C41</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H41" s="9">
+        <f t="shared" si="8"/>
+        <v>1946445.4488467779</v>
+      </c>
+      <c r="I41" s="13">
+        <f t="shared" si="9"/>
+        <v>1128372.7696476446</v>
+      </c>
+      <c r="J41" s="13">
         <f t="shared" si="3"/>
-        <v>1946445.4488467779</v>
-      </c>
-      <c r="I41" s="13">
+        <v>33187.434401401442</v>
+      </c>
+      <c r="K41" s="13">
         <f t="shared" si="4"/>
-        <v>1128372.7696476446</v>
-      </c>
-      <c r="J41" s="13">
-        <f>I41*real</f>
-        <v>33187.434401401442</v>
-      </c>
-      <c r="K41" s="13">
-        <f>IF(C41&lt;=n_saving,F41/(1+inflation)^C41,0)</f>
         <v>24858.384822339944</v>
       </c>
       <c r="L41" s="13">
-        <f>IF(C41&gt;n_saving,-withdrawal,0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="M41" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>1186418.5888713861</v>
       </c>
     </row>
     <row r="42" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C42">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>26</v>
       </c>
       <c r="D42" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>1946445.4488467779</v>
       </c>
       <c r="E42" s="9">
@@ -5055,45 +5057,45 @@
         <v>97322.272442338901</v>
       </c>
       <c r="F42" s="9">
-        <f>IF($C42&lt;=n_saving,deposit,K42*(1+inflation)^$C42)</f>
+        <f t="shared" si="1"/>
         <v>40782.815152241965</v>
       </c>
       <c r="G42" s="9">
-        <f>L42*(1+inflation)^$C42</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H42" s="9">
+        <f t="shared" si="8"/>
+        <v>2084550.5364413587</v>
+      </c>
+      <c r="I42" s="13">
+        <f t="shared" si="9"/>
+        <v>1186418.5888713861</v>
+      </c>
+      <c r="J42" s="13">
         <f t="shared" si="3"/>
-        <v>2084550.5364413587</v>
-      </c>
-      <c r="I42" s="13">
+        <v>34894.66437857032</v>
+      </c>
+      <c r="K42" s="13">
         <f t="shared" si="4"/>
-        <v>1186418.5888713861</v>
-      </c>
-      <c r="J42" s="13">
-        <f>I42*real</f>
-        <v>34894.66437857032</v>
-      </c>
-      <c r="K42" s="13">
-        <f>IF(C42&lt;=n_saving,F42/(1+inflation)^C42,0)</f>
         <v>24370.965512097984</v>
       </c>
       <c r="L42" s="13">
-        <f>IF(C42&gt;n_saving,-withdrawal,0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="M42" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>1245684.2187620546</v>
       </c>
     </row>
     <row r="43" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C43">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>27</v>
       </c>
       <c r="D43" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>2084550.5364413587</v>
       </c>
       <c r="E43" s="9">
@@ -5101,45 +5103,45 @@
         <v>104227.52682206794</v>
       </c>
       <c r="F43" s="9">
-        <f>IF($C43&lt;=n_saving,deposit,K43*(1+inflation)^$C43)</f>
+        <f t="shared" si="1"/>
         <v>40782.815152241965</v>
       </c>
       <c r="G43" s="9">
-        <f>L43*(1+inflation)^$C43</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H43" s="9">
+        <f t="shared" si="8"/>
+        <v>2229560.8784156684</v>
+      </c>
+      <c r="I43" s="13">
+        <f t="shared" si="9"/>
+        <v>1245684.2187620546</v>
+      </c>
+      <c r="J43" s="13">
         <f t="shared" si="3"/>
-        <v>2229560.8784156684</v>
-      </c>
-      <c r="I43" s="13">
+        <v>36637.771140060577</v>
+      </c>
+      <c r="K43" s="13">
         <f t="shared" si="4"/>
-        <v>1245684.2187620546</v>
-      </c>
-      <c r="J43" s="13">
-        <f>I43*real</f>
-        <v>36637.771140060577</v>
-      </c>
-      <c r="K43" s="13">
-        <f>IF(C43&lt;=n_saving,F43/(1+inflation)^C43,0)</f>
         <v>23893.103443233322</v>
       </c>
       <c r="L43" s="13">
-        <f>IF(C43&gt;n_saving,-withdrawal,0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="M43" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>1306215.0933453485</v>
       </c>
     </row>
     <row r="44" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C44">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>28</v>
       </c>
       <c r="D44" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>2229560.8784156684</v>
       </c>
       <c r="E44" s="9">
@@ -5147,45 +5149,45 @@
         <v>111478.04392078343</v>
       </c>
       <c r="F44" s="9">
-        <f>IF($C44&lt;=n_saving,deposit,K44*(1+inflation)^$C44)</f>
+        <f t="shared" si="1"/>
         <v>40782.815152241965</v>
       </c>
       <c r="G44" s="9">
-        <f>L44*(1+inflation)^$C44</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H44" s="9">
+        <f t="shared" si="8"/>
+        <v>2381821.7374886936</v>
+      </c>
+      <c r="I44" s="13">
+        <f t="shared" si="9"/>
+        <v>1306215.0933453485</v>
+      </c>
+      <c r="J44" s="13">
         <f t="shared" si="3"/>
-        <v>2381821.7374886936</v>
-      </c>
-      <c r="I44" s="13">
+        <v>38418.090980745699</v>
+      </c>
+      <c r="K44" s="13">
         <f t="shared" si="4"/>
-        <v>1306215.0933453485</v>
-      </c>
-      <c r="J44" s="13">
-        <f>I44*real</f>
-        <v>38418.090980745699</v>
-      </c>
-      <c r="K44" s="13">
-        <f>IF(C44&lt;=n_saving,F44/(1+inflation)^C44,0)</f>
         <v>23424.611218856193</v>
       </c>
       <c r="L44" s="13">
-        <f>IF(C44&gt;n_saving,-withdrawal,0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="M44" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>1368057.7955449503</v>
       </c>
     </row>
     <row r="45" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C45">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>29</v>
       </c>
       <c r="D45" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>2381821.7374886936</v>
       </c>
       <c r="E45" s="9">
@@ -5193,45 +5195,45 @@
         <v>119091.08687443468</v>
       </c>
       <c r="F45" s="9">
-        <f>IF($C45&lt;=n_saving,deposit,K45*(1+inflation)^$C45)</f>
+        <f t="shared" si="1"/>
         <v>40782.815152241965</v>
       </c>
       <c r="G45" s="9">
-        <f>L45*(1+inflation)^$C45</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H45" s="9">
+        <f t="shared" si="8"/>
+        <v>2541695.6395153701</v>
+      </c>
+      <c r="I45" s="13">
+        <f t="shared" si="9"/>
+        <v>1368057.7955449503</v>
+      </c>
+      <c r="J45" s="13">
         <f t="shared" si="3"/>
-        <v>2541695.6395153701</v>
-      </c>
-      <c r="I45" s="13">
+        <v>40236.993986616348</v>
+      </c>
+      <c r="K45" s="13">
         <f t="shared" si="4"/>
-        <v>1368057.7955449503</v>
-      </c>
-      <c r="J45" s="13">
-        <f>I45*real</f>
-        <v>40236.993986616348</v>
-      </c>
-      <c r="K45" s="13">
-        <f>IF(C45&lt;=n_saving,F45/(1+inflation)^C45,0)</f>
         <v>22965.30511652568</v>
       </c>
       <c r="L45" s="13">
-        <f>IF(C45&gt;n_saving,-withdrawal,0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="M45" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>1431260.0946480923</v>
       </c>
     </row>
     <row r="46" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C46">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>30</v>
       </c>
       <c r="D46" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>2541695.6395153701</v>
       </c>
       <c r="E46" s="9">
@@ -5239,45 +5241,45 @@
         <v>127084.78197576851</v>
       </c>
       <c r="F46" s="9">
-        <f>IF($C46&lt;=n_saving,deposit,K46*(1+inflation)^$C46)</f>
+        <f t="shared" si="1"/>
         <v>40782.815152241965</v>
       </c>
       <c r="G46" s="9">
-        <f>L46*(1+inflation)^$C46</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H46" s="9">
+        <f t="shared" si="8"/>
+        <v>2709563.2366433805</v>
+      </c>
+      <c r="I46" s="13">
+        <f t="shared" si="9"/>
+        <v>1431260.0946480923</v>
+      </c>
+      <c r="J46" s="13">
         <f t="shared" si="3"/>
-        <v>2709563.2366433805</v>
-      </c>
-      <c r="I46" s="13">
+        <v>42095.885136708763</v>
+      </c>
+      <c r="K46" s="13">
         <f t="shared" si="4"/>
-        <v>1431260.0946480923</v>
-      </c>
-      <c r="J46" s="13">
-        <f>I46*real</f>
-        <v>42095.885136708763</v>
-      </c>
-      <c r="K46" s="13">
-        <f>IF(C46&lt;=n_saving,F46/(1+inflation)^C46,0)</f>
         <v>22515.005016201649</v>
       </c>
       <c r="L46" s="13">
-        <f>IF(C46&gt;n_saving,-withdrawal,0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="M46" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>1495870.9848010028</v>
       </c>
     </row>
     <row r="47" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C47">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>31</v>
       </c>
       <c r="D47" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>2709563.2366433805</v>
       </c>
       <c r="E47" s="9">
@@ -5285,45 +5287,45 @@
         <v>135478.16183216902</v>
       </c>
       <c r="F47" s="9">
-        <f>IF($C47&lt;=n_saving,deposit,K47*(1+inflation)^$C47)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G47" s="9">
-        <f>L47*(1+inflation)^$C47</f>
+        <f t="shared" si="2"/>
         <v>-184758.881578542</v>
       </c>
       <c r="H47" s="9">
+        <f t="shared" si="8"/>
+        <v>2660282.5168970078</v>
+      </c>
+      <c r="I47" s="13">
+        <f t="shared" si="9"/>
+        <v>1495870.9848010028</v>
+      </c>
+      <c r="J47" s="13">
         <f t="shared" si="3"/>
-        <v>2660282.5168970078</v>
-      </c>
-      <c r="I47" s="13">
+        <v>43996.205435323784</v>
+      </c>
+      <c r="K47" s="13">
         <f t="shared" si="4"/>
-        <v>1495870.9848010028</v>
-      </c>
-      <c r="J47" s="13">
-        <f>I47*real</f>
-        <v>43996.205435323784</v>
-      </c>
-      <c r="K47" s="13">
-        <f>IF(C47&lt;=n_saving,F47/(1+inflation)^C47,0)</f>
         <v>0</v>
       </c>
       <c r="L47" s="13">
-        <f>IF(C47&gt;n_saving,-withdrawal,0)</f>
+        <f t="shared" si="5"/>
         <v>-100000</v>
       </c>
       <c r="M47" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>1439867.1902363265</v>
       </c>
     </row>
     <row r="48" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C48">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>32</v>
       </c>
       <c r="D48" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>2660282.5168970078</v>
       </c>
       <c r="E48" s="9">
@@ -5331,863 +5333,863 @@
         <v>133014.12584485041</v>
       </c>
       <c r="F48" s="9">
-        <f>IF($C48&lt;=n_saving,deposit,K48*(1+inflation)^$C48)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G48" s="9">
-        <f>L48*(1+inflation)^$C48</f>
+        <f t="shared" si="2"/>
         <v>-188454.0592101129</v>
       </c>
       <c r="H48" s="9">
+        <f t="shared" si="8"/>
+        <v>2604842.5835317452</v>
+      </c>
+      <c r="I48" s="13">
+        <f t="shared" si="9"/>
+        <v>1439867.1902363265</v>
+      </c>
+      <c r="J48" s="13">
         <f t="shared" si="3"/>
-        <v>2604842.5835317452</v>
-      </c>
-      <c r="I48" s="13">
+        <v>42349.035006950951</v>
+      </c>
+      <c r="K48" s="13">
         <f t="shared" si="4"/>
-        <v>1439867.1902363265</v>
-      </c>
-      <c r="J48" s="13">
-        <f>I48*real</f>
-        <v>42349.035006950951</v>
-      </c>
-      <c r="K48" s="13">
-        <f>IF(C48&lt;=n_saving,F48/(1+inflation)^C48,0)</f>
         <v>0</v>
       </c>
       <c r="L48" s="13">
-        <f>IF(C48&gt;n_saving,-withdrawal,0)</f>
+        <f t="shared" si="5"/>
         <v>-100000</v>
       </c>
       <c r="M48" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>1382216.2252432774</v>
       </c>
     </row>
     <row r="49" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C49">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>33</v>
       </c>
       <c r="D49" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>2604842.5835317452</v>
       </c>
       <c r="E49" s="9">
-        <f t="shared" ref="E49:E66" si="6">D49*nominal</f>
+        <f t="shared" ref="E49:E66" si="11">D49*nominal</f>
         <v>130242.12917658727</v>
       </c>
       <c r="F49" s="9">
-        <f>IF($C49&lt;=n_saving,deposit,K49*(1+inflation)^$C49)</f>
+        <f t="shared" ref="F49:F66" si="12">IF($C49&lt;=n_saving,deposit,K49*(1+inflation)^$C49)</f>
         <v>0</v>
       </c>
       <c r="G49" s="9">
-        <f>L49*(1+inflation)^$C49</f>
+        <f t="shared" ref="G49:G66" si="13">L49*(1+inflation)^$C49</f>
         <v>-192223.14039431515</v>
       </c>
       <c r="H49" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>2542861.5723140175</v>
       </c>
       <c r="I49" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>1382216.2252432774</v>
       </c>
       <c r="J49" s="13">
-        <f>I49*real</f>
+        <f t="shared" ref="J49:J80" si="14">I49*real</f>
         <v>40653.418389508319</v>
       </c>
       <c r="K49" s="13">
-        <f>IF(C49&lt;=n_saving,F49/(1+inflation)^C49,0)</f>
+        <f t="shared" ref="K49:K66" si="15">IF(C49&lt;=n_saving,F49/(1+inflation)^C49,0)</f>
         <v>0</v>
       </c>
       <c r="L49" s="13">
-        <f>IF(C49&gt;n_saving,-withdrawal,0)</f>
+        <f t="shared" ref="L49:L66" si="16">IF(C49&gt;n_saving,-withdrawal,0)</f>
         <v>-100000</v>
       </c>
       <c r="M49" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>1322869.6436327856</v>
       </c>
     </row>
     <row r="50" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C50">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>34</v>
       </c>
       <c r="D50" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>2542861.5723140175</v>
       </c>
       <c r="E50" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>127143.07861570088</v>
       </c>
       <c r="F50" s="9">
-        <f>IF($C50&lt;=n_saving,deposit,K50*(1+inflation)^$C50)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="G50" s="9">
-        <f>L50*(1+inflation)^$C50</f>
+        <f t="shared" si="13"/>
         <v>-196067.60320220146</v>
       </c>
       <c r="H50" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>2473937.0477275169</v>
       </c>
       <c r="I50" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>1322869.6436327856</v>
       </c>
       <c r="J50" s="13">
-        <f>I50*real</f>
+        <f t="shared" si="14"/>
         <v>38907.930695082083</v>
       </c>
       <c r="K50" s="13">
-        <f>IF(C50&lt;=n_saving,F50/(1+inflation)^C50,0)</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="L50" s="13">
-        <f>IF(C50&gt;n_saving,-withdrawal,0)</f>
+        <f t="shared" si="16"/>
         <v>-100000</v>
       </c>
       <c r="M50" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>1261777.5743278677</v>
       </c>
     </row>
     <row r="51" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C51">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>35</v>
       </c>
       <c r="D51" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>2473937.0477275169</v>
       </c>
       <c r="E51" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>123696.85238637585</v>
       </c>
       <c r="F51" s="9">
-        <f>IF($C51&lt;=n_saving,deposit,K51*(1+inflation)^$C51)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="G51" s="9">
-        <f>L51*(1+inflation)^$C51</f>
+        <f t="shared" si="13"/>
         <v>-199988.95526624547</v>
       </c>
       <c r="H51" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>2397644.9448476471</v>
       </c>
       <c r="I51" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>1261777.5743278677</v>
       </c>
       <c r="J51" s="13">
-        <f>I51*real</f>
+        <f t="shared" si="14"/>
         <v>37111.105127290379</v>
       </c>
       <c r="K51" s="13">
-        <f>IF(C51&lt;=n_saving,F51/(1+inflation)^C51,0)</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="L51" s="13">
-        <f>IF(C51&gt;n_saving,-withdrawal,0)</f>
+        <f t="shared" si="16"/>
         <v>-100000</v>
       </c>
       <c r="M51" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>1198888.6794551581</v>
       </c>
     </row>
     <row r="52" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C52">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>36</v>
       </c>
       <c r="D52" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>2397644.9448476471</v>
       </c>
       <c r="E52" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>119882.24724238236</v>
       </c>
       <c r="F52" s="9">
-        <f>IF($C52&lt;=n_saving,deposit,K52*(1+inflation)^$C52)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="G52" s="9">
-        <f>L52*(1+inflation)^$C52</f>
+        <f t="shared" si="13"/>
         <v>-203988.73437157038</v>
       </c>
       <c r="H52" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>2313538.457718459</v>
       </c>
       <c r="I52" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>1198888.6794551581</v>
       </c>
       <c r="J52" s="13">
-        <f>I52*real</f>
+        <f t="shared" si="14"/>
         <v>35261.431748681258</v>
       </c>
       <c r="K52" s="13">
-        <f>IF(C52&lt;=n_saving,F52/(1+inflation)^C52,0)</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="L52" s="13">
-        <f>IF(C52&gt;n_saving,-withdrawal,0)</f>
+        <f t="shared" si="16"/>
         <v>-100000</v>
       </c>
       <c r="M52" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>1134150.1112038393</v>
       </c>
     </row>
     <row r="53" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C53">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>37</v>
       </c>
       <c r="D53" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>2313538.457718459</v>
       </c>
       <c r="E53" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>115676.92288592295</v>
       </c>
       <c r="F53" s="9">
-        <f>IF($C53&lt;=n_saving,deposit,K53*(1+inflation)^$C53)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="G53" s="9">
-        <f>L53*(1+inflation)^$C53</f>
+        <f t="shared" si="13"/>
         <v>-208068.50905900181</v>
       </c>
       <c r="H53" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>2221146.87154538</v>
       </c>
       <c r="I53" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>1134150.1112038393</v>
       </c>
       <c r="J53" s="13">
-        <f>I53*real</f>
+        <f t="shared" si="14"/>
         <v>33357.356211877763</v>
       </c>
       <c r="K53" s="13">
-        <f>IF(C53&lt;=n_saving,F53/(1+inflation)^C53,0)</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="L53" s="13">
-        <f>IF(C53&gt;n_saving,-withdrawal,0)</f>
+        <f t="shared" si="16"/>
         <v>-100000</v>
       </c>
       <c r="M53" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>1067507.467415717</v>
       </c>
     </row>
     <row r="54" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C54">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>38</v>
       </c>
       <c r="D54" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>2221146.87154538</v>
       </c>
       <c r="E54" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>111057.343577269</v>
       </c>
       <c r="F54" s="9">
-        <f>IF($C54&lt;=n_saving,deposit,K54*(1+inflation)^$C54)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="G54" s="9">
-        <f>L54*(1+inflation)^$C54</f>
+        <f t="shared" si="13"/>
         <v>-212229.87924018185</v>
       </c>
       <c r="H54" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>2119974.3358824672</v>
       </c>
       <c r="I54" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>1067507.467415717</v>
       </c>
       <c r="J54" s="13">
-        <f>I54*real</f>
+        <f t="shared" si="14"/>
         <v>31397.278453403567</v>
       </c>
       <c r="K54" s="13">
-        <f>IF(C54&lt;=n_saving,F54/(1+inflation)^C54,0)</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="L54" s="13">
-        <f>IF(C54&gt;n_saving,-withdrawal,0)</f>
+        <f t="shared" si="16"/>
         <v>-100000</v>
       </c>
       <c r="M54" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>998904.74586912058</v>
       </c>
     </row>
     <row r="55" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C55">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>39</v>
       </c>
       <c r="D55" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>2119974.3358824672</v>
       </c>
       <c r="E55" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>105998.71679412336</v>
       </c>
       <c r="F55" s="9">
-        <f>IF($C55&lt;=n_saving,deposit,K55*(1+inflation)^$C55)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="G55" s="9">
-        <f>L55*(1+inflation)^$C55</f>
+        <f t="shared" si="13"/>
         <v>-216474.47682498541</v>
       </c>
       <c r="H55" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>2009498.5758516053</v>
       </c>
       <c r="I55" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>998904.74586912058</v>
       </c>
       <c r="J55" s="13">
-        <f>I55*real</f>
+        <f t="shared" si="14"/>
         <v>29379.5513490919</v>
       </c>
       <c r="K55" s="13">
-        <f>IF(C55&lt;=n_saving,F55/(1+inflation)^C55,0)</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="L55" s="13">
-        <f>IF(C55&gt;n_saving,-withdrawal,0)</f>
+        <f t="shared" si="16"/>
         <v>-100000</v>
       </c>
       <c r="M55" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>928284.29721821251</v>
       </c>
     </row>
     <row r="56" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C56">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>40</v>
       </c>
       <c r="D56" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>2009498.5758516053</v>
       </c>
       <c r="E56" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>100474.92879258026</v>
       </c>
       <c r="F56" s="9">
-        <f>IF($C56&lt;=n_saving,deposit,K56*(1+inflation)^$C56)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="G56" s="9">
-        <f>L56*(1+inflation)^$C56</f>
+        <f t="shared" si="13"/>
         <v>-220803.96636148519</v>
       </c>
       <c r="H56" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>1889169.5382827001</v>
       </c>
       <c r="I56" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>928284.29721821251</v>
       </c>
       <c r="J56" s="13">
-        <f>I56*real</f>
+        <f t="shared" si="14"/>
         <v>27302.479329947535</v>
       </c>
       <c r="K56" s="13">
-        <f>IF(C56&lt;=n_saving,F56/(1+inflation)^C56,0)</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="L56" s="13">
-        <f>IF(C56&gt;n_saving,-withdrawal,0)</f>
+        <f t="shared" si="16"/>
         <v>-100000</v>
       </c>
       <c r="M56" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>855586.77654816001</v>
       </c>
     </row>
     <row r="57" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C57">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>41</v>
       </c>
       <c r="D57" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>1889169.5382827001</v>
       </c>
       <c r="E57" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>94458.476914135012</v>
       </c>
       <c r="F57" s="9">
-        <f>IF($C57&lt;=n_saving,deposit,K57*(1+inflation)^$C57)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="G57" s="9">
-        <f>L57*(1+inflation)^$C57</f>
+        <f t="shared" si="13"/>
         <v>-225220.04568871489</v>
       </c>
       <c r="H57" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>1758407.9695081203</v>
       </c>
       <c r="I57" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>855586.77654816001</v>
       </c>
       <c r="J57" s="13">
-        <f>I57*real</f>
+        <f t="shared" si="14"/>
         <v>25164.316957298925</v>
       </c>
       <c r="K57" s="13">
-        <f>IF(C57&lt;=n_saving,F57/(1+inflation)^C57,0)</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="L57" s="13">
-        <f>IF(C57&gt;n_saving,-withdrawal,0)</f>
+        <f t="shared" si="16"/>
         <v>-100000</v>
       </c>
       <c r="M57" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>780751.09350545891</v>
       </c>
     </row>
     <row r="58" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C58">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>42</v>
       </c>
       <c r="D58" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>1758407.9695081203</v>
       </c>
       <c r="E58" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>87920.398475406022</v>
       </c>
       <c r="F58" s="9">
-        <f>IF($C58&lt;=n_saving,deposit,K58*(1+inflation)^$C58)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="G58" s="9">
-        <f>L58*(1+inflation)^$C58</f>
+        <f t="shared" si="13"/>
         <v>-229724.44660248916</v>
       </c>
       <c r="H58" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>1616603.9213810372</v>
       </c>
       <c r="I58" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>780751.09350545891</v>
       </c>
       <c r="J58" s="13">
-        <f>I58*real</f>
+        <f t="shared" si="14"/>
         <v>22963.267456043002</v>
       </c>
       <c r="K58" s="13">
-        <f>IF(C58&lt;=n_saving,F58/(1+inflation)^C58,0)</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="L58" s="13">
-        <f>IF(C58&gt;n_saving,-withdrawal,0)</f>
+        <f t="shared" si="16"/>
         <v>-100000</v>
       </c>
       <c r="M58" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>703714.36096150195</v>
       </c>
     </row>
     <row r="59" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C59">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>43</v>
       </c>
       <c r="D59" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>1616603.9213810372</v>
       </c>
       <c r="E59" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>80830.196069051861</v>
       </c>
       <c r="F59" s="9">
-        <f>IF($C59&lt;=n_saving,deposit,K59*(1+inflation)^$C59)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="G59" s="9">
-        <f>L59*(1+inflation)^$C59</f>
+        <f t="shared" si="13"/>
         <v>-234318.93553453893</v>
       </c>
       <c r="H59" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>1463115.1819155503</v>
       </c>
       <c r="I59" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>703714.36096150195</v>
       </c>
       <c r="J59" s="13">
-        <f>I59*real</f>
+        <f t="shared" si="14"/>
         <v>20697.48120475014</v>
       </c>
       <c r="K59" s="13">
-        <f>IF(C59&lt;=n_saving,F59/(1+inflation)^C59,0)</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="L59" s="13">
-        <f>IF(C59&gt;n_saving,-withdrawal,0)</f>
+        <f t="shared" si="16"/>
         <v>-100000</v>
       </c>
       <c r="M59" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>624411.84216625209</v>
       </c>
     </row>
     <row r="60" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C60">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>44</v>
       </c>
       <c r="D60" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>1463115.1819155503</v>
       </c>
       <c r="E60" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>73155.75909577751</v>
       </c>
       <c r="F60" s="9">
-        <f>IF($C60&lt;=n_saving,deposit,K60*(1+inflation)^$C60)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="G60" s="9">
-        <f>L60*(1+inflation)^$C60</f>
+        <f t="shared" si="13"/>
         <v>-239005.31424522976</v>
       </c>
       <c r="H60" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>1297265.626766098</v>
       </c>
       <c r="I60" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>624411.84216625209</v>
       </c>
       <c r="J60" s="13">
-        <f>I60*real</f>
+        <f t="shared" si="14"/>
         <v>18365.054181360429</v>
       </c>
       <c r="K60" s="13">
-        <f>IF(C60&lt;=n_saving,F60/(1+inflation)^C60,0)</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="L60" s="13">
-        <f>IF(C60&gt;n_saving,-withdrawal,0)</f>
+        <f t="shared" si="16"/>
         <v>-100000</v>
       </c>
       <c r="M60" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>542776.89634761249</v>
       </c>
     </row>
     <row r="61" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C61">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>45</v>
       </c>
       <c r="D61" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>1297265.626766098</v>
       </c>
       <c r="E61" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>64863.2813383049</v>
       </c>
       <c r="F61" s="9">
-        <f>IF($C61&lt;=n_saving,deposit,K61*(1+inflation)^$C61)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="G61" s="9">
-        <f>L61*(1+inflation)^$C61</f>
+        <f t="shared" si="13"/>
         <v>-243785.42053013432</v>
       </c>
       <c r="H61" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>1118343.4875742686</v>
       </c>
       <c r="I61" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>542776.89634761249</v>
       </c>
       <c r="J61" s="13">
-        <f>I61*real</f>
+        <f t="shared" si="14"/>
         <v>15964.026363165138</v>
       </c>
       <c r="K61" s="13">
-        <f>IF(C61&lt;=n_saving,F61/(1+inflation)^C61,0)</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="L61" s="13">
-        <f>IF(C61&gt;n_saving,-withdrawal,0)</f>
+        <f t="shared" si="16"/>
         <v>-100000</v>
       </c>
       <c r="M61" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>458740.92271077761</v>
       </c>
     </row>
     <row r="62" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C62">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>46</v>
       </c>
       <c r="D62" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>1118343.4875742686</v>
       </c>
       <c r="E62" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>55917.174378713433</v>
       </c>
       <c r="F62" s="9">
-        <f>IF($C62&lt;=n_saving,deposit,K62*(1+inflation)^$C62)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="G62" s="9">
-        <f>L62*(1+inflation)^$C62</f>
+        <f t="shared" si="13"/>
         <v>-248661.12894073705</v>
       </c>
       <c r="H62" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>925599.53301224485</v>
       </c>
       <c r="I62" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>458740.92271077761</v>
       </c>
       <c r="J62" s="13">
-        <f>I62*real</f>
+        <f t="shared" si="14"/>
         <v>13492.380079728808</v>
       </c>
       <c r="K62" s="13">
-        <f>IF(C62&lt;=n_saving,F62/(1+inflation)^C62,0)</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="L62" s="13">
-        <f>IF(C62&gt;n_saving,-withdrawal,0)</f>
+        <f t="shared" si="16"/>
         <v>-100000</v>
       </c>
       <c r="M62" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>372233.30279050639</v>
       </c>
     </row>
     <row r="63" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C63">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>47</v>
       </c>
       <c r="D63" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>925599.53301224485</v>
       </c>
       <c r="E63" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>46279.976650612247</v>
       </c>
       <c r="F63" s="9">
-        <f>IF($C63&lt;=n_saving,deposit,K63*(1+inflation)^$C63)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="G63" s="9">
-        <f>L63*(1+inflation)^$C63</f>
+        <f t="shared" si="13"/>
         <v>-253634.35151955168</v>
       </c>
       <c r="H63" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>718245.15814330534</v>
       </c>
       <c r="I63" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>372233.30279050639</v>
       </c>
       <c r="J63" s="13">
-        <f>I63*real</f>
+        <f t="shared" si="14"/>
         <v>10948.038317367878</v>
       </c>
       <c r="K63" s="13">
-        <f>IF(C63&lt;=n_saving,F63/(1+inflation)^C63,0)</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="L63" s="13">
-        <f>IF(C63&gt;n_saving,-withdrawal,0)</f>
+        <f t="shared" si="16"/>
         <v>-100000</v>
       </c>
       <c r="M63" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>283181.34110787429</v>
       </c>
     </row>
     <row r="64" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C64">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>48</v>
       </c>
       <c r="D64" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>718245.15814330534</v>
       </c>
       <c r="E64" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>35912.257907165265</v>
       </c>
       <c r="F64" s="9">
-        <f>IF($C64&lt;=n_saving,deposit,K64*(1+inflation)^$C64)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="G64" s="9">
-        <f>L64*(1+inflation)^$C64</f>
+        <f t="shared" si="13"/>
         <v>-258707.03854994278</v>
       </c>
       <c r="H64" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>495450.37750052777</v>
       </c>
       <c r="I64" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>283181.34110787429</v>
       </c>
       <c r="J64" s="13">
-        <f>I64*real</f>
+        <f t="shared" si="14"/>
         <v>8328.8629737610427</v>
       </c>
       <c r="K64" s="13">
-        <f>IF(C64&lt;=n_saving,F64/(1+inflation)^C64,0)</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="L64" s="13">
-        <f>IF(C64&gt;n_saving,-withdrawal,0)</f>
+        <f t="shared" si="16"/>
         <v>-100000</v>
       </c>
       <c r="M64" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>191510.20408163534</v>
       </c>
     </row>
     <row r="65" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C65">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>49</v>
       </c>
       <c r="D65" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>495450.37750052777</v>
       </c>
       <c r="E65" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>24772.518875026391</v>
       </c>
       <c r="F65" s="9">
-        <f>IF($C65&lt;=n_saving,deposit,K65*(1+inflation)^$C65)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="G65" s="9">
-        <f>L65*(1+inflation)^$C65</f>
+        <f t="shared" si="13"/>
         <v>-263881.17932094162</v>
       </c>
       <c r="H65" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>256341.71705461253</v>
       </c>
       <c r="I65" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>191510.20408163534</v>
       </c>
       <c r="J65" s="13">
-        <f>I65*real</f>
+        <f t="shared" si="14"/>
         <v>5632.6530612245915</v>
       </c>
       <c r="K65" s="13">
-        <f>IF(C65&lt;=n_saving,F65/(1+inflation)^C65,0)</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="L65" s="13">
-        <f>IF(C65&gt;n_saving,-withdrawal,0)</f>
+        <f t="shared" si="16"/>
         <v>-100000</v>
       </c>
       <c r="M65" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>97142.857142859924</v>
       </c>
     </row>
     <row r="66" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C66">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>50</v>
       </c>
       <c r="D66" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>256341.71705461253</v>
       </c>
       <c r="E66" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>12817.085852730626</v>
       </c>
       <c r="F66" s="9">
-        <f>IF($C66&lt;=n_saving,deposit,K66*(1+inflation)^$C66)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="G66" s="9">
-        <f>L66*(1+inflation)^$C66</f>
+        <f t="shared" si="13"/>
         <v>-269158.80290736048</v>
       </c>
       <c r="H66" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>-1.7345882952213287E-8</v>
       </c>
       <c r="I66" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>97142.857142859924</v>
       </c>
       <c r="J66" s="13">
-        <f>I66*real</f>
+        <f t="shared" si="14"/>
         <v>2857.1428571429506</v>
       </c>
       <c r="K66" s="13">
-        <f>IF(C66&lt;=n_saving,F66/(1+inflation)^C66,0)</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="L66" s="13">
-        <f>IF(C66&gt;n_saving,-withdrawal,0)</f>
+        <f t="shared" si="16"/>
         <v>-100000</v>
       </c>
       <c r="M66" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>2.8812792152166367E-9</v>
       </c>
     </row>
@@ -6240,7 +6242,7 @@
       </c>
       <c r="E3" s="4">
         <f ca="1">I58</f>
-        <v>-307867.40139112144</v>
+        <v>-990400.95189411612</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -6307,11 +6309,11 @@
       </c>
       <c r="C9" s="15">
         <f ca="1">RAND()</f>
-        <v>0.79594659132599699</v>
+        <v>0.73024382518145281</v>
       </c>
       <c r="D9" s="14">
-        <f ca="1">_xlfn.NORM.INV(C9,normal_mean,normal_sd)</f>
-        <v>0.12272298119861591</v>
+        <f t="shared" ref="D9:D40" ca="1" si="0">_xlfn.NORM.INV(C9,normal_mean,normal_sd)</f>
+        <v>0.10135505794548605</v>
       </c>
       <c r="E9" s="4">
         <f>beginning_bal</f>
@@ -6322,11 +6324,11 @@
         <v>0</v>
       </c>
       <c r="G9" s="4">
-        <f>IF(B9&lt;=n_saving,annual_deposit,0)</f>
+        <f t="shared" ref="G9:G40" si="1">IF(B9&lt;=n_saving,annual_deposit,0)</f>
         <v>32000</v>
       </c>
       <c r="H9" s="4">
-        <f>IF(B9&gt;n_saving,-withdrawal,0)</f>
+        <f t="shared" ref="H9:H40" si="2">IF(B9&gt;n_saving,-withdrawal,0)</f>
         <v>0</v>
       </c>
       <c r="I9" s="4">
@@ -6340,814 +6342,814 @@
         <v>2</v>
       </c>
       <c r="C10" s="15">
-        <f t="shared" ref="C10:C58" ca="1" si="0">RAND()</f>
-        <v>0.19197055483303593</v>
+        <f t="shared" ref="C10:C58" ca="1" si="3">RAND()</f>
+        <v>0.79547197679505799</v>
       </c>
       <c r="D10" s="14">
-        <f ca="1">_xlfn.NORM.INV(C10,normal_mean,normal_sd)</f>
-        <v>-4.7065764810238699E-2</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.12255559243643277</v>
       </c>
       <c r="E10" s="4">
         <f ca="1">I9</f>
         <v>32000</v>
       </c>
       <c r="F10" s="4">
-        <f t="shared" ref="F10:F58" ca="1" si="1">E10*D10</f>
-        <v>-1506.1044739276383</v>
+        <f t="shared" ref="F10:F58" ca="1" si="4">E10*D10</f>
+        <v>3921.7789579658488</v>
       </c>
       <c r="G10" s="4">
-        <f>IF(B10&lt;=n_saving,annual_deposit,0)</f>
+        <f t="shared" si="1"/>
         <v>32000</v>
       </c>
       <c r="H10" s="4">
-        <f>IF(B10&gt;n_saving,-withdrawal,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I10" s="4">
         <f ca="1">E10+F10+G10+H10</f>
-        <v>62493.89552607236</v>
+        <v>67921.778957965842</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B11">
-        <f t="shared" ref="B11:B58" si="2">B10+1</f>
+        <f t="shared" ref="B11:B58" si="5">B10+1</f>
         <v>3</v>
       </c>
       <c r="C11" s="15">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.30537994542837821</v>
+      </c>
+      <c r="D11" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>7.1028170742419627E-2</v>
-      </c>
-      <c r="D11" s="14">
-        <f ca="1">_xlfn.NORM.INV(C11,normal_mean,normal_sd)</f>
-        <v>-0.10681762952834017</v>
+        <v>-1.0898906224203003E-2</v>
       </c>
       <c r="E11" s="4">
-        <f t="shared" ref="E11:E58" ca="1" si="3">I10</f>
-        <v>62493.89552607236</v>
+        <f t="shared" ref="E11:E58" ca="1" si="6">I10</f>
+        <v>67921.778957965842</v>
       </c>
       <c r="F11" s="4">
-        <f t="shared" ca="1" si="1"/>
-        <v>-6675.449780086793</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>-740.27309944391448</v>
       </c>
       <c r="G11" s="4">
-        <f>IF(B11&lt;=n_saving,annual_deposit,0)</f>
+        <f t="shared" si="1"/>
         <v>32000</v>
       </c>
       <c r="H11" s="4">
-        <f>IF(B11&gt;n_saving,-withdrawal,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I11" s="4">
-        <f t="shared" ref="I11:I58" ca="1" si="4">E11+F11+G11+H11</f>
-        <v>87818.445745985577</v>
+        <f t="shared" ref="I11:I58" ca="1" si="7">E11+F11+G11+H11</f>
+        <v>99181.505858521923</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="C12" s="15">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.59078851758452444</v>
+      </c>
+      <c r="D12" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>0.14022358346756469</v>
-      </c>
-      <c r="D12" s="14">
-        <f ca="1">_xlfn.NORM.INV(C12,normal_mean,normal_sd)</f>
-        <v>-6.7931536211635196E-2</v>
+        <v>6.2957380369804736E-2</v>
       </c>
       <c r="E12" s="4">
-        <f t="shared" ca="1" si="3"/>
-        <v>87818.445745985577</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>99181.505858521923</v>
       </c>
       <c r="F12" s="4">
-        <f t="shared" ca="1" si="1"/>
-        <v>-5965.6419272429403</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>6244.2077899849819</v>
       </c>
       <c r="G12" s="4">
-        <f>IF(B12&lt;=n_saving,annual_deposit,0)</f>
+        <f t="shared" si="1"/>
         <v>32000</v>
       </c>
       <c r="H12" s="4">
-        <f>IF(B12&gt;n_saving,-withdrawal,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I12" s="4">
-        <f t="shared" ca="1" si="4"/>
-        <v>113852.80381874264</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>137425.71364850691</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="C13" s="15">
+        <f t="shared" ca="1" si="3"/>
+        <v>6.6872546164563951E-2</v>
+      </c>
+      <c r="D13" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>0.48949561689680154</v>
-      </c>
-      <c r="D13" s="14">
-        <f ca="1">_xlfn.NORM.INV(C13,normal_mean,normal_sd)</f>
-        <v>3.7366637307011286E-2</v>
+        <v>-0.10994956655542076</v>
       </c>
       <c r="E13" s="4">
-        <f t="shared" ca="1" si="3"/>
-        <v>113852.80381874264</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>137425.71364850691</v>
       </c>
       <c r="F13" s="4">
-        <f t="shared" ca="1" si="1"/>
-        <v>4254.296426681266</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>-15109.897649222705</v>
       </c>
       <c r="G13" s="4">
-        <f>IF(B13&lt;=n_saving,annual_deposit,0)</f>
+        <f t="shared" si="1"/>
         <v>32000</v>
       </c>
       <c r="H13" s="4">
-        <f>IF(B13&gt;n_saving,-withdrawal,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I13" s="4">
-        <f t="shared" ca="1" si="4"/>
-        <v>150107.10024542391</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>154315.81599928421</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
       <c r="C14" s="15">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.79654944793510363</v>
+      </c>
+      <c r="D14" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>0.52119939505709922</v>
-      </c>
-      <c r="D14" s="14">
-        <f ca="1">_xlfn.NORM.INV(C14,normal_mean,normal_sd)</f>
-        <v>4.5316403637730769E-2</v>
+        <v>0.1229359336319138</v>
       </c>
       <c r="E14" s="4">
-        <f t="shared" ca="1" si="3"/>
-        <v>150107.10024542391</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>154315.81599928421</v>
       </c>
       <c r="F14" s="4">
-        <f t="shared" ca="1" si="1"/>
-        <v>6802.313943610945</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>18970.958914042625</v>
       </c>
       <c r="G14" s="4">
-        <f>IF(B14&lt;=n_saving,annual_deposit,0)</f>
+        <f t="shared" si="1"/>
         <v>32000</v>
       </c>
       <c r="H14" s="4">
-        <f>IF(B14&gt;n_saving,-withdrawal,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I14" s="4">
-        <f t="shared" ca="1" si="4"/>
-        <v>188909.41418903484</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>205286.77491332684</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>7</v>
       </c>
       <c r="C15" s="15">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.75981815197693414</v>
+      </c>
+      <c r="D15" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>0.58000274696912568</v>
-      </c>
-      <c r="D15" s="14">
-        <f ca="1">_xlfn.NORM.INV(C15,normal_mean,normal_sd)</f>
-        <v>6.019005065496158E-2</v>
+        <v>0.11057177247720909</v>
       </c>
       <c r="E15" s="4">
-        <f t="shared" ca="1" si="3"/>
-        <v>188909.41418903484</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>205286.77491332684</v>
       </c>
       <c r="F15" s="4">
-        <f t="shared" ca="1" si="1"/>
-        <v>11370.467209237126</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>22698.92256829641</v>
       </c>
       <c r="G15" s="4">
-        <f>IF(B15&lt;=n_saving,annual_deposit,0)</f>
+        <f t="shared" si="1"/>
         <v>32000</v>
       </c>
       <c r="H15" s="4">
-        <f>IF(B15&gt;n_saving,-withdrawal,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I15" s="4">
-        <f t="shared" ca="1" si="4"/>
-        <v>232279.88139827197</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>259985.69748162324</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>8</v>
       </c>
       <c r="C16" s="15">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.94942932535415903</v>
+      </c>
+      <c r="D16" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>0.65430028379688265</v>
-      </c>
-      <c r="D16" s="14">
-        <f ca="1">_xlfn.NORM.INV(C16,normal_mean,normal_sd)</f>
-        <v>7.9695664415636219E-2</v>
+        <v>0.20393453836497549</v>
       </c>
       <c r="E16" s="4">
-        <f t="shared" ca="1" si="3"/>
-        <v>232279.88139827197</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>259985.69748162324</v>
       </c>
       <c r="F16" s="4">
-        <f t="shared" ca="1" si="1"/>
-        <v>18511.699478420465</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>53020.063197411007</v>
       </c>
       <c r="G16" s="4">
-        <f>IF(B16&lt;=n_saving,annual_deposit,0)</f>
+        <f t="shared" si="1"/>
         <v>32000</v>
       </c>
       <c r="H16" s="4">
-        <f>IF(B16&gt;n_saving,-withdrawal,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I16" s="4">
-        <f t="shared" ca="1" si="4"/>
-        <v>282791.58087669243</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>345005.76067903423</v>
       </c>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>9</v>
       </c>
       <c r="C17" s="15">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.47404096443606758</v>
+      </c>
+      <c r="D17" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>0.30304557601893956</v>
-      </c>
-      <c r="D17" s="14">
-        <f ca="1">_xlfn.NORM.INV(C17,normal_mean,normal_sd)</f>
-        <v>-1.1566106568579572E-2</v>
+        <v>3.3488436116952083E-2</v>
       </c>
       <c r="E17" s="4">
-        <f t="shared" ca="1" si="3"/>
-        <v>282791.58087669243</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>345005.76067903423</v>
       </c>
       <c r="F17" s="4">
-        <f t="shared" ca="1" si="1"/>
-        <v>-3270.7975611169136</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>11553.703376480296</v>
       </c>
       <c r="G17" s="4">
-        <f>IF(B17&lt;=n_saving,annual_deposit,0)</f>
+        <f t="shared" si="1"/>
         <v>32000</v>
       </c>
       <c r="H17" s="4">
-        <f>IF(B17&gt;n_saving,-withdrawal,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I17" s="4">
-        <f t="shared" ca="1" si="4"/>
-        <v>311520.78331557551</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>388559.46405551455</v>
       </c>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="C18" s="15">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.60633852300201141</v>
+      </c>
+      <c r="D18" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>0.89015878307123031</v>
-      </c>
-      <c r="D18" s="14">
-        <f ca="1">_xlfn.NORM.INV(C18,normal_mean,normal_sd)</f>
-        <v>0.16273729887854232</v>
+        <v>6.6978852152203491E-2</v>
       </c>
       <c r="E18" s="4">
-        <f t="shared" ca="1" si="3"/>
-        <v>311520.78331557551</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>388559.46405551455</v>
       </c>
       <c r="F18" s="4">
-        <f t="shared" ca="1" si="1"/>
-        <v>50696.05082130443</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>26025.266895313736</v>
       </c>
       <c r="G18" s="4">
-        <f>IF(B18&lt;=n_saving,annual_deposit,0)</f>
+        <f t="shared" si="1"/>
         <v>32000</v>
       </c>
       <c r="H18" s="4">
-        <f>IF(B18&gt;n_saving,-withdrawal,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I18" s="4">
-        <f t="shared" ca="1" si="4"/>
-        <v>394216.83413687994</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>446584.73095082829</v>
       </c>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>11</v>
       </c>
       <c r="C19" s="15">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.10634975699265603</v>
+      </c>
+      <c r="D19" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>4.1792561022293895E-2</v>
-      </c>
-      <c r="D19" s="14">
-        <f ca="1">_xlfn.NORM.INV(C19,normal_mean,normal_sd)</f>
-        <v>-0.13302527803114197</v>
+        <v>-8.4617674664860615E-2</v>
       </c>
       <c r="E19" s="4">
-        <f t="shared" ca="1" si="3"/>
-        <v>394216.83413687994</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>446584.73095082829</v>
       </c>
       <c r="F19" s="4">
-        <f t="shared" ca="1" si="1"/>
-        <v>-52440.803965615036</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>-37788.961473891497</v>
       </c>
       <c r="G19" s="4">
-        <f>IF(B19&lt;=n_saving,annual_deposit,0)</f>
+        <f t="shared" si="1"/>
         <v>32000</v>
       </c>
       <c r="H19" s="4">
-        <f>IF(B19&gt;n_saving,-withdrawal,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I19" s="4">
-        <f t="shared" ca="1" si="4"/>
-        <v>373776.03017126489</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>440795.76947693678</v>
       </c>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>12</v>
       </c>
       <c r="C20" s="15">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.23266160465443086</v>
+      </c>
+      <c r="D20" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>0.27180095273664107</v>
-      </c>
-      <c r="D20" s="14">
-        <f ca="1">_xlfn.NORM.INV(C20,normal_mean,normal_sd)</f>
-        <v>-2.0737525636639401E-2</v>
+        <v>-3.301095745498648E-2</v>
       </c>
       <c r="E20" s="4">
-        <f t="shared" ca="1" si="3"/>
-        <v>373776.03017126489</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>440795.76947693678</v>
       </c>
       <c r="F20" s="4">
-        <f t="shared" ca="1" si="1"/>
-        <v>-7751.1900080379082</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>-14551.090392541188</v>
       </c>
       <c r="G20" s="4">
-        <f>IF(B20&lt;=n_saving,annual_deposit,0)</f>
+        <f t="shared" si="1"/>
         <v>32000</v>
       </c>
       <c r="H20" s="4">
-        <f>IF(B20&gt;n_saving,-withdrawal,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I20" s="4">
-        <f t="shared" ca="1" si="4"/>
-        <v>398024.840163227</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>458244.67908439558</v>
       </c>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>13</v>
       </c>
       <c r="C21" s="15">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.31875057363069881</v>
+      </c>
+      <c r="D21" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>0.71208322814597047</v>
-      </c>
-      <c r="D21" s="14">
-        <f ca="1">_xlfn.NORM.INV(C21,normal_mean,normal_sd)</f>
-        <v>9.5948092811231095E-2</v>
+        <v>-7.1195478530538259E-3</v>
       </c>
       <c r="E21" s="4">
-        <f t="shared" ca="1" si="3"/>
-        <v>398024.840163227</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>458244.67908439558</v>
       </c>
       <c r="F21" s="4">
-        <f t="shared" ca="1" si="1"/>
-        <v>38189.724305156727</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>-3262.4949211486478</v>
       </c>
       <c r="G21" s="4">
-        <f>IF(B21&lt;=n_saving,annual_deposit,0)</f>
+        <f t="shared" si="1"/>
         <v>32000</v>
       </c>
       <c r="H21" s="4">
-        <f>IF(B21&gt;n_saving,-withdrawal,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I21" s="4">
-        <f t="shared" ca="1" si="4"/>
-        <v>468214.56446838373</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>486982.18416324694</v>
       </c>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>14</v>
       </c>
       <c r="C22" s="15">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.66694779598703335</v>
+      </c>
+      <c r="D22" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>0.70398849941992159</v>
-      </c>
-      <c r="D22" s="14">
-        <f ca="1">_xlfn.NORM.INV(C22,normal_mean,normal_sd)</f>
-        <v>9.3590674710238214E-2</v>
+        <v>8.3150061157668598E-2</v>
       </c>
       <c r="E22" s="4">
-        <f t="shared" ca="1" si="3"/>
-        <v>468214.56446838373</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>486982.18416324694</v>
       </c>
       <c r="F22" s="4">
-        <f t="shared" ca="1" si="1"/>
-        <v>43820.516997756364</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>40492.598395869012</v>
       </c>
       <c r="G22" s="4">
-        <f>IF(B22&lt;=n_saving,annual_deposit,0)</f>
+        <f t="shared" si="1"/>
         <v>32000</v>
       </c>
       <c r="H22" s="4">
-        <f>IF(B22&gt;n_saving,-withdrawal,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I22" s="4">
-        <f t="shared" ca="1" si="4"/>
-        <v>544035.08146614011</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>559474.78255911591</v>
       </c>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>15</v>
       </c>
       <c r="C23" s="15">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.6361841004904305</v>
+      </c>
+      <c r="D23" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>0.25211433863734534</v>
-      </c>
-      <c r="D23" s="14">
-        <f ca="1">_xlfn.NORM.INV(C23,normal_mean,normal_sd)</f>
-        <v>-2.6785104823026741E-2</v>
+        <v>7.4827748765893598E-2</v>
       </c>
       <c r="E23" s="4">
-        <f t="shared" ca="1" si="3"/>
-        <v>544035.08146614011</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>559474.78255911591</v>
       </c>
       <c r="F23" s="4">
-        <f t="shared" ca="1" si="1"/>
-        <v>-14572.036684474455</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>41864.238470186472</v>
       </c>
       <c r="G23" s="4">
-        <f>IF(B23&lt;=n_saving,annual_deposit,0)</f>
+        <f t="shared" si="1"/>
         <v>32000</v>
       </c>
       <c r="H23" s="4">
-        <f>IF(B23&gt;n_saving,-withdrawal,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I23" s="4">
-        <f t="shared" ca="1" si="4"/>
-        <v>561463.04478166567</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>633339.02102930238</v>
       </c>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>16</v>
       </c>
       <c r="C24" s="15">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.14141174042870175</v>
+      </c>
+      <c r="D24" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>0.9747704578252907</v>
-      </c>
-      <c r="D24" s="14">
-        <f ca="1">_xlfn.NORM.INV(C24,normal_mean,normal_sd)</f>
-        <v>0.23560515281317104</v>
+        <v>-6.7399821660626053E-2</v>
       </c>
       <c r="E24" s="4">
-        <f t="shared" ca="1" si="3"/>
-        <v>561463.04478166567</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>633339.02102930238</v>
       </c>
       <c r="F24" s="4">
-        <f t="shared" ca="1" si="1"/>
-        <v>132283.58646473262</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>-42686.937068090476</v>
       </c>
       <c r="G24" s="4">
-        <f>IF(B24&lt;=n_saving,annual_deposit,0)</f>
+        <f t="shared" si="1"/>
         <v>32000</v>
       </c>
       <c r="H24" s="4">
-        <f>IF(B24&gt;n_saving,-withdrawal,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I24" s="4">
-        <f t="shared" ca="1" si="4"/>
-        <v>725746.63124639832</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>622652.08396121196</v>
       </c>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B25">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>17</v>
       </c>
       <c r="C25" s="15">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.3453086698338258</v>
+      </c>
+      <c r="D25" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>0.56083652746548818</v>
-      </c>
-      <c r="D25" s="14">
-        <f ca="1">_xlfn.NORM.INV(C25,normal_mean,normal_sd)</f>
-        <v>5.5309045232112455E-2</v>
+        <v>1.9825727425550749E-4</v>
       </c>
       <c r="E25" s="4">
-        <f t="shared" ca="1" si="3"/>
-        <v>725746.63124639832</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>622652.08396121196</v>
       </c>
       <c r="F25" s="4">
-        <f t="shared" ca="1" si="1"/>
-        <v>40140.35325466028</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>123.44530497566127</v>
       </c>
       <c r="G25" s="4">
-        <f>IF(B25&lt;=n_saving,annual_deposit,0)</f>
+        <f t="shared" si="1"/>
         <v>32000</v>
       </c>
       <c r="H25" s="4">
-        <f>IF(B25&gt;n_saving,-withdrawal,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I25" s="4">
-        <f t="shared" ca="1" si="4"/>
-        <v>797886.98450105859</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>654775.52926618757</v>
       </c>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B26">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>18</v>
       </c>
       <c r="C26" s="15">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.53045067536348778</v>
+      </c>
+      <c r="D26" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>0.1106132115850027</v>
-      </c>
-      <c r="D26" s="14">
-        <f ca="1">_xlfn.NORM.INV(C26,normal_mean,normal_sd)</f>
-        <v>-8.2327347228196568E-2</v>
+        <v>4.764027909099966E-2</v>
       </c>
       <c r="E26" s="4">
-        <f t="shared" ca="1" si="3"/>
-        <v>797886.98450105859</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>654775.52926618757</v>
       </c>
       <c r="F26" s="4">
-        <f t="shared" ca="1" si="1"/>
-        <v>-65687.918821877349</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>31193.688956198192</v>
       </c>
       <c r="G26" s="4">
-        <f>IF(B26&lt;=n_saving,annual_deposit,0)</f>
+        <f t="shared" si="1"/>
         <v>32000</v>
       </c>
       <c r="H26" s="4">
-        <f>IF(B26&gt;n_saving,-withdrawal,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I26" s="4">
-        <f t="shared" ca="1" si="4"/>
-        <v>764199.06567918125</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>717969.21822238574</v>
       </c>
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B27">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>19</v>
       </c>
       <c r="C27" s="15">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.15808362115562902</v>
+      </c>
+      <c r="D27" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>0.60650326951202227</v>
-      </c>
-      <c r="D27" s="14">
-        <f ca="1">_xlfn.NORM.INV(C27,normal_mean,normal_sd)</f>
-        <v>6.702168101144404E-2</v>
+        <v>-6.0236520178283577E-2</v>
       </c>
       <c r="E27" s="4">
-        <f t="shared" ca="1" si="3"/>
-        <v>764199.06567918125</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>717969.21822238574</v>
       </c>
       <c r="F27" s="4">
-        <f t="shared" ca="1" si="1"/>
-        <v>51217.906009193655</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>-43247.96730083922</v>
       </c>
       <c r="G27" s="4">
-        <f>IF(B27&lt;=n_saving,annual_deposit,0)</f>
+        <f t="shared" si="1"/>
         <v>32000</v>
       </c>
       <c r="H27" s="4">
-        <f>IF(B27&gt;n_saving,-withdrawal,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I27" s="4">
-        <f t="shared" ca="1" si="4"/>
-        <v>847416.97168837488</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>706721.25092154648</v>
       </c>
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B28">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>20</v>
       </c>
       <c r="C28" s="15">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.14192249345395613</v>
+      </c>
+      <c r="D28" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>0.77068276199357377</v>
-      </c>
-      <c r="D28" s="14">
-        <f ca="1">_xlfn.NORM.INV(C28,normal_mean,normal_sd)</f>
-        <v>0.11410972514713963</v>
+        <v>-6.7172184289300829E-2</v>
       </c>
       <c r="E28" s="4">
-        <f t="shared" ca="1" si="3"/>
-        <v>847416.97168837488</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>706721.25092154648</v>
       </c>
       <c r="F28" s="4">
-        <f t="shared" ca="1" si="1"/>
-        <v>96698.517724381862</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>-47472.010108067334</v>
       </c>
       <c r="G28" s="4">
-        <f>IF(B28&lt;=n_saving,annual_deposit,0)</f>
+        <f t="shared" si="1"/>
         <v>32000</v>
       </c>
       <c r="H28" s="4">
-        <f>IF(B28&gt;n_saving,-withdrawal,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I28" s="4">
-        <f t="shared" ca="1" si="4"/>
-        <v>976115.48941275675</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>691249.24081347918</v>
       </c>
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B29">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>21</v>
       </c>
       <c r="C29" s="15">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.10508251105940358</v>
+      </c>
+      <c r="D29" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>0.52545026289419439</v>
-      </c>
-      <c r="D29" s="14">
-        <f ca="1">_xlfn.NORM.INV(C29,normal_mean,normal_sd)</f>
-        <v>4.6383768115545024E-2</v>
+        <v>-8.531118003840954E-2</v>
       </c>
       <c r="E29" s="4">
-        <f t="shared" ca="1" si="3"/>
-        <v>976115.48941275675</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>691249.24081347918</v>
       </c>
       <c r="F29" s="4">
-        <f t="shared" ca="1" si="1"/>
-        <v>45275.914514913056</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>-58971.288434452632</v>
       </c>
       <c r="G29" s="4">
-        <f>IF(B29&lt;=n_saving,annual_deposit,0)</f>
+        <f t="shared" si="1"/>
         <v>32000</v>
       </c>
       <c r="H29" s="4">
-        <f>IF(B29&gt;n_saving,-withdrawal,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I29" s="4">
-        <f t="shared" ca="1" si="4"/>
-        <v>1053391.4039276699</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>664277.95237902657</v>
       </c>
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B30">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>22</v>
       </c>
       <c r="C30" s="15">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.10321554945781675</v>
+      </c>
+      <c r="D30" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>0.80341209301088801</v>
-      </c>
-      <c r="D30" s="14">
-        <f ca="1">_xlfn.NORM.INV(C30,normal_mean,normal_sd)</f>
-        <v>0.12538721828049459</v>
+        <v>-8.6343999353173162E-2</v>
       </c>
       <c r="E30" s="4">
-        <f t="shared" ca="1" si="3"/>
-        <v>1053391.4039276699</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>664277.95237902657</v>
       </c>
       <c r="F30" s="4">
-        <f t="shared" ca="1" si="1"/>
-        <v>132081.81789907539</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>-57356.415090541865</v>
       </c>
       <c r="G30" s="4">
-        <f>IF(B30&lt;=n_saving,annual_deposit,0)</f>
+        <f t="shared" si="1"/>
         <v>32000</v>
       </c>
       <c r="H30" s="4">
-        <f>IF(B30&gt;n_saving,-withdrawal,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I30" s="4">
-        <f t="shared" ca="1" si="4"/>
-        <v>1217473.2218267452</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>638921.53728848475</v>
       </c>
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>23</v>
       </c>
       <c r="C31" s="15">
+        <f t="shared" ca="1" si="3"/>
+        <v>3.095197885003409E-2</v>
+      </c>
+      <c r="D31" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>0.4399585264860727</v>
-      </c>
-      <c r="D31" s="14">
-        <f ca="1">_xlfn.NORM.INV(C31,normal_mean,normal_sd)</f>
-        <v>2.4892563351196346E-2</v>
+        <v>-0.14669830300176698</v>
       </c>
       <c r="E31" s="4">
-        <f t="shared" ca="1" si="3"/>
-        <v>1217473.2218267452</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>638921.53728848475</v>
       </c>
       <c r="F31" s="4">
-        <f t="shared" ca="1" si="1"/>
-        <v>30306.029302707375</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>-93728.70527150089</v>
       </c>
       <c r="G31" s="4">
-        <f>IF(B31&lt;=n_saving,annual_deposit,0)</f>
+        <f t="shared" si="1"/>
         <v>32000</v>
       </c>
       <c r="H31" s="4">
-        <f>IF(B31&gt;n_saving,-withdrawal,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I31" s="4">
-        <f t="shared" ca="1" si="4"/>
-        <v>1279779.2511294526</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>577192.83201698388</v>
       </c>
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B32">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>24</v>
       </c>
       <c r="C32" s="15">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.50216465662513354</v>
+      </c>
+      <c r="D32" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>0.34960182122031469</v>
-      </c>
-      <c r="D32" s="14">
-        <f ca="1">_xlfn.NORM.INV(C32,normal_mean,normal_sd)</f>
-        <v>1.3604311086004503E-3</v>
+        <v>4.0542601612645501E-2</v>
       </c>
       <c r="E32" s="4">
-        <f t="shared" ca="1" si="3"/>
-        <v>1279779.2511294526</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>577192.83201698388</v>
       </c>
       <c r="F32" s="4">
-        <f t="shared" ca="1" si="1"/>
-        <v>1741.0515053778952</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>23400.899042139194</v>
       </c>
       <c r="G32" s="4">
-        <f>IF(B32&lt;=n_saving,annual_deposit,0)</f>
+        <f t="shared" si="1"/>
         <v>32000</v>
       </c>
       <c r="H32" s="4">
-        <f>IF(B32&gt;n_saving,-withdrawal,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I32" s="4">
-        <f t="shared" ca="1" si="4"/>
-        <v>1313520.3026348306</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>632593.73105912306</v>
       </c>
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B33">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>25</v>
       </c>
       <c r="C33" s="15">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.70045437782181796</v>
+      </c>
+      <c r="D33" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>0.7552677211526545</v>
-      </c>
-      <c r="D33" s="14">
-        <f ca="1">_xlfn.NORM.INV(C33,normal_mean,normal_sd)</f>
-        <v>0.10911607006079413</v>
+        <v>9.2570779879327492E-2</v>
       </c>
       <c r="E33" s="4">
-        <f t="shared" ca="1" si="3"/>
-        <v>1313520.3026348306</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>632593.73105912306</v>
       </c>
       <c r="F33" s="4">
-        <f t="shared" ca="1" si="1"/>
-        <v>143326.17336857767</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>58559.695030916577</v>
       </c>
       <c r="G33" s="4">
-        <f>IF(B33&lt;=n_saving,annual_deposit,0)</f>
+        <f t="shared" si="1"/>
         <v>32000</v>
       </c>
       <c r="H33" s="4">
-        <f>IF(B33&gt;n_saving,-withdrawal,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I33" s="4">
-        <f t="shared" ca="1" si="4"/>
-        <v>1488846.4760034082</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>723153.42609003966</v>
       </c>
     </row>
     <row r="34" spans="2:9" x14ac:dyDescent="0.25">
@@ -7156,100 +7158,100 @@
         <v>26</v>
       </c>
       <c r="C34" s="15">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.5034695457480205</v>
+      </c>
+      <c r="D34" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>0.28851430017629354</v>
-      </c>
-      <c r="D34" s="14">
-        <f ca="1">_xlfn.NORM.INV(C34,normal_mean,normal_sd)</f>
-        <v>-1.5773024663601157E-2</v>
+        <v>4.0869697110678151E-2</v>
       </c>
       <c r="E34" s="4">
-        <f t="shared" ca="1" si="3"/>
-        <v>1488846.4760034082</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>723153.42609003966</v>
       </c>
       <c r="F34" s="4">
-        <f t="shared" ca="1" si="1"/>
-        <v>-23483.612186317427</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>29555.0614888491</v>
       </c>
       <c r="G34" s="4">
-        <f>IF(B34&lt;=n_saving,annual_deposit,0)</f>
+        <f t="shared" si="1"/>
         <v>32000</v>
       </c>
       <c r="H34" s="4">
-        <f>IF(B34&gt;n_saving,-withdrawal,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I34" s="4">
-        <f t="shared" ca="1" si="4"/>
-        <v>1497362.8638170909</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>784708.48757888877</v>
       </c>
     </row>
     <row r="35" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>27</v>
       </c>
       <c r="C35" s="15">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.41317197105485903</v>
+      </c>
+      <c r="D35" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>3.3708891462578272E-3</v>
-      </c>
-      <c r="D35" s="14">
-        <f ca="1">_xlfn.NORM.INV(C35,normal_mean,normal_sd)</f>
-        <v>-0.23093371967313006</v>
+        <v>1.8060702529935687E-2</v>
       </c>
       <c r="E35" s="4">
-        <f t="shared" ca="1" si="3"/>
-        <v>1497362.8638170909</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>784708.48757888877</v>
       </c>
       <c r="F35" s="4">
-        <f t="shared" ca="1" si="1"/>
-        <v>-345791.57584169129</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>14172.386566878044</v>
       </c>
       <c r="G35" s="4">
-        <f>IF(B35&lt;=n_saving,annual_deposit,0)</f>
+        <f t="shared" si="1"/>
         <v>32000</v>
       </c>
       <c r="H35" s="4">
-        <f>IF(B35&gt;n_saving,-withdrawal,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I35" s="4">
-        <f t="shared" ca="1" si="4"/>
-        <v>1183571.2879753995</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>830880.87414576684</v>
       </c>
     </row>
     <row r="36" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B36">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>28</v>
       </c>
       <c r="C36" s="15">
+        <f t="shared" ca="1" si="3"/>
+        <v>7.004165166460985E-2</v>
+      </c>
+      <c r="D36" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>1.3584224643424569E-2</v>
-      </c>
-      <c r="D36" s="14">
-        <f ca="1">_xlfn.NORM.INV(C36,normal_mean,normal_sd)</f>
-        <v>-0.18090890258350639</v>
+        <v>-0.10754808860722376</v>
       </c>
       <c r="E36" s="4">
-        <f t="shared" ca="1" si="3"/>
-        <v>1183571.2879753995</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>830880.87414576684</v>
       </c>
       <c r="F36" s="4">
-        <f t="shared" ca="1" si="1"/>
-        <v>-214118.58283697674</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>-89359.64987467647</v>
       </c>
       <c r="G36" s="4">
-        <f>IF(B36&lt;=n_saving,annual_deposit,0)</f>
+        <f t="shared" si="1"/>
         <v>32000</v>
       </c>
       <c r="H36" s="4">
-        <f>IF(B36&gt;n_saving,-withdrawal,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I36" s="4">
-        <f t="shared" ca="1" si="4"/>
-        <v>1001452.7051384228</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>773521.22427109035</v>
       </c>
     </row>
     <row r="37" spans="2:9" x14ac:dyDescent="0.25">
@@ -7258,746 +7260,746 @@
         <v>29</v>
       </c>
       <c r="C37" s="15">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.89151611113133045</v>
+      </c>
+      <c r="D37" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>9.8850818189804346E-2</v>
-      </c>
-      <c r="D37" s="14">
-        <f ca="1">_xlfn.NORM.INV(C37,normal_mean,normal_sd)</f>
-        <v>-8.8812734945040051E-2</v>
+        <v>0.1634631237740187</v>
       </c>
       <c r="E37" s="4">
-        <f t="shared" ca="1" si="3"/>
-        <v>1001452.7051384228</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>773521.22427109035</v>
       </c>
       <c r="F37" s="4">
-        <f t="shared" ca="1" si="1"/>
-        <v>-88941.753661452094</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>126442.19562485573</v>
       </c>
       <c r="G37" s="4">
-        <f>IF(B37&lt;=n_saving,annual_deposit,0)</f>
+        <f t="shared" si="1"/>
         <v>32000</v>
       </c>
       <c r="H37" s="4">
-        <f>IF(B37&gt;n_saving,-withdrawal,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I37" s="4">
-        <f t="shared" ca="1" si="4"/>
-        <v>944510.95147697069</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>931963.41989594605</v>
       </c>
     </row>
     <row r="38" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B38">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>30</v>
       </c>
       <c r="C38" s="15">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.43171812717539948</v>
+      </c>
+      <c r="D38" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>0.42383882806301809</v>
-      </c>
-      <c r="D38" s="14">
-        <f ca="1">_xlfn.NORM.INV(C38,normal_mean,normal_sd)</f>
-        <v>2.0791759381275872E-2</v>
+        <v>2.2799837865962593E-2</v>
       </c>
       <c r="E38" s="4">
-        <f t="shared" ca="1" si="3"/>
-        <v>944510.95147697069</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>931963.41989594605</v>
       </c>
       <c r="F38" s="4">
-        <f t="shared" ca="1" si="1"/>
-        <v>19638.044436089105</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>21248.614870635585</v>
       </c>
       <c r="G38" s="4">
-        <f>IF(B38&lt;=n_saving,annual_deposit,0)</f>
+        <f t="shared" si="1"/>
         <v>32000</v>
       </c>
       <c r="H38" s="4">
-        <f>IF(B38&gt;n_saving,-withdrawal,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I38" s="4">
-        <f t="shared" ca="1" si="4"/>
-        <v>996148.9959130598</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>985212.03476658161</v>
       </c>
     </row>
     <row r="39" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B39">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>31</v>
       </c>
       <c r="C39" s="15">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.30038505097329282</v>
+      </c>
+      <c r="D39" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>0.98952155420219756</v>
-      </c>
-      <c r="D39" s="14">
-        <f ca="1">_xlfn.NORM.INV(C39,normal_mean,normal_sd)</f>
-        <v>0.27087602019397999</v>
+        <v>-1.2329338741646413E-2</v>
       </c>
       <c r="E39" s="4">
-        <f t="shared" ca="1" si="3"/>
-        <v>996148.9959130598</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>985212.03476658161</v>
       </c>
       <c r="F39" s="4">
-        <f t="shared" ca="1" si="1"/>
-        <v>269832.87553315889</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>-12147.012908983908</v>
       </c>
       <c r="G39" s="4">
-        <f>IF(B39&lt;=n_saving,annual_deposit,0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H39" s="4">
-        <f>IF(B39&gt;n_saving,-withdrawal,0)</f>
+        <f t="shared" si="2"/>
         <v>-100000</v>
       </c>
       <c r="I39" s="4">
-        <f t="shared" ca="1" si="4"/>
-        <v>1165981.8714462188</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>873065.02185759775</v>
       </c>
     </row>
     <row r="40" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>32</v>
       </c>
       <c r="C40" s="15">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.6879570590095665</v>
+      </c>
+      <c r="D40" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>0.95508902454983291</v>
-      </c>
-      <c r="D40" s="14">
-        <f ca="1">_xlfn.NORM.INV(C40,normal_mean,normal_sd)</f>
-        <v>0.20963376673812883</v>
+        <v>8.9006785750901291E-2</v>
       </c>
       <c r="E40" s="4">
-        <f t="shared" ca="1" si="3"/>
-        <v>1165981.8714462188</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>873065.02185759775</v>
       </c>
       <c r="F40" s="4">
-        <f t="shared" ca="1" si="1"/>
-        <v>244429.17165964356</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>77708.711347085162</v>
       </c>
       <c r="G40" s="4">
-        <f>IF(B40&lt;=n_saving,annual_deposit,0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H40" s="4">
-        <f>IF(B40&gt;n_saving,-withdrawal,0)</f>
+        <f t="shared" si="2"/>
         <v>-100000</v>
       </c>
       <c r="I40" s="4">
-        <f t="shared" ca="1" si="4"/>
-        <v>1310411.0431058623</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>850773.73320468294</v>
       </c>
     </row>
     <row r="41" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B41">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>33</v>
       </c>
       <c r="C41" s="15">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.11061966507534737</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>0.25438408357682452</v>
       </c>
       <c r="D41" s="14">
-        <f ca="1">_xlfn.NORM.INV(C41,normal_mean,normal_sd)</f>
-        <v>-8.2323928896412241E-2</v>
+        <f t="shared" ref="D41:D72" ca="1" si="8">_xlfn.NORM.INV(C41,normal_mean,normal_sd)</f>
+        <v>-2.6075699340658016E-2</v>
       </c>
       <c r="E41" s="4">
-        <f t="shared" ca="1" si="3"/>
-        <v>1310411.0431058623</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>850773.73320468294</v>
       </c>
       <c r="F41" s="4">
-        <f t="shared" ca="1" si="1"/>
-        <v>-107878.1855377204</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>-22184.520073974509</v>
       </c>
       <c r="G41" s="4">
-        <f>IF(B41&lt;=n_saving,annual_deposit,0)</f>
+        <f t="shared" ref="G41:G58" si="9">IF(B41&lt;=n_saving,annual_deposit,0)</f>
         <v>0</v>
       </c>
       <c r="H41" s="4">
-        <f>IF(B41&gt;n_saving,-withdrawal,0)</f>
+        <f t="shared" ref="H41:H58" si="10">IF(B41&gt;n_saving,-withdrawal,0)</f>
         <v>-100000</v>
       </c>
       <c r="I41" s="4">
-        <f t="shared" ca="1" si="4"/>
-        <v>1102532.857568142</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>728589.21313070843</v>
       </c>
     </row>
     <row r="42" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B42">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>34</v>
       </c>
       <c r="C42" s="15">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.51236600976374802</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>0.77145044090994341</v>
       </c>
       <c r="D42" s="14">
-        <f ca="1">_xlfn.NORM.INV(C42,normal_mean,normal_sd)</f>
-        <v>4.3100195510845679E-2</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>0.11436320333100045</v>
       </c>
       <c r="E42" s="4">
-        <f t="shared" ca="1" si="3"/>
-        <v>1102532.857568142</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>728589.21313070843</v>
       </c>
       <c r="F42" s="4">
-        <f t="shared" ca="1" si="1"/>
-        <v>47519.381718318291</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>83323.796326040829</v>
       </c>
       <c r="G42" s="4">
-        <f>IF(B42&lt;=n_saving,annual_deposit,0)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H42" s="4">
-        <f>IF(B42&gt;n_saving,-withdrawal,0)</f>
+        <f t="shared" si="10"/>
         <v>-100000</v>
       </c>
       <c r="I42" s="4">
-        <f t="shared" ca="1" si="4"/>
-        <v>1050052.2392864602</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>711913.00945674931</v>
       </c>
     </row>
     <row r="43" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B43">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>35</v>
       </c>
       <c r="C43" s="15">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.47983845590833873</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>0.78753190227932846</v>
       </c>
       <c r="D43" s="14">
-        <f ca="1">_xlfn.NORM.INV(C43,normal_mean,normal_sd)</f>
-        <v>3.494409718157325E-2</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>0.11978867805219232</v>
       </c>
       <c r="E43" s="4">
-        <f t="shared" ca="1" si="3"/>
-        <v>1050052.2392864602</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>711913.00945674931</v>
       </c>
       <c r="F43" s="4">
-        <f t="shared" ca="1" si="1"/>
-        <v>36693.127495354674</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>85279.118290981889</v>
       </c>
       <c r="G43" s="4">
-        <f>IF(B43&lt;=n_saving,annual_deposit,0)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H43" s="4">
-        <f>IF(B43&gt;n_saving,-withdrawal,0)</f>
+        <f t="shared" si="10"/>
         <v>-100000</v>
       </c>
       <c r="I43" s="4">
-        <f t="shared" ca="1" si="4"/>
-        <v>986745.36678181496</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>697192.12774773117</v>
       </c>
     </row>
     <row r="44" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B44">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>36</v>
       </c>
       <c r="C44" s="15">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.85591756707996214</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>0.14818545932674676</v>
       </c>
       <c r="D44" s="14">
-        <f ca="1">_xlfn.NORM.INV(C44,normal_mean,normal_sd)</f>
-        <v>0.14621560113118595</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>-6.4424745032540559E-2</v>
       </c>
       <c r="E44" s="4">
-        <f t="shared" ca="1" si="3"/>
-        <v>986745.36678181496</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>697192.12774773117</v>
       </c>
       <c r="F44" s="4">
-        <f t="shared" ca="1" si="1"/>
-        <v>144277.56696741565</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>-44916.425068842029</v>
       </c>
       <c r="G44" s="4">
-        <f>IF(B44&lt;=n_saving,annual_deposit,0)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H44" s="4">
-        <f>IF(B44&gt;n_saving,-withdrawal,0)</f>
+        <f t="shared" si="10"/>
         <v>-100000</v>
       </c>
       <c r="I44" s="4">
-        <f t="shared" ca="1" si="4"/>
-        <v>1031022.9337492306</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>552275.70267888915</v>
       </c>
     </row>
     <row r="45" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B45">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>37</v>
       </c>
       <c r="C45" s="15">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.28916241096029183</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>0.45849848179551034</v>
       </c>
       <c r="D45" s="14">
-        <f ca="1">_xlfn.NORM.INV(C45,normal_mean,normal_sd)</f>
-        <v>-1.5583329542300135E-2</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>2.9578277343454983E-2</v>
       </c>
       <c r="E45" s="4">
-        <f t="shared" ca="1" si="3"/>
-        <v>1031022.9337492306</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>552275.70267888915</v>
       </c>
       <c r="F45" s="4">
-        <f t="shared" ca="1" si="1"/>
-        <v>-16066.77014228334</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>16335.363903887668</v>
       </c>
       <c r="G45" s="4">
-        <f>IF(B45&lt;=n_saving,annual_deposit,0)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H45" s="4">
-        <f>IF(B45&gt;n_saving,-withdrawal,0)</f>
+        <f t="shared" si="10"/>
         <v>-100000</v>
       </c>
       <c r="I45" s="4">
-        <f t="shared" ca="1" si="4"/>
-        <v>914956.16360694729</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>468611.06658277684</v>
       </c>
     </row>
     <row r="46" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B46">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>38</v>
       </c>
       <c r="C46" s="15">
-        <f t="shared" ca="1" si="0"/>
-        <v>4.4636839208528345E-3</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>0.12147693656720626</v>
       </c>
       <c r="D46" s="14">
-        <f ca="1">_xlfn.NORM.INV(C46,normal_mean,normal_sd)</f>
-        <v>-0.22148231037350177</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>-7.6763537876507332E-2</v>
       </c>
       <c r="E46" s="4">
-        <f t="shared" ca="1" si="3"/>
-        <v>914956.16360694729</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>468611.06658277684</v>
       </c>
       <c r="F46" s="4">
-        <f t="shared" ca="1" si="1"/>
-        <v>-202646.60500614237</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>-35972.243358977488</v>
       </c>
       <c r="G46" s="4">
-        <f>IF(B46&lt;=n_saving,annual_deposit,0)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H46" s="4">
-        <f>IF(B46&gt;n_saving,-withdrawal,0)</f>
+        <f t="shared" si="10"/>
         <v>-100000</v>
       </c>
       <c r="I46" s="4">
-        <f t="shared" ca="1" si="4"/>
-        <v>612309.55860080488</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>332638.82322379935</v>
       </c>
     </row>
     <row r="47" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B47">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>39</v>
       </c>
       <c r="C47" s="15">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.77714660044946904</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>0.14563154534127987</v>
       </c>
       <c r="D47" s="14">
-        <f ca="1">_xlfn.NORM.INV(C47,normal_mean,normal_sd)</f>
-        <v>0.1162591929606499</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>-6.5535479180266393E-2</v>
       </c>
       <c r="E47" s="4">
-        <f t="shared" ca="1" si="3"/>
-        <v>612309.55860080488</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>332638.82322379935</v>
       </c>
       <c r="F47" s="4">
-        <f t="shared" ca="1" si="1"/>
-        <v>71186.615125021344</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>-21799.644673931616</v>
       </c>
       <c r="G47" s="4">
-        <f>IF(B47&lt;=n_saving,annual_deposit,0)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H47" s="4">
-        <f>IF(B47&gt;n_saving,-withdrawal,0)</f>
+        <f t="shared" si="10"/>
         <v>-100000</v>
       </c>
       <c r="I47" s="4">
-        <f t="shared" ca="1" si="4"/>
-        <v>583496.1737258262</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>210839.17854986771</v>
       </c>
     </row>
     <row r="48" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B48">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>40</v>
       </c>
       <c r="C48" s="15">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.51215885475168288</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>0.26828602026259551</v>
       </c>
       <c r="D48" s="14">
-        <f ca="1">_xlfn.NORM.INV(C48,normal_mean,normal_sd)</f>
-        <v>4.3048244906197797E-2</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>-2.1800500330507518E-2</v>
       </c>
       <c r="E48" s="4">
-        <f t="shared" ca="1" si="3"/>
-        <v>583496.1737258262</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>210839.17854986771</v>
       </c>
       <c r="F48" s="4">
-        <f t="shared" ca="1" si="1"/>
-        <v>25118.486188378702</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>-4596.3995816603247</v>
       </c>
       <c r="G48" s="4">
-        <f>IF(B48&lt;=n_saving,annual_deposit,0)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H48" s="4">
-        <f>IF(B48&gt;n_saving,-withdrawal,0)</f>
+        <f t="shared" si="10"/>
         <v>-100000</v>
       </c>
       <c r="I48" s="4">
-        <f t="shared" ca="1" si="4"/>
-        <v>508614.65991420485</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>106242.77896820739</v>
       </c>
     </row>
     <row r="49" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B49">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>41</v>
       </c>
       <c r="C49" s="15">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.95690680256150795</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>0.19947043908130357</v>
       </c>
       <c r="D49" s="14">
-        <f ca="1">_xlfn.NORM.INV(C49,normal_mean,normal_sd)</f>
-        <v>0.21158669615887862</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>-4.4351428818494125E-2</v>
       </c>
       <c r="E49" s="4">
-        <f t="shared" ca="1" si="3"/>
-        <v>508614.65991420485</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>106242.77896820739</v>
       </c>
       <c r="F49" s="4">
-        <f t="shared" ca="1" si="1"/>
-        <v>107616.09550921824</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>-4712.019048887455</v>
       </c>
       <c r="G49" s="4">
-        <f>IF(B49&lt;=n_saving,annual_deposit,0)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H49" s="4">
-        <f>IF(B49&gt;n_saving,-withdrawal,0)</f>
+        <f t="shared" si="10"/>
         <v>-100000</v>
       </c>
       <c r="I49" s="4">
-        <f t="shared" ca="1" si="4"/>
-        <v>516230.75542342314</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>1530.7599193199421</v>
       </c>
     </row>
     <row r="50" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B50">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>42</v>
       </c>
       <c r="C50" s="15">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.88455948493769287</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>0.35807828352247628</v>
       </c>
       <c r="D50" s="14">
-        <f ca="1">_xlfn.NORM.INV(C50,normal_mean,normal_sd)</f>
-        <v>0.15980924439556421</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>3.6399786122808392E-3</v>
       </c>
       <c r="E50" s="4">
-        <f t="shared" ca="1" si="3"/>
-        <v>516230.75542342314</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>1530.7599193199421</v>
       </c>
       <c r="F50" s="4">
-        <f t="shared" ca="1" si="1"/>
-        <v>82498.446957968568</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>5.571933366861332</v>
       </c>
       <c r="G50" s="4">
-        <f>IF(B50&lt;=n_saving,annual_deposit,0)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H50" s="4">
-        <f>IF(B50&gt;n_saving,-withdrawal,0)</f>
+        <f t="shared" si="10"/>
         <v>-100000</v>
       </c>
       <c r="I50" s="4">
-        <f t="shared" ca="1" si="4"/>
-        <v>498729.20238139166</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>-98463.66814731319</v>
       </c>
     </row>
     <row r="51" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B51">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>43</v>
       </c>
       <c r="C51" s="15">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.16044643113914347</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>0.65501938354459177</v>
       </c>
       <c r="D51" s="14">
-        <f ca="1">_xlfn.NORM.INV(C51,normal_mean,normal_sd)</f>
-        <v>-5.9262474275578701E-2</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>7.9890767616742922E-2</v>
       </c>
       <c r="E51" s="4">
-        <f t="shared" ca="1" si="3"/>
-        <v>498729.20238139166</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>-98463.66814731319</v>
       </c>
       <c r="F51" s="4">
-        <f t="shared" ca="1" si="1"/>
-        <v>-29555.926526607109</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>-7866.3380306490899</v>
       </c>
       <c r="G51" s="4">
-        <f>IF(B51&lt;=n_saving,annual_deposit,0)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H51" s="4">
-        <f>IF(B51&gt;n_saving,-withdrawal,0)</f>
+        <f t="shared" si="10"/>
         <v>-100000</v>
       </c>
       <c r="I51" s="4">
-        <f t="shared" ca="1" si="4"/>
-        <v>369173.27585478453</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>-206330.00617796229</v>
       </c>
     </row>
     <row r="52" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B52">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>44</v>
       </c>
       <c r="C52" s="15">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.38969024502342109</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>0.11206231020859569</v>
       </c>
       <c r="D52" s="14">
-        <f ca="1">_xlfn.NORM.INV(C52,normal_mean,normal_sd)</f>
-        <v>1.1987354670489635E-2</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>-8.1563335931376685E-2</v>
       </c>
       <c r="E52" s="4">
-        <f t="shared" ca="1" si="3"/>
-        <v>369173.27585478453</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>-206330.00617796229</v>
       </c>
       <c r="F52" s="4">
-        <f t="shared" ca="1" si="1"/>
-        <v>4425.4109925378098</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>16828.963606616166</v>
       </c>
       <c r="G52" s="4">
-        <f>IF(B52&lt;=n_saving,annual_deposit,0)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H52" s="4">
-        <f>IF(B52&gt;n_saving,-withdrawal,0)</f>
+        <f t="shared" si="10"/>
         <v>-100000</v>
       </c>
       <c r="I52" s="4">
-        <f t="shared" ca="1" si="4"/>
-        <v>273598.68684732233</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>-289501.04257134616</v>
       </c>
     </row>
     <row r="53" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B53">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>45</v>
       </c>
       <c r="C53" s="15">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.16360594294205477</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>9.1358749875144585E-2</v>
       </c>
       <c r="D53" s="14">
-        <f ca="1">_xlfn.NORM.INV(C53,normal_mean,normal_sd)</f>
-        <v>-5.7974524575416582E-2</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>-9.3243435338144443E-2</v>
       </c>
       <c r="E53" s="4">
-        <f t="shared" ca="1" si="3"/>
-        <v>273598.68684732233</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>-289501.04257134616</v>
       </c>
       <c r="F53" s="4">
-        <f t="shared" ca="1" si="1"/>
-        <v>-15861.753794431794</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>26994.071743326716</v>
       </c>
       <c r="G53" s="4">
-        <f>IF(B53&lt;=n_saving,annual_deposit,0)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H53" s="4">
-        <f>IF(B53&gt;n_saving,-withdrawal,0)</f>
+        <f t="shared" si="10"/>
         <v>-100000</v>
       </c>
       <c r="I53" s="4">
-        <f t="shared" ca="1" si="4"/>
-        <v>157736.93305289053</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>-362506.97082801943</v>
       </c>
     </row>
     <row r="54" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B54">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>46</v>
       </c>
       <c r="C54" s="15">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.75698167750380252</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>0.78828132094491377</v>
       </c>
       <c r="D54" s="14">
-        <f ca="1">_xlfn.NORM.INV(C54,normal_mean,normal_sd)</f>
-        <v>0.10966263757516154</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>0.12004720377533315</v>
       </c>
       <c r="E54" s="4">
-        <f t="shared" ca="1" si="3"/>
-        <v>157736.93305289053</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>-362506.97082801943</v>
       </c>
       <c r="F54" s="4">
-        <f t="shared" ca="1" si="1"/>
-        <v>17297.848121596653</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>-43517.948196969999</v>
       </c>
       <c r="G54" s="4">
-        <f>IF(B54&lt;=n_saving,annual_deposit,0)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H54" s="4">
-        <f>IF(B54&gt;n_saving,-withdrawal,0)</f>
+        <f t="shared" si="10"/>
         <v>-100000</v>
       </c>
       <c r="I54" s="4">
-        <f t="shared" ca="1" si="4"/>
-        <v>75034.781174487172</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>-506024.91902498942</v>
       </c>
     </row>
     <row r="55" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B55">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>47</v>
       </c>
       <c r="C55" s="15">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.52482115241111038</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>3.3986254537151983E-2</v>
       </c>
       <c r="D55" s="14">
-        <f ca="1">_xlfn.NORM.INV(C55,normal_mean,normal_sd)</f>
-        <v>4.6225759756607178E-2</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>-0.14251890272605164</v>
       </c>
       <c r="E55" s="4">
-        <f t="shared" ca="1" si="3"/>
-        <v>75034.781174487172</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>-506024.91902498942</v>
       </c>
       <c r="F55" s="4">
-        <f t="shared" ca="1" si="1"/>
-        <v>3468.5397679614348</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>72118.116211480621</v>
       </c>
       <c r="G55" s="4">
-        <f>IF(B55&lt;=n_saving,annual_deposit,0)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H55" s="4">
-        <f>IF(B55&gt;n_saving,-withdrawal,0)</f>
+        <f t="shared" si="10"/>
         <v>-100000</v>
       </c>
       <c r="I55" s="4">
-        <f t="shared" ca="1" si="4"/>
-        <v>-21496.679057551388</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>-533906.80281350878</v>
       </c>
     </row>
     <row r="56" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B56">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>48</v>
       </c>
       <c r="C56" s="15">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.6737485868464953</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>0.96900171559862702</v>
       </c>
       <c r="D56" s="14">
-        <f ca="1">_xlfn.NORM.INV(C56,normal_mean,normal_sd)</f>
-        <v>8.5028795034032628E-2</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>0.22663202822057799</v>
       </c>
       <c r="E56" s="4">
-        <f t="shared" ca="1" si="3"/>
-        <v>-21496.679057551388</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>-533906.80281350878</v>
       </c>
       <c r="F56" s="4">
-        <f t="shared" ca="1" si="1"/>
-        <v>-1827.8367174969187</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>-121000.38160238969</v>
       </c>
       <c r="G56" s="4">
-        <f>IF(B56&lt;=n_saving,annual_deposit,0)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H56" s="4">
-        <f>IF(B56&gt;n_saving,-withdrawal,0)</f>
+        <f t="shared" si="10"/>
         <v>-100000</v>
       </c>
       <c r="I56" s="4">
-        <f t="shared" ca="1" si="4"/>
-        <v>-123324.5157750483</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>-754907.18441589852</v>
       </c>
     </row>
     <row r="57" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B57">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>49</v>
       </c>
       <c r="C57" s="15">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.5417190395749969</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>0.4444176581435032</v>
       </c>
       <c r="D57" s="14">
-        <f ca="1">_xlfn.NORM.INV(C57,normal_mean,normal_sd)</f>
-        <v>5.047654565434137E-2</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>2.602218990056553E-2</v>
       </c>
       <c r="E57" s="4">
-        <f t="shared" ca="1" si="3"/>
-        <v>-123324.5157750483</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>-754907.18441589852</v>
       </c>
       <c r="F57" s="4">
-        <f t="shared" ca="1" si="1"/>
-        <v>-6224.9955508187686</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>-19644.338110171753</v>
       </c>
       <c r="G57" s="4">
-        <f>IF(B57&lt;=n_saving,annual_deposit,0)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H57" s="4">
-        <f>IF(B57&gt;n_saving,-withdrawal,0)</f>
+        <f t="shared" si="10"/>
         <v>-100000</v>
       </c>
       <c r="I57" s="4">
-        <f t="shared" ca="1" si="4"/>
-        <v>-229549.51132586709</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>-874551.52252607024</v>
       </c>
     </row>
     <row r="58" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B58">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>50</v>
       </c>
       <c r="C58" s="15">
-        <f t="shared" ca="1" si="0"/>
-        <v>8.9385223363298572E-2</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>0.41341430636324894</v>
       </c>
       <c r="D58" s="14">
-        <f ca="1">_xlfn.NORM.INV(C58,normal_mean,normal_sd)</f>
-        <v>-9.4455047233648337E-2</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>1.812292238914192E-2</v>
       </c>
       <c r="E58" s="4">
-        <f t="shared" ca="1" si="3"/>
-        <v>-229549.51132586709</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>-874551.52252607024</v>
       </c>
       <c r="F58" s="4">
-        <f t="shared" ca="1" si="1"/>
-        <v>21682.109934745669</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>-15849.429368045872</v>
       </c>
       <c r="G58" s="4">
-        <f>IF(B58&lt;=n_saving,annual_deposit,0)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H58" s="4">
-        <f>IF(B58&gt;n_saving,-withdrawal,0)</f>
+        <f t="shared" si="10"/>
         <v>-100000</v>
       </c>
       <c r="I58" s="4">
-        <f t="shared" ca="1" si="4"/>
-        <v>-307867.40139112144</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>-990400.95189411612</v>
       </c>
     </row>
     <row r="59" spans="2:9" x14ac:dyDescent="0.25">
@@ -8033,7 +8035,7 @@
       </c>
       <c r="C1" s="16">
         <f ca="1">Random!E3</f>
-        <v>-307867.40139112144</v>
+        <v>-990400.95189411612</v>
       </c>
       <c r="D1" t="str">
         <f ca="1">_xlfn.FORMULATEXT(C1)</f>
@@ -8046,7 +8048,7 @@
       </c>
       <c r="C2" s="4">
         <f t="dataTable" ref="C2:C101" dt2D="0" dtr="0" r1="E1" ca="1"/>
-        <v>-668963.71276115766</v>
+        <v>-1512816.8753256924</v>
       </c>
       <c r="D2" t="str">
         <f ca="1">_xlfn.FORMULATEXT(C2)</f>
@@ -8059,7 +8061,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="4">
-        <v>-90823.532713871085</v>
+        <v>-776145.93352336576</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -8068,7 +8070,7 @@
         <v>3</v>
       </c>
       <c r="C4" s="4">
-        <v>2475921.4640317592</v>
+        <v>-552631.20504845399</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -8077,7 +8079,7 @@
         <v>4</v>
       </c>
       <c r="C5" s="4">
-        <v>1151815.2745760868</v>
+        <v>394882.80957432999</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -8086,7 +8088,7 @@
         <v>5</v>
       </c>
       <c r="C6" s="4">
-        <v>28844.492740189307</v>
+        <v>357383.50229196367</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -8095,7 +8097,7 @@
         <v>6</v>
       </c>
       <c r="C7" s="4">
-        <v>138926.74362186939</v>
+        <v>89820.676311609626</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -8104,7 +8106,7 @@
         <v>7</v>
       </c>
       <c r="C8" s="4">
-        <v>895330.76244464098</v>
+        <v>-458168.64088641421</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -8113,7 +8115,7 @@
         <v>8</v>
       </c>
       <c r="C9" s="4">
-        <v>-1440521.999935288</v>
+        <v>4791947.1919173198</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -8122,7 +8124,7 @@
         <v>9</v>
       </c>
       <c r="C10" s="4">
-        <v>812776.56488208019</v>
+        <v>273490.86086380843</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -8131,7 +8133,7 @@
         <v>10</v>
       </c>
       <c r="C11" s="4">
-        <v>422593.70090281405</v>
+        <v>3965255.7367841071</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -8140,7 +8142,7 @@
         <v>11</v>
       </c>
       <c r="C12" s="4">
-        <v>684548.90218905907</v>
+        <v>3655891.3079346647</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -8149,7 +8151,7 @@
         <v>12</v>
       </c>
       <c r="C13" s="4">
-        <v>4291603.3370355796</v>
+        <v>-663965.25391847338</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -8158,7 +8160,7 @@
         <v>13</v>
       </c>
       <c r="C14" s="4">
-        <v>1395253.9459032794</v>
+        <v>-636720.39508548728</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -8167,7 +8169,7 @@
         <v>14</v>
       </c>
       <c r="C15" s="4">
-        <v>4572093.4418388782</v>
+        <v>1755226.0708460843</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -8176,7 +8178,7 @@
         <v>15</v>
       </c>
       <c r="C16" s="4">
-        <v>2989258.6844997858</v>
+        <v>1810358.354546716</v>
       </c>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.25">
@@ -8185,7 +8187,7 @@
         <v>16</v>
       </c>
       <c r="C17" s="4">
-        <v>-2298054.163704508</v>
+        <v>913238.06538195931</v>
       </c>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.25">
@@ -8194,7 +8196,7 @@
         <v>17</v>
       </c>
       <c r="C18" s="4">
-        <v>386498.8750890143</v>
+        <v>905026.76201338554</v>
       </c>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.25">
@@ -8203,7 +8205,7 @@
         <v>18</v>
       </c>
       <c r="C19" s="4">
-        <v>-367626.17755722144</v>
+        <v>30929.600773920785</v>
       </c>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.25">
@@ -8212,7 +8214,7 @@
         <v>19</v>
       </c>
       <c r="C20" s="4">
-        <v>-2145131.7107416582</v>
+        <v>-1166915.2417196918</v>
       </c>
     </row>
     <row r="21" spans="2:3" x14ac:dyDescent="0.25">
@@ -8221,7 +8223,7 @@
         <v>20</v>
       </c>
       <c r="C21" s="4">
-        <v>-784247.77236170066</v>
+        <v>858248.09823012131</v>
       </c>
     </row>
     <row r="22" spans="2:3" x14ac:dyDescent="0.25">
@@ -8230,7 +8232,7 @@
         <v>21</v>
       </c>
       <c r="C22" s="4">
-        <v>-322495.00825687719</v>
+        <v>1232035.6702661321</v>
       </c>
     </row>
     <row r="23" spans="2:3" x14ac:dyDescent="0.25">
@@ -8239,7 +8241,7 @@
         <v>22</v>
       </c>
       <c r="C23" s="4">
-        <v>-578060.61412429903</v>
+        <v>-808716.71069279208</v>
       </c>
     </row>
     <row r="24" spans="2:3" x14ac:dyDescent="0.25">
@@ -8248,7 +8250,7 @@
         <v>23</v>
       </c>
       <c r="C24" s="4">
-        <v>3936219.0943783871</v>
+        <v>21846.586933865896</v>
       </c>
     </row>
     <row r="25" spans="2:3" x14ac:dyDescent="0.25">
@@ -8257,7 +8259,7 @@
         <v>24</v>
       </c>
       <c r="C25" s="4">
-        <v>2244129.0686167749</v>
+        <v>-1420175.8032384245</v>
       </c>
     </row>
     <row r="26" spans="2:3" x14ac:dyDescent="0.25">
@@ -8266,7 +8268,7 @@
         <v>25</v>
       </c>
       <c r="C26" s="4">
-        <v>-565914.32834927074</v>
+        <v>1399184.0308251865</v>
       </c>
     </row>
     <row r="27" spans="2:3" x14ac:dyDescent="0.25">
@@ -8275,7 +8277,7 @@
         <v>26</v>
       </c>
       <c r="C27" s="4">
-        <v>-326292.50289992965</v>
+        <v>4373364.2792164227</v>
       </c>
     </row>
     <row r="28" spans="2:3" x14ac:dyDescent="0.25">
@@ -8284,7 +8286,7 @@
         <v>27</v>
       </c>
       <c r="C28" s="4">
-        <v>-514988.23628927046</v>
+        <v>-701935.01985668053</v>
       </c>
     </row>
     <row r="29" spans="2:3" x14ac:dyDescent="0.25">
@@ -8293,7 +8295,7 @@
         <v>28</v>
       </c>
       <c r="C29" s="4">
-        <v>4403761.2022649301</v>
+        <v>333497.08756101807</v>
       </c>
     </row>
     <row r="30" spans="2:3" x14ac:dyDescent="0.25">
@@ -8302,7 +8304,7 @@
         <v>29</v>
       </c>
       <c r="C30" s="4">
-        <v>969177.93036781438</v>
+        <v>-52785.011908604691</v>
       </c>
     </row>
     <row r="31" spans="2:3" x14ac:dyDescent="0.25">
@@ -8311,7 +8313,7 @@
         <v>30</v>
       </c>
       <c r="C31" s="4">
-        <v>-693999.34469365119</v>
+        <v>5459028.7311443686</v>
       </c>
     </row>
     <row r="32" spans="2:3" x14ac:dyDescent="0.25">
@@ -8320,7 +8322,7 @@
         <v>31</v>
       </c>
       <c r="C32" s="4">
-        <v>4660249.5877512926</v>
+        <v>307428.01989546989</v>
       </c>
     </row>
     <row r="33" spans="2:3" x14ac:dyDescent="0.25">
@@ -8329,7 +8331,7 @@
         <v>32</v>
       </c>
       <c r="C33" s="4">
-        <v>3114251.0571178868</v>
+        <v>761695.28329307935</v>
       </c>
     </row>
     <row r="34" spans="2:3" x14ac:dyDescent="0.25">
@@ -8338,7 +8340,7 @@
         <v>33</v>
       </c>
       <c r="C34" s="4">
-        <v>2248345.2137107211</v>
+        <v>273702.47273252602</v>
       </c>
     </row>
     <row r="35" spans="2:3" x14ac:dyDescent="0.25">
@@ -8347,7 +8349,7 @@
         <v>34</v>
       </c>
       <c r="C35" s="4">
-        <v>-920100.21591601486</v>
+        <v>-1165110.3211515844</v>
       </c>
     </row>
     <row r="36" spans="2:3" x14ac:dyDescent="0.25">
@@ -8356,7 +8358,7 @@
         <v>35</v>
       </c>
       <c r="C36" s="4">
-        <v>-30140.440959031883</v>
+        <v>-586737.42127447855</v>
       </c>
     </row>
     <row r="37" spans="2:3" x14ac:dyDescent="0.25">
@@ -8365,7 +8367,7 @@
         <v>36</v>
       </c>
       <c r="C37" s="4">
-        <v>829134.12069099105</v>
+        <v>-80658.916162595371</v>
       </c>
     </row>
     <row r="38" spans="2:3" x14ac:dyDescent="0.25">
@@ -8374,7 +8376,7 @@
         <v>37</v>
       </c>
       <c r="C38" s="4">
-        <v>-166809.65614958623</v>
+        <v>478448.84384614928</v>
       </c>
     </row>
     <row r="39" spans="2:3" x14ac:dyDescent="0.25">
@@ -8383,7 +8385,7 @@
         <v>38</v>
       </c>
       <c r="C39" s="4">
-        <v>2053443.6772416444</v>
+        <v>-836736.57567556878</v>
       </c>
     </row>
     <row r="40" spans="2:3" x14ac:dyDescent="0.25">
@@ -8392,7 +8394,7 @@
         <v>39</v>
       </c>
       <c r="C40" s="4">
-        <v>-379152.70834011439</v>
+        <v>568199.40780842863</v>
       </c>
     </row>
     <row r="41" spans="2:3" x14ac:dyDescent="0.25">
@@ -8401,7 +8403,7 @@
         <v>40</v>
       </c>
       <c r="C41" s="4">
-        <v>968872.16925220331</v>
+        <v>1304946.6587832335</v>
       </c>
     </row>
     <row r="42" spans="2:3" x14ac:dyDescent="0.25">
@@ -8410,7 +8412,7 @@
         <v>41</v>
       </c>
       <c r="C42" s="4">
-        <v>2999815.2206689478</v>
+        <v>698461.60946273303</v>
       </c>
     </row>
     <row r="43" spans="2:3" x14ac:dyDescent="0.25">
@@ -8419,7 +8421,7 @@
         <v>42</v>
       </c>
       <c r="C43" s="4">
-        <v>-1563676.2600796581</v>
+        <v>706926.32355895243</v>
       </c>
     </row>
     <row r="44" spans="2:3" x14ac:dyDescent="0.25">
@@ -8428,7 +8430,7 @@
         <v>43</v>
       </c>
       <c r="C44" s="4">
-        <v>-414475.75893951143</v>
+        <v>-352560.19667539198</v>
       </c>
     </row>
     <row r="45" spans="2:3" x14ac:dyDescent="0.25">
@@ -8437,7 +8439,7 @@
         <v>44</v>
       </c>
       <c r="C45" s="4">
-        <v>1503872.710113717</v>
+        <v>2534594.2013851334</v>
       </c>
     </row>
     <row r="46" spans="2:3" x14ac:dyDescent="0.25">
@@ -8446,7 +8448,7 @@
         <v>45</v>
       </c>
       <c r="C46" s="4">
-        <v>-633711.3071667956</v>
+        <v>-76452.572892422526</v>
       </c>
     </row>
     <row r="47" spans="2:3" x14ac:dyDescent="0.25">
@@ -8455,7 +8457,7 @@
         <v>46</v>
       </c>
       <c r="C47" s="4">
-        <v>263009.02569187013</v>
+        <v>2333935.495068619</v>
       </c>
     </row>
     <row r="48" spans="2:3" x14ac:dyDescent="0.25">
@@ -8464,7 +8466,7 @@
         <v>47</v>
       </c>
       <c r="C48" s="4">
-        <v>-1491753.6185260729</v>
+        <v>1034897.7147733562</v>
       </c>
     </row>
     <row r="49" spans="2:3" x14ac:dyDescent="0.25">
@@ -8473,7 +8475,7 @@
         <v>48</v>
       </c>
       <c r="C49" s="4">
-        <v>-444599.33974552329</v>
+        <v>-27707.651703847077</v>
       </c>
     </row>
     <row r="50" spans="2:3" x14ac:dyDescent="0.25">
@@ -8482,7 +8484,7 @@
         <v>49</v>
       </c>
       <c r="C50" s="4">
-        <v>-582820.65225896379</v>
+        <v>803910.43390030088</v>
       </c>
     </row>
     <row r="51" spans="2:3" x14ac:dyDescent="0.25">
@@ -8491,7 +8493,7 @@
         <v>50</v>
       </c>
       <c r="C51" s="4">
-        <v>918373.37189343595</v>
+        <v>380865.25172231445</v>
       </c>
     </row>
     <row r="52" spans="2:3" x14ac:dyDescent="0.25">
@@ -8500,7 +8502,7 @@
         <v>51</v>
       </c>
       <c r="C52" s="4">
-        <v>-918185.92240685539</v>
+        <v>1044964.7741517453</v>
       </c>
     </row>
     <row r="53" spans="2:3" x14ac:dyDescent="0.25">
@@ -8509,7 +8511,7 @@
         <v>52</v>
       </c>
       <c r="C53" s="4">
-        <v>-1253040.489060414</v>
+        <v>1617166.5983271948</v>
       </c>
     </row>
     <row r="54" spans="2:3" x14ac:dyDescent="0.25">
@@ -8518,7 +8520,7 @@
         <v>53</v>
       </c>
       <c r="C54" s="4">
-        <v>1059784.1129981352</v>
+        <v>7021625.4450221425</v>
       </c>
     </row>
     <row r="55" spans="2:3" x14ac:dyDescent="0.25">
@@ -8527,7 +8529,7 @@
         <v>54</v>
       </c>
       <c r="C55" s="4">
-        <v>6936534.5634947941</v>
+        <v>-919955.49864453624</v>
       </c>
     </row>
     <row r="56" spans="2:3" x14ac:dyDescent="0.25">
@@ -8536,7 +8538,7 @@
         <v>55</v>
       </c>
       <c r="C56" s="4">
-        <v>336521.54743990471</v>
+        <v>218554.58976652322</v>
       </c>
     </row>
     <row r="57" spans="2:3" x14ac:dyDescent="0.25">
@@ -8545,7 +8547,7 @@
         <v>56</v>
       </c>
       <c r="C57" s="4">
-        <v>-330434.73343358177</v>
+        <v>-25380.833505372386</v>
       </c>
     </row>
     <row r="58" spans="2:3" x14ac:dyDescent="0.25">
@@ -8554,7 +8556,7 @@
         <v>57</v>
       </c>
       <c r="C58" s="4">
-        <v>550299.81131294544</v>
+        <v>667804.41119042004</v>
       </c>
     </row>
     <row r="59" spans="2:3" x14ac:dyDescent="0.25">
@@ -8563,7 +8565,7 @@
         <v>58</v>
       </c>
       <c r="C59" s="4">
-        <v>-879452.68249227549</v>
+        <v>4575760.2259674175</v>
       </c>
     </row>
     <row r="60" spans="2:3" x14ac:dyDescent="0.25">
@@ -8572,7 +8574,7 @@
         <v>59</v>
       </c>
       <c r="C60" s="4">
-        <v>686230.0083462256</v>
+        <v>-297151.24041477224</v>
       </c>
     </row>
     <row r="61" spans="2:3" x14ac:dyDescent="0.25">
@@ -8581,7 +8583,7 @@
         <v>60</v>
       </c>
       <c r="C61" s="4">
-        <v>577808.12087784684</v>
+        <v>1994731.0561938793</v>
       </c>
     </row>
     <row r="62" spans="2:3" x14ac:dyDescent="0.25">
@@ -8590,7 +8592,7 @@
         <v>61</v>
       </c>
       <c r="C62" s="4">
-        <v>367227.76632592105</v>
+        <v>3043994.0254624775</v>
       </c>
     </row>
     <row r="63" spans="2:3" x14ac:dyDescent="0.25">
@@ -8599,7 +8601,7 @@
         <v>62</v>
       </c>
       <c r="C63" s="4">
-        <v>33857.503654002736</v>
+        <v>1022506.8909264144</v>
       </c>
     </row>
     <row r="64" spans="2:3" x14ac:dyDescent="0.25">
@@ -8608,7 +8610,7 @@
         <v>63</v>
       </c>
       <c r="C64" s="4">
-        <v>-1589752.5133572253</v>
+        <v>-18898.012484952385</v>
       </c>
     </row>
     <row r="65" spans="2:3" x14ac:dyDescent="0.25">
@@ -8617,7 +8619,7 @@
         <v>64</v>
       </c>
       <c r="C65" s="4">
-        <v>428915.04793857841</v>
+        <v>2394657.5670208405</v>
       </c>
     </row>
     <row r="66" spans="2:3" x14ac:dyDescent="0.25">
@@ -8626,7 +8628,7 @@
         <v>65</v>
       </c>
       <c r="C66" s="4">
-        <v>836561.60754115158</v>
+        <v>-322837.44031842088</v>
       </c>
     </row>
     <row r="67" spans="2:3" x14ac:dyDescent="0.25">
@@ -8635,16 +8637,16 @@
         <v>66</v>
       </c>
       <c r="C67" s="4">
-        <v>1227320.2874387926</v>
+        <v>1598853.5640961013</v>
       </c>
     </row>
     <row r="68" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B68">
-        <f t="shared" ref="B68:B131" si="1">B67+1</f>
+        <f t="shared" ref="B68:B101" si="1">B67+1</f>
         <v>67</v>
       </c>
       <c r="C68" s="4">
-        <v>1002286.6570227598</v>
+        <v>3393266.6153001045</v>
       </c>
     </row>
     <row r="69" spans="2:3" x14ac:dyDescent="0.25">
@@ -8653,7 +8655,7 @@
         <v>68</v>
       </c>
       <c r="C69" s="4">
-        <v>2926062.24484098</v>
+        <v>410266.2397722993</v>
       </c>
     </row>
     <row r="70" spans="2:3" x14ac:dyDescent="0.25">
@@ -8662,7 +8664,7 @@
         <v>69</v>
       </c>
       <c r="C70" s="4">
-        <v>-547975.32369141327</v>
+        <v>1007337.1639756267</v>
       </c>
     </row>
     <row r="71" spans="2:3" x14ac:dyDescent="0.25">
@@ -8671,7 +8673,7 @@
         <v>70</v>
       </c>
       <c r="C71" s="4">
-        <v>1034337.8646285257</v>
+        <v>-662256.86894496554</v>
       </c>
     </row>
     <row r="72" spans="2:3" x14ac:dyDescent="0.25">
@@ -8680,7 +8682,7 @@
         <v>71</v>
       </c>
       <c r="C72" s="4">
-        <v>-150334.70448896149</v>
+        <v>875612.19517151953</v>
       </c>
     </row>
     <row r="73" spans="2:3" x14ac:dyDescent="0.25">
@@ -8689,7 +8691,7 @@
         <v>72</v>
       </c>
       <c r="C73" s="4">
-        <v>4494627.5508413715</v>
+        <v>-1036130.6716218761</v>
       </c>
     </row>
     <row r="74" spans="2:3" x14ac:dyDescent="0.25">
@@ -8698,7 +8700,7 @@
         <v>73</v>
       </c>
       <c r="C74" s="4">
-        <v>1320326.3683844546</v>
+        <v>803001.88760699541</v>
       </c>
     </row>
     <row r="75" spans="2:3" x14ac:dyDescent="0.25">
@@ -8707,7 +8709,7 @@
         <v>74</v>
       </c>
       <c r="C75" s="4">
-        <v>8529.8590471020434</v>
+        <v>2184121.1702604662</v>
       </c>
     </row>
     <row r="76" spans="2:3" x14ac:dyDescent="0.25">
@@ -8716,7 +8718,7 @@
         <v>75</v>
       </c>
       <c r="C76" s="4">
-        <v>-1077625.6484586413</v>
+        <v>2523771.146898034</v>
       </c>
     </row>
     <row r="77" spans="2:3" x14ac:dyDescent="0.25">
@@ -8725,7 +8727,7 @@
         <v>76</v>
       </c>
       <c r="C77" s="4">
-        <v>-246546.56708365332</v>
+        <v>1307555.2839316805</v>
       </c>
     </row>
     <row r="78" spans="2:3" x14ac:dyDescent="0.25">
@@ -8734,7 +8736,7 @@
         <v>77</v>
       </c>
       <c r="C78" s="4">
-        <v>-378601.52350801282</v>
+        <v>-180568.83494059779</v>
       </c>
     </row>
     <row r="79" spans="2:3" x14ac:dyDescent="0.25">
@@ -8743,7 +8745,7 @@
         <v>78</v>
       </c>
       <c r="C79" s="4">
-        <v>1276298.3847623952</v>
+        <v>-223099.06698016031</v>
       </c>
     </row>
     <row r="80" spans="2:3" x14ac:dyDescent="0.25">
@@ -8752,7 +8754,7 @@
         <v>79</v>
       </c>
       <c r="C80" s="4">
-        <v>194307.03810814332</v>
+        <v>1069789.4511396899</v>
       </c>
     </row>
     <row r="81" spans="2:3" x14ac:dyDescent="0.25">
@@ -8761,7 +8763,7 @@
         <v>80</v>
       </c>
       <c r="C81" s="4">
-        <v>-1404613.9190069649</v>
+        <v>609857.02180467709</v>
       </c>
     </row>
     <row r="82" spans="2:3" x14ac:dyDescent="0.25">
@@ -8770,7 +8772,7 @@
         <v>81</v>
       </c>
       <c r="C82" s="4">
-        <v>1411678.5334636844</v>
+        <v>603958.98262447293</v>
       </c>
     </row>
     <row r="83" spans="2:3" x14ac:dyDescent="0.25">
@@ -8779,7 +8781,7 @@
         <v>82</v>
       </c>
       <c r="C83" s="4">
-        <v>-786037.69242026517</v>
+        <v>410710.74191896874</v>
       </c>
     </row>
     <row r="84" spans="2:3" x14ac:dyDescent="0.25">
@@ -8788,7 +8790,7 @@
         <v>83</v>
       </c>
       <c r="C84" s="4">
-        <v>-400134.39830599556</v>
+        <v>2794057.6942261346</v>
       </c>
     </row>
     <row r="85" spans="2:3" x14ac:dyDescent="0.25">
@@ -8797,7 +8799,7 @@
         <v>84</v>
       </c>
       <c r="C85" s="4">
-        <v>1737863.0846910689</v>
+        <v>-231862.03194915084</v>
       </c>
     </row>
     <row r="86" spans="2:3" x14ac:dyDescent="0.25">
@@ -8806,7 +8808,7 @@
         <v>85</v>
       </c>
       <c r="C86" s="4">
-        <v>-964020.57704388094</v>
+        <v>-192001.45305572165</v>
       </c>
     </row>
     <row r="87" spans="2:3" x14ac:dyDescent="0.25">
@@ -8815,7 +8817,7 @@
         <v>86</v>
       </c>
       <c r="C87" s="4">
-        <v>2255211.2243803479</v>
+        <v>-656289.69114670355</v>
       </c>
     </row>
     <row r="88" spans="2:3" x14ac:dyDescent="0.25">
@@ -8824,7 +8826,7 @@
         <v>87</v>
       </c>
       <c r="C88" s="4">
-        <v>620414.23101289279</v>
+        <v>916737.28720717051</v>
       </c>
     </row>
     <row r="89" spans="2:3" x14ac:dyDescent="0.25">
@@ -8833,7 +8835,7 @@
         <v>88</v>
       </c>
       <c r="C89" s="4">
-        <v>748306.34690389363</v>
+        <v>-513253.169915081</v>
       </c>
     </row>
     <row r="90" spans="2:3" x14ac:dyDescent="0.25">
@@ -8842,7 +8844,7 @@
         <v>89</v>
       </c>
       <c r="C90" s="4">
-        <v>2871655.8793892418</v>
+        <v>2581728.9875694918</v>
       </c>
     </row>
     <row r="91" spans="2:3" x14ac:dyDescent="0.25">
@@ -8851,7 +8853,7 @@
         <v>90</v>
       </c>
       <c r="C91" s="4">
-        <v>473357.7513355324</v>
+        <v>106856.20206424303</v>
       </c>
     </row>
     <row r="92" spans="2:3" x14ac:dyDescent="0.25">
@@ -8860,7 +8862,7 @@
         <v>91</v>
       </c>
       <c r="C92" s="4">
-        <v>1611581.7425942086</v>
+        <v>139470.86881910561</v>
       </c>
     </row>
     <row r="93" spans="2:3" x14ac:dyDescent="0.25">
@@ -8869,7 +8871,7 @@
         <v>92</v>
       </c>
       <c r="C93" s="4">
-        <v>1113664.0330863285</v>
+        <v>-997126.81205762725</v>
       </c>
     </row>
     <row r="94" spans="2:3" x14ac:dyDescent="0.25">
@@ -8878,7 +8880,7 @@
         <v>93</v>
       </c>
       <c r="C94" s="4">
-        <v>-736687.1479894818</v>
+        <v>-178281.90908350403</v>
       </c>
     </row>
     <row r="95" spans="2:3" x14ac:dyDescent="0.25">
@@ -8887,7 +8889,7 @@
         <v>94</v>
       </c>
       <c r="C95" s="4">
-        <v>1035380.802148713</v>
+        <v>2523087.6965010031</v>
       </c>
     </row>
     <row r="96" spans="2:3" x14ac:dyDescent="0.25">
@@ -8896,7 +8898,7 @@
         <v>95</v>
       </c>
       <c r="C96" s="4">
-        <v>747713.34177529335</v>
+        <v>-512216.83824887394</v>
       </c>
     </row>
     <row r="97" spans="2:3" x14ac:dyDescent="0.25">
@@ -8905,7 +8907,7 @@
         <v>96</v>
       </c>
       <c r="C97" s="4">
-        <v>458797.08667596325</v>
+        <v>382209.03624083882</v>
       </c>
     </row>
     <row r="98" spans="2:3" x14ac:dyDescent="0.25">
@@ -8914,7 +8916,7 @@
         <v>97</v>
       </c>
       <c r="C98" s="4">
-        <v>1796035.3637703259</v>
+        <v>2502509.983454824</v>
       </c>
     </row>
     <row r="99" spans="2:3" x14ac:dyDescent="0.25">
@@ -8923,7 +8925,7 @@
         <v>98</v>
       </c>
       <c r="C99" s="4">
-        <v>3788668.2185455975</v>
+        <v>3561444.5516059343</v>
       </c>
     </row>
     <row r="100" spans="2:3" x14ac:dyDescent="0.25">
@@ -8932,7 +8934,7 @@
         <v>99</v>
       </c>
       <c r="C100" s="4">
-        <v>-62510.312916169089</v>
+        <v>3953729.9700072305</v>
       </c>
     </row>
     <row r="101" spans="2:3" x14ac:dyDescent="0.25">
@@ -8941,7 +8943,7 @@
         <v>100</v>
       </c>
       <c r="C101" s="4">
-        <v>248965.62752228626</v>
+        <v>1405390.2777386487</v>
       </c>
     </row>
   </sheetData>
